--- a/process_data/GPP_6210501001_real.xlsx
+++ b/process_data/GPP_6210501001_real.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pantchanit/Documents/final_stat_pant/process_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C493FC2A-112B-2042-AE96-F864608EEF71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A2B3CC-9845-FA49-851B-BAE4AD1EEB7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5460" yWindow="1660" windowWidth="38320" windowHeight="16940" activeTab="2" xr2:uid="{F412434C-C783-6D4A-8278-77BCBC527C82}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20360" activeTab="2" xr2:uid="{F412434C-C783-6D4A-8278-77BCBC527C82}"/>
   </bookViews>
   <sheets>
     <sheet name="Ayutthaya" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="58">
   <si>
     <t>Year</t>
   </si>
@@ -206,6 +206,12 @@
   <si>
     <t>1996</t>
   </si>
+  <si>
+    <t>เนื้อที่สำหรับปลูกพืชไร่ (ไร่)</t>
+  </si>
+  <si>
+    <t>เนื้อที่สำหรับปลูกนาข้าว (ไร่)</t>
+  </si>
 </sst>
 </file>
 
@@ -335,7 +341,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -359,9 +365,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -383,9 +386,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -403,8 +403,6 @@
     <xf numFmtId="164" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -414,20 +412,23 @@
     <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -747,7 +748,7 @@
   <dimension ref="A1:AF26"/>
   <sheetViews>
     <sheetView topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AA1" sqref="AA1"/>
+      <selection activeCell="AH15" sqref="AH15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -932,25 +933,25 @@
       <c r="Y2" s="8">
         <v>59467272</v>
       </c>
-      <c r="Z2" s="16">
+      <c r="Z2" s="15">
         <v>0.11917999999999999</v>
       </c>
-      <c r="AA2" s="15">
+      <c r="AA2" s="14">
         <v>12393.62893434</v>
       </c>
-      <c r="AB2" s="15">
+      <c r="AB2" s="14">
         <v>1141681.3373884801</v>
       </c>
-      <c r="AC2" s="15">
+      <c r="AC2" s="14">
         <v>205979.6393863</v>
       </c>
-      <c r="AD2" s="15">
+      <c r="AD2" s="14">
         <v>8722.2640909999991</v>
       </c>
-      <c r="AE2" s="15">
-        <v>177.28011573000001</v>
-      </c>
-      <c r="AF2" s="10">
+      <c r="AE2" s="14">
+        <v>178</v>
+      </c>
+      <c r="AF2" s="9">
         <v>143862.554</v>
       </c>
     </row>
@@ -1033,22 +1034,22 @@
       <c r="Z3" s="8">
         <v>0.11917999999999999</v>
       </c>
-      <c r="AA3" s="15">
+      <c r="AA3" s="14">
         <v>13253.421436680001</v>
       </c>
-      <c r="AB3" s="15">
+      <c r="AB3" s="14">
         <v>1144784.2627945901</v>
       </c>
-      <c r="AC3" s="15">
+      <c r="AC3" s="14">
         <v>297245.16013127001</v>
       </c>
-      <c r="AD3" s="15">
+      <c r="AD3" s="14">
         <v>8722.2640909999991</v>
       </c>
-      <c r="AE3" s="15">
-        <v>171.30690906999999</v>
-      </c>
-      <c r="AF3" s="10">
+      <c r="AE3" s="14">
+        <v>172</v>
+      </c>
+      <c r="AF3" s="9">
         <v>171503.91700000002</v>
       </c>
     </row>
@@ -1131,22 +1132,22 @@
       <c r="Z4" s="8">
         <v>0.10213999999999999</v>
       </c>
-      <c r="AA4" s="15">
+      <c r="AA4" s="14">
         <v>13493.53974975</v>
       </c>
-      <c r="AB4" s="15">
+      <c r="AB4" s="14">
         <v>1145650.83142842</v>
       </c>
-      <c r="AC4" s="15">
+      <c r="AC4" s="14">
         <v>322733.31317272002</v>
       </c>
-      <c r="AD4" s="15">
+      <c r="AD4" s="14">
         <v>8722.2640909999991</v>
       </c>
-      <c r="AE4" s="15">
-        <v>169.63874343000001</v>
-      </c>
-      <c r="AF4" s="10">
+      <c r="AE4" s="14">
+        <v>170</v>
+      </c>
+      <c r="AF4" s="9">
         <v>179223.451</v>
       </c>
     </row>
@@ -1226,25 +1227,25 @@
       <c r="Y5" s="8">
         <v>61585103</v>
       </c>
-      <c r="Z5" s="16">
+      <c r="Z5" s="15">
         <v>0.17524999999999999</v>
       </c>
-      <c r="AA5" s="15">
+      <c r="AA5" s="14">
         <v>13536.72492914</v>
       </c>
-      <c r="AB5" s="15">
+      <c r="AB5" s="14">
         <v>1145806.68343912</v>
       </c>
-      <c r="AC5" s="15">
+      <c r="AC5" s="14">
         <v>327317.34696489997</v>
       </c>
-      <c r="AD5" s="15">
+      <c r="AD5" s="14">
         <v>10417.613442</v>
       </c>
-      <c r="AE5" s="15">
-        <v>169.33872453000001</v>
-      </c>
-      <c r="AF5" s="10">
+      <c r="AE5" s="14">
+        <v>170</v>
+      </c>
+      <c r="AF5" s="9">
         <v>180611.80600000001</v>
       </c>
     </row>
@@ -1327,22 +1328,22 @@
       <c r="Z6" s="8">
         <v>0.24836</v>
       </c>
-      <c r="AA6" s="15">
+      <c r="AA6" s="14">
         <v>13824.29018795</v>
       </c>
-      <c r="AB6" s="15">
+      <c r="AB6" s="14">
         <v>1146844.48447256</v>
       </c>
-      <c r="AC6" s="15">
+      <c r="AC6" s="14">
         <v>357841.91309195</v>
       </c>
-      <c r="AD6" s="15">
+      <c r="AD6" s="14">
         <v>21706.754345000001</v>
       </c>
-      <c r="AE6" s="15">
-        <v>167.34093236999999</v>
-      </c>
-      <c r="AF6" s="10">
+      <c r="AE6" s="14">
+        <v>168</v>
+      </c>
+      <c r="AF6" s="9">
         <v>189856.70600000001</v>
       </c>
     </row>
@@ -1425,22 +1426,22 @@
       <c r="Z7" s="8">
         <v>0.24471000000000001</v>
       </c>
-      <c r="AA7" s="15">
+      <c r="AA7" s="14">
         <v>14735.21287514</v>
       </c>
-      <c r="AB7" s="15">
+      <c r="AB7" s="14">
         <v>1150131.9348067001</v>
       </c>
-      <c r="AC7" s="15">
+      <c r="AC7" s="14">
         <v>454534.81652997999</v>
       </c>
-      <c r="AD7" s="15">
+      <c r="AD7" s="14">
         <v>57467.453010999998</v>
       </c>
-      <c r="AE7" s="15">
-        <v>161.01251074999999</v>
-      </c>
-      <c r="AF7" s="10">
+      <c r="AE7" s="14">
+        <v>162</v>
+      </c>
+      <c r="AF7" s="9">
         <v>219141.84700000001</v>
       </c>
     </row>
@@ -1523,22 +1524,22 @@
       <c r="Z8" s="8">
         <v>0.25230999999999998</v>
       </c>
-      <c r="AA8" s="15">
+      <c r="AA8" s="14">
         <v>14732.685415129999</v>
       </c>
-      <c r="AB8" s="15">
+      <c r="AB8" s="14">
         <v>1150122.81339674</v>
       </c>
-      <c r="AC8" s="15">
+      <c r="AC8" s="14">
         <v>454266.53092162998</v>
       </c>
-      <c r="AD8" s="15">
+      <c r="AD8" s="14">
         <v>57368.23083</v>
       </c>
-      <c r="AE8" s="15">
-        <v>161.03006969</v>
-      </c>
-      <c r="AF8" s="10">
+      <c r="AE8" s="14">
+        <v>162</v>
+      </c>
+      <c r="AF8" s="9">
         <v>219060.592</v>
       </c>
     </row>
@@ -1621,22 +1622,22 @@
       <c r="Z9" s="8">
         <v>0.23055</v>
       </c>
-      <c r="AA9" s="15">
+      <c r="AA9" s="14">
         <v>15107.87426468</v>
       </c>
-      <c r="AB9" s="15">
+      <c r="AB9" s="14">
         <v>1151476.8412699699</v>
       </c>
-      <c r="AC9" s="15">
+      <c r="AC9" s="14">
         <v>494092.19308863999</v>
       </c>
-      <c r="AD9" s="15">
+      <c r="AD9" s="14">
         <v>72097.269398000004</v>
       </c>
-      <c r="AE9" s="15">
-        <v>158.42353319</v>
-      </c>
-      <c r="AF9" s="11">
+      <c r="AE9" s="14">
+        <v>159</v>
+      </c>
+      <c r="AF9" s="10">
         <v>231122.49200000003</v>
       </c>
     </row>
@@ -1719,22 +1720,22 @@
       <c r="Z10" s="8">
         <v>0.24534</v>
       </c>
-      <c r="AA10" s="15">
+      <c r="AA10" s="14">
         <v>15904.810635850001</v>
       </c>
-      <c r="AB10" s="15">
+      <c r="AB10" s="14">
         <v>1154352.9237043301</v>
       </c>
-      <c r="AC10" s="15">
+      <c r="AC10" s="14">
         <v>578685.64176149003</v>
       </c>
-      <c r="AD10" s="15">
+      <c r="AD10" s="14">
         <v>103383.13133400001</v>
       </c>
-      <c r="AE10" s="15">
-        <v>152.88700474999999</v>
-      </c>
-      <c r="AF10" s="11">
+      <c r="AE10" s="14">
+        <v>153</v>
+      </c>
+      <c r="AF10" s="10">
         <v>256743.10100000002</v>
       </c>
     </row>
@@ -1817,22 +1818,22 @@
       <c r="Z11" s="8">
         <v>0.23827999999999999</v>
       </c>
-      <c r="AA11" s="15">
+      <c r="AA11" s="14">
         <v>16372.074740260001</v>
       </c>
-      <c r="AB11" s="15">
+      <c r="AB11" s="14">
         <v>1156039.24413279</v>
       </c>
-      <c r="AC11" s="15">
+      <c r="AC11" s="14">
         <v>628284.93658929004</v>
       </c>
-      <c r="AD11" s="15">
+      <c r="AD11" s="14">
         <v>121726.82951</v>
       </c>
-      <c r="AE11" s="15">
-        <v>149.64079702999999</v>
-      </c>
-      <c r="AF11" s="11">
+      <c r="AE11" s="14">
+        <v>150</v>
+      </c>
+      <c r="AF11" s="10">
         <v>271765.11700000003</v>
       </c>
     </row>
@@ -1915,22 +1916,22 @@
       <c r="Z12" s="8">
         <v>0.21889</v>
       </c>
-      <c r="AA12" s="15">
+      <c r="AA12" s="14">
         <v>16433.501241369999</v>
       </c>
-      <c r="AB12" s="15">
+      <c r="AB12" s="14">
         <v>1156260.9276789899</v>
       </c>
-      <c r="AC12" s="15">
+      <c r="AC12" s="14">
         <v>634805.25584809005</v>
       </c>
-      <c r="AD12" s="15">
+      <c r="AD12" s="14">
         <v>124138.290578</v>
       </c>
-      <c r="AE12" s="15">
-        <v>149.21405082999999</v>
-      </c>
-      <c r="AF12" s="11">
+      <c r="AE12" s="14">
+        <v>150</v>
+      </c>
+      <c r="AF12" s="10">
         <v>273739.91000000003</v>
       </c>
     </row>
@@ -2013,22 +2014,22 @@
       <c r="Z13" s="8">
         <v>0.23271</v>
       </c>
-      <c r="AA13" s="12">
+      <c r="AA13" s="11">
         <v>15859</v>
       </c>
-      <c r="AB13" s="15">
+      <c r="AB13" s="14">
         <v>1159091.40407385</v>
       </c>
-      <c r="AC13" s="15">
+      <c r="AC13" s="14">
         <v>718057.30619514</v>
       </c>
-      <c r="AD13" s="15" t="s">
+      <c r="AD13" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="AE13" s="15">
-        <v>143.76531512</v>
-      </c>
-      <c r="AF13" s="11">
+      <c r="AE13" s="14">
+        <v>144</v>
+      </c>
+      <c r="AF13" s="10">
         <v>298954.25300000003</v>
       </c>
     </row>
@@ -2111,22 +2112,22 @@
       <c r="Z14" s="8">
         <v>0.20080000000000001</v>
       </c>
-      <c r="AA14" s="12">
+      <c r="AA14" s="11">
         <v>16757</v>
       </c>
-      <c r="AB14" s="15">
+      <c r="AB14" s="14">
         <v>1163698.31869885</v>
       </c>
-      <c r="AC14" s="15">
+      <c r="AC14" s="14">
         <v>853559.26233319996</v>
       </c>
-      <c r="AD14" s="15">
+      <c r="AD14" s="14">
         <v>205041.80913899999</v>
       </c>
-      <c r="AE14" s="15">
-        <v>134.89689274</v>
-      </c>
-      <c r="AF14" s="11">
+      <c r="AE14" s="14">
+        <v>1354</v>
+      </c>
+      <c r="AF14" s="10">
         <v>339993.39600000001</v>
       </c>
     </row>
@@ -2209,22 +2210,22 @@
       <c r="Z15" s="8">
         <v>0.20330999999999999</v>
       </c>
-      <c r="AA15" s="12">
+      <c r="AA15" s="11">
         <v>19201</v>
       </c>
-      <c r="AB15" s="15">
+      <c r="AB15" s="14">
         <v>1174762.5591243601</v>
       </c>
-      <c r="AC15" s="15">
+      <c r="AC15" s="14">
         <v>1178988.8269923499</v>
       </c>
-      <c r="AD15" s="15">
+      <c r="AD15" s="14">
         <v>325397.99025700003</v>
       </c>
-      <c r="AE15" s="15">
-        <v>113.59796158</v>
-      </c>
-      <c r="AF15" s="11">
+      <c r="AE15" s="14">
+        <v>114</v>
+      </c>
+      <c r="AF15" s="10">
         <v>438555.44500000001</v>
       </c>
     </row>
@@ -2307,22 +2308,22 @@
       <c r="Z16" s="8">
         <v>0.23455000000000001</v>
       </c>
-      <c r="AA16" s="12">
+      <c r="AA16" s="11">
         <v>20717</v>
       </c>
-      <c r="AB16" s="15">
+      <c r="AB16" s="14">
         <v>1168150.90721711</v>
       </c>
-      <c r="AC16" s="15">
+      <c r="AC16" s="14">
         <v>984522.06568670005</v>
       </c>
-      <c r="AD16" s="15">
+      <c r="AD16" s="14">
         <v>253476.815026</v>
       </c>
-      <c r="AE16" s="15">
-        <v>126.32555185</v>
-      </c>
-      <c r="AF16" s="11">
+      <c r="AE16" s="14">
+        <v>127</v>
+      </c>
+      <c r="AF16" s="10">
         <v>379657.777</v>
       </c>
     </row>
@@ -2402,25 +2403,25 @@
       <c r="Y17" s="8">
         <v>67195032</v>
       </c>
-      <c r="Z17" s="16">
+      <c r="Z17" s="15">
         <v>0.29800500000000002</v>
       </c>
-      <c r="AA17" s="12">
+      <c r="AA17" s="11">
         <v>18789</v>
       </c>
-      <c r="AB17" s="13">
+      <c r="AB17" s="12">
         <v>1155861</v>
       </c>
-      <c r="AC17" s="19">
+      <c r="AC17" s="17">
         <v>1068404</v>
       </c>
-      <c r="AD17" s="19">
+      <c r="AD17" s="17">
         <v>241583</v>
       </c>
-      <c r="AE17" s="15">
-        <v>115.93656175</v>
-      </c>
-      <c r="AF17" s="11">
+      <c r="AE17" s="14">
+        <v>116</v>
+      </c>
+      <c r="AF17" s="10">
         <v>427733.43600000005</v>
       </c>
     </row>
@@ -2503,22 +2504,22 @@
       <c r="Z18" s="8">
         <v>0.36146</v>
       </c>
-      <c r="AA18" s="14">
+      <c r="AA18" s="13">
         <v>17534.3</v>
       </c>
-      <c r="AB18" s="13">
+      <c r="AB18" s="12">
         <v>1158113</v>
       </c>
-      <c r="AC18" s="19">
+      <c r="AC18" s="17">
         <v>851323</v>
       </c>
-      <c r="AD18" s="19">
+      <c r="AD18" s="17">
         <v>176974</v>
       </c>
       <c r="AE18" s="5">
         <v>147</v>
       </c>
-      <c r="AF18" s="10">
+      <c r="AF18" s="9">
         <v>365800.94500000001</v>
       </c>
     </row>
@@ -2598,25 +2599,25 @@
       <c r="Y19" s="8">
         <v>67835969</v>
       </c>
-      <c r="Z19" s="16">
+      <c r="Z19" s="15">
         <v>0.40155000000000002</v>
       </c>
-      <c r="AA19" s="14">
+      <c r="AA19" s="13">
         <v>25215.89</v>
       </c>
-      <c r="AB19" s="13">
+      <c r="AB19" s="12">
         <v>1180726</v>
       </c>
-      <c r="AC19" s="19">
+      <c r="AC19" s="17">
         <v>1068100</v>
       </c>
-      <c r="AD19" s="19">
+      <c r="AD19" s="17">
         <v>319872</v>
       </c>
       <c r="AE19" s="5">
         <v>109</v>
       </c>
-      <c r="AF19" s="10">
+      <c r="AF19" s="9">
         <v>378620.53700000001</v>
       </c>
     </row>
@@ -2699,22 +2700,22 @@
       <c r="Z20" s="8">
         <v>0.44163999999999998</v>
       </c>
-      <c r="AA20" s="14">
+      <c r="AA20" s="13">
         <v>20493.7</v>
       </c>
-      <c r="AB20" s="13">
+      <c r="AB20" s="12">
         <v>1177369</v>
       </c>
-      <c r="AC20" s="19">
+      <c r="AC20" s="17">
         <v>1073412</v>
       </c>
-      <c r="AD20" s="19">
+      <c r="AD20" s="17">
         <v>319845</v>
       </c>
       <c r="AE20" s="5">
         <v>93</v>
       </c>
-      <c r="AF20" s="10">
+      <c r="AF20" s="9">
         <v>461789.49600000004</v>
       </c>
     </row>
@@ -2797,22 +2798,22 @@
       <c r="Z21" s="8">
         <v>0.47987999999999997</v>
       </c>
-      <c r="AA21" s="14">
+      <c r="AA21" s="13">
         <v>20409.63</v>
       </c>
-      <c r="AB21" s="13">
+      <c r="AB21" s="12">
         <v>1178443</v>
       </c>
-      <c r="AC21" s="19">
+      <c r="AC21" s="17">
         <v>1142119</v>
       </c>
-      <c r="AD21" s="19">
+      <c r="AD21" s="17">
         <v>343339</v>
       </c>
       <c r="AE21" s="5">
         <v>117</v>
       </c>
-      <c r="AF21" s="10">
+      <c r="AF21" s="9">
         <v>417614.34099999996</v>
       </c>
     </row>
@@ -2895,22 +2896,22 @@
       <c r="Z22" s="8">
         <v>0.61609000000000003</v>
       </c>
-      <c r="AA22" s="14">
+      <c r="AA22" s="13">
         <v>22218.1</v>
       </c>
-      <c r="AB22" s="13">
+      <c r="AB22" s="12">
         <v>1177896</v>
       </c>
-      <c r="AC22" s="19">
+      <c r="AC22" s="17">
         <v>1205428</v>
       </c>
-      <c r="AD22" s="19">
+      <c r="AD22" s="17">
         <v>343180</v>
       </c>
       <c r="AE22" s="5">
         <v>132</v>
       </c>
-      <c r="AF22" s="10">
+      <c r="AF22" s="9">
         <v>468325.83400000003</v>
       </c>
     </row>
@@ -2993,22 +2994,22 @@
       <c r="Z23" s="8">
         <v>0.77817000000000003</v>
       </c>
-      <c r="AA23" s="14">
+      <c r="AA23" s="13">
         <v>23095.32</v>
       </c>
-      <c r="AB23" s="13">
+      <c r="AB23" s="12">
         <v>1178345</v>
       </c>
-      <c r="AC23" s="19">
+      <c r="AC23" s="17">
         <v>1237790</v>
       </c>
-      <c r="AD23" s="19">
+      <c r="AD23" s="17">
         <v>345115</v>
       </c>
       <c r="AE23" s="5">
         <v>121</v>
       </c>
-      <c r="AF23" s="10">
+      <c r="AF23" s="9">
         <v>444803.565</v>
       </c>
     </row>
@@ -3091,22 +3092,22 @@
       <c r="Z24" s="8">
         <v>1.00179</v>
       </c>
-      <c r="AA24" s="14">
+      <c r="AA24" s="13">
         <v>23780.19</v>
       </c>
-      <c r="AB24" s="13">
+      <c r="AB24" s="12">
         <v>1178698</v>
       </c>
-      <c r="AC24" s="19">
+      <c r="AC24" s="17">
         <v>1281574</v>
       </c>
-      <c r="AD24" s="19">
+      <c r="AD24" s="17">
         <v>355607</v>
       </c>
       <c r="AE24" s="5">
         <v>117</v>
       </c>
-      <c r="AF24" s="10">
+      <c r="AF24" s="9">
         <v>449602.96699999995</v>
       </c>
     </row>
@@ -3186,30 +3187,30 @@
       <c r="Y25" s="8">
         <v>69428454</v>
       </c>
-      <c r="Z25" s="16">
+      <c r="Z25" s="15">
         <v>1.00179</v>
       </c>
-      <c r="AA25" s="14">
+      <c r="AA25" s="13">
         <v>22790.080000000002</v>
       </c>
-      <c r="AB25" s="13">
+      <c r="AB25" s="12">
         <v>1178475</v>
       </c>
-      <c r="AC25" s="19">
+      <c r="AC25" s="17">
         <v>1354163</v>
       </c>
-      <c r="AD25" s="19">
+      <c r="AD25" s="17">
         <v>369547</v>
       </c>
       <c r="AE25" s="5">
         <v>96</v>
       </c>
-      <c r="AF25" s="10">
+      <c r="AF25" s="9">
         <v>454952.54100000003</v>
       </c>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="Z26" s="17"/>
+      <c r="Z26" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3220,71 +3221,79 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8095EF19-8E19-0747-84C0-9C329A469980}">
   <dimension ref="A1:AF25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:AF25"/>
+    <sheetView topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="Z1" sqref="Z1:Z25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="26" max="26" width="24.5" customWidth="1"/>
+    <col min="27" max="27" width="31" customWidth="1"/>
+    <col min="28" max="28" width="25.1640625" customWidth="1"/>
+    <col min="29" max="29" width="29.83203125" customWidth="1"/>
+    <col min="30" max="30" width="30" customWidth="1"/>
+    <col min="31" max="31" width="32" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="180" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="L1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="M1" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="N1" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="O1" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="P1" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="Q1" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="21" t="s">
+      <c r="R1" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="21" t="s">
+      <c r="S1" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="21" t="s">
+      <c r="T1" s="19" t="s">
         <v>19</v>
       </c>
       <c r="U1" s="3" t="s">
@@ -3312,10 +3321,10 @@
         <v>26</v>
       </c>
       <c r="AC1" s="4" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="AD1" s="4" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="AE1" s="4" t="s">
         <v>27</v>
@@ -3325,64 +3334,64 @@
       </c>
     </row>
     <row r="2" spans="1:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="22">
+      <c r="B2" s="20">
         <v>5391.5758539999997</v>
       </c>
-      <c r="C2" s="22">
+      <c r="C2" s="20">
         <v>19.009823000000001</v>
       </c>
-      <c r="D2" s="22">
+      <c r="D2" s="20">
         <v>7176.043232</v>
       </c>
-      <c r="E2" s="22">
+      <c r="E2" s="20">
         <v>590.23870599999998</v>
       </c>
-      <c r="F2" s="22">
+      <c r="F2" s="20">
         <v>142.27762200000001</v>
       </c>
-      <c r="G2" s="22">
+      <c r="G2" s="20">
         <v>3391.0051010000002</v>
       </c>
-      <c r="H2" s="22">
+      <c r="H2" s="20">
         <v>3484.5076330000002</v>
       </c>
-      <c r="I2" s="22">
+      <c r="I2" s="20">
         <v>1016.73673</v>
       </c>
-      <c r="J2" s="22">
+      <c r="J2" s="20">
         <v>176.89891700000001</v>
       </c>
-      <c r="K2" s="22">
+      <c r="K2" s="20">
         <v>195.790885</v>
       </c>
-      <c r="L2" s="22">
+      <c r="L2" s="20">
         <v>1521.8594969999999</v>
       </c>
-      <c r="M2" s="22">
+      <c r="M2" s="20">
         <v>1211.3843770000001</v>
       </c>
-      <c r="N2" s="22">
+      <c r="N2" s="20">
         <v>6.45967</v>
       </c>
-      <c r="O2" s="22">
+      <c r="O2" s="20">
         <v>124.472756</v>
       </c>
-      <c r="P2" s="22">
+      <c r="P2" s="20">
         <v>4819.9535689999993</v>
       </c>
-      <c r="Q2" s="22">
+      <c r="Q2" s="20">
         <v>1504.610046</v>
       </c>
-      <c r="R2" s="22">
+      <c r="R2" s="20">
         <v>716.65538200000003</v>
       </c>
-      <c r="S2" s="22">
+      <c r="S2" s="20">
         <v>26.557051999999999</v>
       </c>
-      <c r="T2" s="22">
+      <c r="T2" s="20">
         <v>154.69646499999999</v>
       </c>
       <c r="U2" s="8">
@@ -3400,75 +3409,87 @@
       <c r="Y2" s="8">
         <v>59467272</v>
       </c>
-      <c r="Z2" s="8"/>
-      <c r="AA2" s="9"/>
-      <c r="AB2" s="9"/>
-      <c r="AC2" s="9"/>
-      <c r="AD2" s="9"/>
-      <c r="AE2" s="9"/>
-      <c r="AF2" s="10">
+      <c r="Z2" s="15">
+        <v>0.11917999999999999</v>
+      </c>
+      <c r="AA2" s="14">
+        <v>14642.05707269</v>
+      </c>
+      <c r="AB2" s="14">
+        <v>2918084.49750019</v>
+      </c>
+      <c r="AC2" s="14">
+        <v>1193554.5308516501</v>
+      </c>
+      <c r="AD2" s="14">
+        <v>813441.82643234998</v>
+      </c>
+      <c r="AE2" s="14">
+        <v>17</v>
+      </c>
+      <c r="AF2" s="9">
         <v>143862.554</v>
       </c>
     </row>
     <row r="3" spans="1:32" ht="19" x14ac:dyDescent="0.25">
-      <c r="A3" s="20">
+      <c r="A3" s="18">
         <v>1996</v>
       </c>
-      <c r="B3" s="22">
+      <c r="B3" s="20">
         <v>6206.6825580000004</v>
       </c>
-      <c r="C3" s="22">
+      <c r="C3" s="20">
         <v>37.744703000000001</v>
       </c>
-      <c r="D3" s="22">
+      <c r="D3" s="20">
         <v>6810.3174569999992</v>
       </c>
-      <c r="E3" s="22">
+      <c r="E3" s="20">
         <v>677.21830699999998</v>
       </c>
-      <c r="F3" s="22">
+      <c r="F3" s="20">
         <v>137.42399900000001</v>
       </c>
-      <c r="G3" s="22">
+      <c r="G3" s="20">
         <v>7728.6456310000003</v>
       </c>
-      <c r="H3" s="22">
+      <c r="H3" s="20">
         <v>3737.141208</v>
       </c>
-      <c r="I3" s="22">
+      <c r="I3" s="20">
         <v>1113.2568200000001</v>
       </c>
-      <c r="J3" s="22">
+      <c r="J3" s="20">
         <v>153.858116</v>
       </c>
-      <c r="K3" s="22">
+      <c r="K3" s="20">
         <v>224.36921100000001</v>
       </c>
-      <c r="L3" s="22">
+      <c r="L3" s="20">
         <v>1600.252772</v>
       </c>
-      <c r="M3" s="22">
+      <c r="M3" s="20">
         <v>1423.189247</v>
       </c>
-      <c r="N3" s="22">
+      <c r="N3" s="20">
         <v>29.954806999999999</v>
       </c>
-      <c r="O3" s="22">
+      <c r="O3" s="20">
         <v>141.783152</v>
       </c>
-      <c r="P3" s="22">
+      <c r="P3" s="20">
         <v>5143.6857600000003</v>
       </c>
-      <c r="Q3" s="22">
+      <c r="Q3" s="20">
         <v>1636.4712569999999</v>
       </c>
-      <c r="R3" s="22">
+      <c r="R3" s="20">
         <v>818.21109899999999</v>
       </c>
-      <c r="S3" s="22">
+      <c r="S3" s="20">
         <v>42.952067999999997</v>
       </c>
-      <c r="T3" s="22">
+      <c r="T3" s="20">
         <v>183.70074600000001</v>
       </c>
       <c r="U3" s="8">
@@ -3489,74 +3510,84 @@
       <c r="Z3" s="8">
         <v>0.11917999999999999</v>
       </c>
-      <c r="AA3" s="9"/>
-      <c r="AB3" s="9"/>
-      <c r="AC3" s="9"/>
-      <c r="AD3" s="9"/>
-      <c r="AE3" s="9"/>
-      <c r="AF3" s="10">
+      <c r="AA3" s="14">
+        <v>14781.33134225</v>
+      </c>
+      <c r="AB3" s="14">
+        <v>2855554.7635296802</v>
+      </c>
+      <c r="AC3" s="14">
+        <v>1188872.0188500399</v>
+      </c>
+      <c r="AD3" s="14">
+        <v>813529.79148508003</v>
+      </c>
+      <c r="AE3" s="27">
+        <v>18</v>
+      </c>
+      <c r="AF3" s="9">
         <v>171503.91700000002</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="22">
+      <c r="B4" s="20">
         <v>6014.4152150000009</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="20">
         <v>36.238534999999999</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="20">
         <v>6988.106194</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="20">
         <v>817.94111899999996</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F4" s="20">
         <v>149.15933000000001</v>
       </c>
-      <c r="G4" s="22">
+      <c r="G4" s="20">
         <v>5647.8942470000002</v>
       </c>
-      <c r="H4" s="22">
+      <c r="H4" s="20">
         <v>4542.778789</v>
       </c>
-      <c r="I4" s="22">
+      <c r="I4" s="20">
         <v>1172.7838609999999</v>
       </c>
-      <c r="J4" s="22">
+      <c r="J4" s="20">
         <v>140.14187899999999</v>
       </c>
-      <c r="K4" s="22">
+      <c r="K4" s="20">
         <v>234.72714300000001</v>
       </c>
-      <c r="L4" s="22">
+      <c r="L4" s="20">
         <v>1491.5824909999999</v>
       </c>
-      <c r="M4" s="22">
+      <c r="M4" s="20">
         <v>1633.6141990000001</v>
       </c>
-      <c r="N4" s="22">
+      <c r="N4" s="20">
         <v>32.264023000000002</v>
       </c>
-      <c r="O4" s="22">
+      <c r="O4" s="20">
         <v>134.53321399999999</v>
       </c>
-      <c r="P4" s="22">
+      <c r="P4" s="20">
         <v>5642.8587209999996</v>
       </c>
-      <c r="Q4" s="22">
+      <c r="Q4" s="20">
         <v>1770.697394</v>
       </c>
-      <c r="R4" s="22">
+      <c r="R4" s="20">
         <v>838.40557899999999</v>
       </c>
-      <c r="S4" s="22">
+      <c r="S4" s="20">
         <v>42.137507999999997</v>
       </c>
-      <c r="T4" s="22">
+      <c r="T4" s="20">
         <v>178.92272500000001</v>
       </c>
       <c r="U4" s="8">
@@ -3577,74 +3608,84 @@
       <c r="Z4" s="8">
         <v>0.10213999999999999</v>
       </c>
-      <c r="AA4" s="9"/>
-      <c r="AB4" s="9"/>
-      <c r="AC4" s="9"/>
-      <c r="AD4" s="9"/>
-      <c r="AE4" s="9"/>
-      <c r="AF4" s="10">
+      <c r="AA4" s="14">
+        <v>14820.22712533</v>
+      </c>
+      <c r="AB4" s="14">
+        <v>2838091.7893848699</v>
+      </c>
+      <c r="AC4" s="14">
+        <v>1187564.31160702</v>
+      </c>
+      <c r="AD4" s="14">
+        <v>813554.35790082999</v>
+      </c>
+      <c r="AE4" s="14">
+        <v>19</v>
+      </c>
+      <c r="AF4" s="9">
         <v>179223.451</v>
       </c>
     </row>
     <row r="5" spans="1:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5" s="20">
         <v>6270.1771489999992</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="20">
         <v>28.193052999999999</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="20">
         <v>5739.5746220000001</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="20">
         <v>1090.8698690000001</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F5" s="20">
         <v>130.48914300000001</v>
       </c>
-      <c r="G5" s="22">
+      <c r="G5" s="20">
         <v>3182.2889129999999</v>
       </c>
-      <c r="H5" s="22">
+      <c r="H5" s="20">
         <v>4987.8019489999997</v>
       </c>
-      <c r="I5" s="22">
+      <c r="I5" s="20">
         <v>1245.8561259999999</v>
       </c>
-      <c r="J5" s="22">
+      <c r="J5" s="20">
         <v>474.66292900000002</v>
       </c>
-      <c r="K5" s="22">
+      <c r="K5" s="20">
         <v>229.726314</v>
       </c>
-      <c r="L5" s="22">
+      <c r="L5" s="20">
         <v>1468.5692489999999</v>
       </c>
-      <c r="M5" s="22">
+      <c r="M5" s="20">
         <v>1912.106225</v>
       </c>
-      <c r="N5" s="22">
+      <c r="N5" s="20">
         <v>17.17709</v>
       </c>
-      <c r="O5" s="22">
+      <c r="O5" s="20">
         <v>154.05838800000001</v>
       </c>
-      <c r="P5" s="22">
+      <c r="P5" s="20">
         <v>6305.8568340000002</v>
       </c>
-      <c r="Q5" s="22">
+      <c r="Q5" s="20">
         <v>2030.665974</v>
       </c>
-      <c r="R5" s="22">
+      <c r="R5" s="20">
         <v>894.04171399999996</v>
       </c>
-      <c r="S5" s="22">
+      <c r="S5" s="20">
         <v>42.357120000000002</v>
       </c>
-      <c r="T5" s="22">
+      <c r="T5" s="20">
         <v>178.815946</v>
       </c>
       <c r="U5" s="8">
@@ -3662,75 +3703,87 @@
       <c r="Y5" s="8">
         <v>61585103</v>
       </c>
-      <c r="Z5" s="8"/>
-      <c r="AA5" s="9"/>
-      <c r="AB5" s="9"/>
-      <c r="AC5" s="9"/>
-      <c r="AD5" s="9"/>
-      <c r="AE5" s="9"/>
-      <c r="AF5" s="10">
+      <c r="Z5" s="15">
+        <v>0.17524999999999999</v>
+      </c>
+      <c r="AA5" s="14">
+        <v>14827.22251585</v>
+      </c>
+      <c r="AB5" s="14">
+        <v>2834951.0807010601</v>
+      </c>
+      <c r="AC5" s="14">
+        <v>1187329.12099974</v>
+      </c>
+      <c r="AD5" s="14">
+        <v>813558.77616054995</v>
+      </c>
+      <c r="AE5" s="14">
+        <v>19</v>
+      </c>
+      <c r="AF5" s="9">
         <v>180611.80600000001</v>
       </c>
     </row>
     <row r="6" spans="1:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B6" s="20">
         <v>5684.6740969999992</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="20">
         <v>42.046275999999999</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="20">
         <v>4594.756351</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="20">
         <v>958.72226899999998</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="20">
         <v>143.73449500000001</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G6" s="20">
         <v>2304.8760779999998</v>
       </c>
-      <c r="H6" s="22">
+      <c r="H6" s="20">
         <v>4652.3368540000001</v>
       </c>
-      <c r="I6" s="22">
+      <c r="I6" s="20">
         <v>1226.1777950000001</v>
       </c>
-      <c r="J6" s="22">
+      <c r="J6" s="20">
         <v>564.89695200000006</v>
       </c>
-      <c r="K6" s="22">
+      <c r="K6" s="20">
         <v>241.43656999999999</v>
       </c>
-      <c r="L6" s="22">
+      <c r="L6" s="20">
         <v>1110.1148009999999</v>
       </c>
-      <c r="M6" s="22">
+      <c r="M6" s="20">
         <v>2311.0051199999998</v>
       </c>
-      <c r="N6" s="22">
+      <c r="N6" s="20">
         <v>19.834430999999999</v>
       </c>
-      <c r="O6" s="22">
+      <c r="O6" s="20">
         <v>193.13363899999999</v>
       </c>
-      <c r="P6" s="22">
+      <c r="P6" s="20">
         <v>6774.3252739999998</v>
       </c>
-      <c r="Q6" s="22">
+      <c r="Q6" s="20">
         <v>2163.7702920000002</v>
       </c>
-      <c r="R6" s="22">
+      <c r="R6" s="20">
         <v>855.69454699999994</v>
       </c>
-      <c r="S6" s="22">
+      <c r="S6" s="20">
         <v>47.004904000000003</v>
       </c>
-      <c r="T6" s="22">
+      <c r="T6" s="20">
         <v>173.65217100000001</v>
       </c>
       <c r="U6" s="8">
@@ -3751,74 +3804,84 @@
       <c r="Z6" s="8">
         <v>0.24836</v>
       </c>
-      <c r="AA6" s="9"/>
-      <c r="AB6" s="9"/>
-      <c r="AC6" s="9"/>
-      <c r="AD6" s="9"/>
-      <c r="AE6" s="9"/>
-      <c r="AF6" s="10">
+      <c r="AA6" s="14">
+        <v>14873.80403553</v>
+      </c>
+      <c r="AB6" s="14">
+        <v>2814037.4543511602</v>
+      </c>
+      <c r="AC6" s="14">
+        <v>1185763.01316332</v>
+      </c>
+      <c r="AD6" s="14">
+        <v>813588.19685575995</v>
+      </c>
+      <c r="AE6" s="14">
+        <v>20</v>
+      </c>
+      <c r="AF6" s="9">
         <v>189856.70600000001</v>
       </c>
     </row>
     <row r="7" spans="1:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="22">
+      <c r="B7" s="20">
         <v>6101.7808180000002</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="20">
         <v>19.685466000000002</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="20">
         <v>5106.5363270000007</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="20">
         <v>1056.5439260000001</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="20">
         <v>181.363449</v>
       </c>
-      <c r="G7" s="22">
+      <c r="G7" s="20">
         <v>1693.173646</v>
       </c>
-      <c r="H7" s="22">
+      <c r="H7" s="20">
         <v>5657.5769979999995</v>
       </c>
-      <c r="I7" s="22">
+      <c r="I7" s="20">
         <v>1092.173499</v>
       </c>
-      <c r="J7" s="22">
+      <c r="J7" s="20">
         <v>585.61596999999995</v>
       </c>
-      <c r="K7" s="22">
+      <c r="K7" s="20">
         <v>313.33488599999998</v>
       </c>
-      <c r="L7" s="22">
+      <c r="L7" s="20">
         <v>1106.9162590000001</v>
       </c>
-      <c r="M7" s="22">
+      <c r="M7" s="20">
         <v>2363.7076809999999</v>
       </c>
-      <c r="N7" s="22">
+      <c r="N7" s="20">
         <v>23.493938</v>
       </c>
-      <c r="O7" s="22">
+      <c r="O7" s="20">
         <v>156.66572400000001</v>
       </c>
-      <c r="P7" s="22">
+      <c r="P7" s="20">
         <v>7643.8283569999994</v>
       </c>
-      <c r="Q7" s="22">
+      <c r="Q7" s="20">
         <v>2246.9812310000002</v>
       </c>
-      <c r="R7" s="22">
+      <c r="R7" s="20">
         <v>880.76673300000004</v>
       </c>
-      <c r="S7" s="22">
+      <c r="S7" s="20">
         <v>48.677945999999999</v>
       </c>
-      <c r="T7" s="22">
+      <c r="T7" s="20">
         <v>200.359486</v>
       </c>
       <c r="U7" s="8">
@@ -3839,74 +3902,84 @@
       <c r="Z7" s="8">
         <v>0.24471000000000001</v>
       </c>
-      <c r="AA7" s="9"/>
-      <c r="AB7" s="9"/>
-      <c r="AC7" s="9"/>
-      <c r="AD7" s="9"/>
-      <c r="AE7" s="9"/>
-      <c r="AF7" s="10">
+      <c r="AA7" s="14">
+        <v>15021.360674539999</v>
+      </c>
+      <c r="AB7" s="14">
+        <v>2747789.19893703</v>
+      </c>
+      <c r="AC7" s="14">
+        <v>1180802.0412965801</v>
+      </c>
+      <c r="AD7" s="14">
+        <v>813681.39301879006</v>
+      </c>
+      <c r="AE7" s="14">
+        <v>22</v>
+      </c>
+      <c r="AF7" s="9">
         <v>219141.84700000001</v>
       </c>
     </row>
     <row r="8" spans="1:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="22">
+      <c r="B8" s="20">
         <v>6704.374562</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="20">
         <v>27.442478000000001</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="20">
         <v>7786.63699</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="20">
         <v>1087.192094</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="20">
         <v>195.98029199999999</v>
       </c>
-      <c r="G8" s="22">
+      <c r="G8" s="20">
         <v>2188.2464249999998</v>
       </c>
-      <c r="H8" s="22">
+      <c r="H8" s="20">
         <v>5226.6517320000003</v>
       </c>
-      <c r="I8" s="22">
+      <c r="I8" s="20">
         <v>1114.796732</v>
       </c>
-      <c r="J8" s="22">
+      <c r="J8" s="20">
         <v>581.19999600000006</v>
       </c>
-      <c r="K8" s="22">
+      <c r="K8" s="20">
         <v>397.56017000000003</v>
       </c>
-      <c r="L8" s="22">
+      <c r="L8" s="20">
         <v>1171.4860779999999</v>
       </c>
-      <c r="M8" s="22">
+      <c r="M8" s="20">
         <v>2237.7930419999998</v>
       </c>
-      <c r="N8" s="22">
+      <c r="N8" s="20">
         <v>18.949171</v>
       </c>
-      <c r="O8" s="22">
+      <c r="O8" s="20">
         <v>312.79471699999999</v>
       </c>
-      <c r="P8" s="22">
+      <c r="P8" s="20">
         <v>7867.5334849999999</v>
       </c>
-      <c r="Q8" s="22">
+      <c r="Q8" s="20">
         <v>2283.8550730000002</v>
       </c>
-      <c r="R8" s="22">
+      <c r="R8" s="20">
         <v>964.67942300000004</v>
       </c>
-      <c r="S8" s="22">
+      <c r="S8" s="20">
         <v>49.748054000000003</v>
       </c>
-      <c r="T8" s="22">
+      <c r="T8" s="20">
         <v>220.330814</v>
       </c>
       <c r="U8" s="8">
@@ -3927,74 +4000,84 @@
       <c r="Z8" s="8">
         <v>0.25230999999999998</v>
       </c>
-      <c r="AA8" s="9"/>
-      <c r="AB8" s="9"/>
-      <c r="AC8" s="9"/>
-      <c r="AD8" s="9"/>
-      <c r="AE8" s="9"/>
-      <c r="AF8" s="10">
+      <c r="AA8" s="14">
+        <v>15020.95126163</v>
+      </c>
+      <c r="AB8" s="14">
+        <v>2747973.0123594599</v>
+      </c>
+      <c r="AC8" s="14">
+        <v>1180815.80608498</v>
+      </c>
+      <c r="AD8" s="14">
+        <v>813681.13443529001</v>
+      </c>
+      <c r="AE8" s="14">
+        <v>22</v>
+      </c>
+      <c r="AF8" s="9">
         <v>219060.592</v>
       </c>
     </row>
     <row r="9" spans="1:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="24">
+      <c r="B9" s="22">
         <v>6495.3498030000001</v>
       </c>
-      <c r="C9" s="24">
+      <c r="C9" s="22">
         <v>31.694595</v>
       </c>
-      <c r="D9" s="24">
+      <c r="D9" s="22">
         <v>12221.180023999999</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="22">
         <v>1129.3474699999999</v>
       </c>
-      <c r="F9" s="24">
+      <c r="F9" s="22">
         <v>176.04478599999999</v>
       </c>
-      <c r="G9" s="24">
+      <c r="G9" s="22">
         <v>2224.4460779999999</v>
       </c>
-      <c r="H9" s="24">
+      <c r="H9" s="22">
         <v>5545.6078399999997</v>
       </c>
-      <c r="I9" s="24">
+      <c r="I9" s="22">
         <v>1423.8312699999999</v>
       </c>
-      <c r="J9" s="24">
+      <c r="J9" s="22">
         <v>242.56599700000001</v>
       </c>
-      <c r="K9" s="24">
+      <c r="K9" s="22">
         <v>382.51189299999999</v>
       </c>
-      <c r="L9" s="24">
+      <c r="L9" s="22">
         <v>1293.409537</v>
       </c>
-      <c r="M9" s="24">
+      <c r="M9" s="22">
         <v>2435.280448</v>
       </c>
-      <c r="N9" s="24">
+      <c r="N9" s="22">
         <v>16.311499000000001</v>
       </c>
-      <c r="O9" s="24">
+      <c r="O9" s="22">
         <v>212.07455200000001</v>
       </c>
-      <c r="P9" s="24">
+      <c r="P9" s="22">
         <v>9349.3598559999991</v>
       </c>
-      <c r="Q9" s="24">
+      <c r="Q9" s="22">
         <v>2282.7811280000001</v>
       </c>
-      <c r="R9" s="24">
+      <c r="R9" s="22">
         <v>1014.102584</v>
       </c>
-      <c r="S9" s="24">
+      <c r="S9" s="22">
         <v>50.203249</v>
       </c>
-      <c r="T9" s="24">
+      <c r="T9" s="22">
         <v>235.141682</v>
       </c>
       <c r="U9" s="8">
@@ -4015,74 +4098,84 @@
       <c r="Z9" s="8">
         <v>0.23055</v>
       </c>
-      <c r="AA9" s="9"/>
-      <c r="AB9" s="9"/>
-      <c r="AC9" s="9"/>
-      <c r="AD9" s="9"/>
-      <c r="AE9" s="9"/>
-      <c r="AF9" s="11">
+      <c r="AA9" s="14">
+        <v>15081.726568259999</v>
+      </c>
+      <c r="AB9" s="14">
+        <v>2720686.8254164099</v>
+      </c>
+      <c r="AC9" s="14">
+        <v>1178772.4918130899</v>
+      </c>
+      <c r="AD9" s="14">
+        <v>813719.51986763999</v>
+      </c>
+      <c r="AE9" s="14">
+        <v>22</v>
+      </c>
+      <c r="AF9" s="10">
         <v>231122.49200000003</v>
       </c>
     </row>
     <row r="10" spans="1:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="24">
+      <c r="B10" s="22">
         <v>7014.641912</v>
       </c>
-      <c r="C10" s="24">
+      <c r="C10" s="22">
         <v>55.201692999999999</v>
       </c>
-      <c r="D10" s="24">
+      <c r="D10" s="22">
         <v>14449.786892</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="22">
         <v>1240.583435</v>
       </c>
-      <c r="F10" s="24">
+      <c r="F10" s="22">
         <v>176.639261</v>
       </c>
-      <c r="G10" s="24">
+      <c r="G10" s="22">
         <v>2001.4497670000001</v>
       </c>
-      <c r="H10" s="24">
+      <c r="H10" s="22">
         <v>5403.8761489999997</v>
       </c>
-      <c r="I10" s="24">
+      <c r="I10" s="22">
         <v>1325.3334460000001</v>
       </c>
-      <c r="J10" s="24">
+      <c r="J10" s="22">
         <v>245.50652199999999</v>
       </c>
-      <c r="K10" s="24">
+      <c r="K10" s="22">
         <v>461.78232100000002</v>
       </c>
-      <c r="L10" s="24">
+      <c r="L10" s="22">
         <v>1367.61502</v>
       </c>
-      <c r="M10" s="24">
+      <c r="M10" s="22">
         <v>2514.535265</v>
       </c>
-      <c r="N10" s="24">
+      <c r="N10" s="22">
         <v>19.876991</v>
       </c>
-      <c r="O10" s="24">
+      <c r="O10" s="22">
         <v>214.62754200000001</v>
       </c>
-      <c r="P10" s="24">
+      <c r="P10" s="22">
         <v>8853.6782640000001</v>
       </c>
-      <c r="Q10" s="24">
+      <c r="Q10" s="22">
         <v>2458.8356739999999</v>
       </c>
-      <c r="R10" s="24">
+      <c r="R10" s="22">
         <v>966.89520100000004</v>
       </c>
-      <c r="S10" s="24">
+      <c r="S10" s="22">
         <v>87.546211999999997</v>
       </c>
-      <c r="T10" s="24">
+      <c r="T10" s="22">
         <v>272.98862100000002</v>
       </c>
       <c r="U10" s="8">
@@ -4103,74 +4196,84 @@
       <c r="Z10" s="8">
         <v>0.24534</v>
       </c>
-      <c r="AA10" s="9"/>
-      <c r="AB10" s="9"/>
-      <c r="AC10" s="9"/>
-      <c r="AD10" s="9"/>
-      <c r="AE10" s="9"/>
-      <c r="AF10" s="11">
+      <c r="AA10" s="14">
+        <v>15210.819030320001</v>
+      </c>
+      <c r="AB10" s="14">
+        <v>2662728.40039474</v>
+      </c>
+      <c r="AC10" s="14">
+        <v>1174432.30029898</v>
+      </c>
+      <c r="AD10" s="14">
+        <v>813801.05413285003</v>
+      </c>
+      <c r="AE10" s="14">
+        <v>24</v>
+      </c>
+      <c r="AF10" s="10">
         <v>256743.10100000002</v>
       </c>
     </row>
     <row r="11" spans="1:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="24">
+      <c r="B11" s="22">
         <v>7333.6659089999994</v>
       </c>
-      <c r="C11" s="24">
+      <c r="C11" s="22">
         <v>85.532655000000005</v>
       </c>
-      <c r="D11" s="24">
+      <c r="D11" s="22">
         <v>14609.135541</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="22">
         <v>1420.0946489999999</v>
       </c>
-      <c r="F11" s="24">
+      <c r="F11" s="22">
         <v>215.456435</v>
       </c>
-      <c r="G11" s="24">
+      <c r="G11" s="22">
         <v>1908.8842549999999</v>
       </c>
-      <c r="H11" s="24">
+      <c r="H11" s="22">
         <v>5598.8796129999992</v>
       </c>
-      <c r="I11" s="24">
+      <c r="I11" s="22">
         <v>1230.0797379999999</v>
       </c>
-      <c r="J11" s="24">
+      <c r="J11" s="22">
         <v>195.79318699999999</v>
       </c>
-      <c r="K11" s="24">
+      <c r="K11" s="22">
         <v>477.09094900000002</v>
       </c>
-      <c r="L11" s="24">
+      <c r="L11" s="22">
         <v>1490.08006</v>
       </c>
-      <c r="M11" s="24">
+      <c r="M11" s="22">
         <v>2554.5029</v>
       </c>
-      <c r="N11" s="24">
+      <c r="N11" s="22">
         <v>21.148817000000001</v>
       </c>
-      <c r="O11" s="24">
+      <c r="O11" s="22">
         <v>181.071775</v>
       </c>
-      <c r="P11" s="24">
+      <c r="P11" s="22">
         <v>9006.2775950000014</v>
       </c>
-      <c r="Q11" s="24">
+      <c r="Q11" s="22">
         <v>2800.4199589999998</v>
       </c>
-      <c r="R11" s="24">
+      <c r="R11" s="22">
         <v>1063.3032740000001</v>
       </c>
-      <c r="S11" s="24">
+      <c r="S11" s="22">
         <v>139.17858000000001</v>
       </c>
-      <c r="T11" s="24">
+      <c r="T11" s="22">
         <v>305.31859100000003</v>
       </c>
       <c r="U11" s="8">
@@ -4191,74 +4294,84 @@
       <c r="Z11" s="8">
         <v>0.23827999999999999</v>
       </c>
-      <c r="AA11" s="9"/>
-      <c r="AB11" s="9"/>
-      <c r="AC11" s="9"/>
-      <c r="AD11" s="9"/>
-      <c r="AE11" s="9"/>
-      <c r="AF11" s="11">
+      <c r="AA11" s="14">
+        <v>15286.50923075</v>
+      </c>
+      <c r="AB11" s="14">
+        <v>2628745.89872937</v>
+      </c>
+      <c r="AC11" s="14">
+        <v>1171887.5354041201</v>
+      </c>
+      <c r="AD11" s="14">
+        <v>813848.85975046002</v>
+      </c>
+      <c r="AE11" s="14">
+        <v>25</v>
+      </c>
+      <c r="AF11" s="10">
         <v>271765.11700000003</v>
       </c>
     </row>
     <row r="12" spans="1:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="24">
+      <c r="B12" s="22">
         <v>7960.8161129999999</v>
       </c>
-      <c r="C12" s="24">
+      <c r="C12" s="22">
         <v>105.336168</v>
       </c>
-      <c r="D12" s="24">
+      <c r="D12" s="22">
         <v>16051.876292999999</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="22">
         <v>1286.447195</v>
       </c>
-      <c r="F12" s="24">
+      <c r="F12" s="22">
         <v>215.885648</v>
       </c>
-      <c r="G12" s="24">
+      <c r="G12" s="22">
         <v>2160.7576300000001</v>
       </c>
-      <c r="H12" s="24">
+      <c r="H12" s="22">
         <v>6069.4313860000002</v>
       </c>
-      <c r="I12" s="24">
+      <c r="I12" s="22">
         <v>1446.537108</v>
       </c>
-      <c r="J12" s="24">
+      <c r="J12" s="22">
         <v>215.61647300000001</v>
       </c>
-      <c r="K12" s="24">
+      <c r="K12" s="22">
         <v>451.64035999999999</v>
       </c>
-      <c r="L12" s="24">
+      <c r="L12" s="22">
         <v>1771.2210749999999</v>
       </c>
-      <c r="M12" s="24">
+      <c r="M12" s="22">
         <v>2675.815548</v>
       </c>
-      <c r="N12" s="24">
+      <c r="N12" s="22">
         <v>19.178619000000001</v>
       </c>
-      <c r="O12" s="24">
+      <c r="O12" s="22">
         <v>169.49777</v>
       </c>
-      <c r="P12" s="24">
+      <c r="P12" s="22">
         <v>10769.570129</v>
       </c>
-      <c r="Q12" s="24">
+      <c r="Q12" s="22">
         <v>3394.2603009999998</v>
       </c>
-      <c r="R12" s="24">
+      <c r="R12" s="22">
         <v>1029.2602710000001</v>
       </c>
-      <c r="S12" s="24">
+      <c r="S12" s="22">
         <v>156.863497</v>
       </c>
-      <c r="T12" s="24">
+      <c r="T12" s="22">
         <v>335.27581600000002</v>
       </c>
       <c r="U12" s="8">
@@ -4279,74 +4392,84 @@
       <c r="Z12" s="8">
         <v>0.21889</v>
       </c>
-      <c r="AA12" s="9"/>
-      <c r="AB12" s="9"/>
-      <c r="AC12" s="9"/>
-      <c r="AD12" s="9"/>
-      <c r="AE12" s="9"/>
-      <c r="AF12" s="11">
+      <c r="AA12" s="14">
+        <v>15296.459458339999</v>
+      </c>
+      <c r="AB12" s="14">
+        <v>2624278.5618278999</v>
+      </c>
+      <c r="AC12" s="14">
+        <v>1171553.00081828</v>
+      </c>
+      <c r="AD12" s="14">
+        <v>813855.14427305001</v>
+      </c>
+      <c r="AE12" s="14">
+        <v>25</v>
+      </c>
+      <c r="AF12" s="10">
         <v>273739.91000000003</v>
       </c>
     </row>
     <row r="13" spans="1:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="24">
+      <c r="B13" s="22">
         <v>7815.0604689999991</v>
       </c>
-      <c r="C13" s="24">
+      <c r="C13" s="22">
         <v>130.340599</v>
       </c>
-      <c r="D13" s="24">
+      <c r="D13" s="22">
         <v>16381.059371000001</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13" s="22">
         <v>1493.574517</v>
       </c>
-      <c r="F13" s="24">
+      <c r="F13" s="22">
         <v>168.72327999999999</v>
       </c>
-      <c r="G13" s="24">
+      <c r="G13" s="22">
         <v>2116.1205249999998</v>
       </c>
-      <c r="H13" s="24">
+      <c r="H13" s="22">
         <v>6013.7032350000009</v>
       </c>
-      <c r="I13" s="24">
+      <c r="I13" s="22">
         <v>1609.395573</v>
       </c>
-      <c r="J13" s="24">
+      <c r="J13" s="22">
         <v>199.65825699999999</v>
       </c>
-      <c r="K13" s="24">
+      <c r="K13" s="22">
         <v>412.034424</v>
       </c>
-      <c r="L13" s="24">
+      <c r="L13" s="22">
         <v>2117.0688559999999</v>
       </c>
-      <c r="M13" s="24">
+      <c r="M13" s="22">
         <v>2959.8331360000002</v>
       </c>
-      <c r="N13" s="24">
+      <c r="N13" s="22">
         <v>23.525400999999999</v>
       </c>
-      <c r="O13" s="24">
+      <c r="O13" s="22">
         <v>315.67356799999999</v>
       </c>
-      <c r="P13" s="24">
+      <c r="P13" s="22">
         <v>9332.2261159999998</v>
       </c>
-      <c r="Q13" s="24">
+      <c r="Q13" s="22">
         <v>3556.8884830000002</v>
       </c>
-      <c r="R13" s="24">
+      <c r="R13" s="22">
         <v>1185.7122300000001</v>
       </c>
-      <c r="S13" s="24">
+      <c r="S13" s="22">
         <v>153.17819900000001</v>
       </c>
-      <c r="T13" s="24">
+      <c r="T13" s="22">
         <v>357.64218499999998</v>
       </c>
       <c r="U13" s="8">
@@ -4367,76 +4490,84 @@
       <c r="Z13" s="8">
         <v>0.23271</v>
       </c>
-      <c r="AA13" s="12">
+      <c r="AA13" s="11">
         <v>15870</v>
       </c>
-      <c r="AB13" s="9"/>
-      <c r="AC13" s="9"/>
-      <c r="AD13" s="9"/>
-      <c r="AE13" s="9"/>
-      <c r="AF13" s="11">
+      <c r="AB13" s="14">
+        <v>2567239.1835587798</v>
+      </c>
+      <c r="AC13" s="14">
+        <v>1167281.6317215301</v>
+      </c>
+      <c r="AD13" s="14">
+        <v>813935.38564941997</v>
+      </c>
+      <c r="AE13" s="14">
+        <v>27</v>
+      </c>
+      <c r="AF13" s="10">
         <v>298954.25300000003</v>
       </c>
     </row>
     <row r="14" spans="1:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="24">
+      <c r="B14" s="22">
         <v>9248.951384</v>
       </c>
-      <c r="C14" s="24">
+      <c r="C14" s="22">
         <v>186.747015</v>
       </c>
-      <c r="D14" s="24">
+      <c r="D14" s="22">
         <v>13990.253939</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E14" s="22">
         <v>1432.539722</v>
       </c>
-      <c r="F14" s="24">
+      <c r="F14" s="22">
         <v>169.47104999999999</v>
       </c>
-      <c r="G14" s="24">
+      <c r="G14" s="22">
         <v>1728.3727289999999</v>
       </c>
-      <c r="H14" s="24">
+      <c r="H14" s="22">
         <v>6150.713948999999</v>
       </c>
-      <c r="I14" s="24">
+      <c r="I14" s="22">
         <v>1730.3017910000001</v>
       </c>
-      <c r="J14" s="24">
+      <c r="J14" s="22">
         <v>207.11415400000001</v>
       </c>
-      <c r="K14" s="24">
+      <c r="K14" s="22">
         <v>390.71606200000002</v>
       </c>
-      <c r="L14" s="24">
+      <c r="L14" s="22">
         <v>2352.724561</v>
       </c>
-      <c r="M14" s="24">
+      <c r="M14" s="22">
         <v>3005.3877040000002</v>
       </c>
-      <c r="N14" s="24">
+      <c r="N14" s="22">
         <v>19.714769</v>
       </c>
-      <c r="O14" s="24">
+      <c r="O14" s="22">
         <v>216.85839300000001</v>
       </c>
-      <c r="P14" s="24">
+      <c r="P14" s="22">
         <v>9936.5900339999989</v>
       </c>
-      <c r="Q14" s="24">
+      <c r="Q14" s="22">
         <v>3892.7831059999999</v>
       </c>
-      <c r="R14" s="24">
+      <c r="R14" s="22">
         <v>1204.1676520000001</v>
       </c>
-      <c r="S14" s="24">
+      <c r="S14" s="22">
         <v>89.122446999999994</v>
       </c>
-      <c r="T14" s="24">
+      <c r="T14" s="22">
         <v>451.419555</v>
       </c>
       <c r="U14" s="8">
@@ -4457,76 +4588,84 @@
       <c r="Z14" s="8">
         <v>0.20080000000000001</v>
       </c>
-      <c r="AA14" s="12">
+      <c r="AA14" s="11">
         <v>14462</v>
       </c>
-      <c r="AB14" s="9"/>
-      <c r="AC14" s="9"/>
-      <c r="AD14" s="9"/>
-      <c r="AE14" s="9"/>
-      <c r="AF14" s="11">
+      <c r="AB14" s="14">
+        <v>2474401.2618482099</v>
+      </c>
+      <c r="AC14" s="14">
+        <v>1160329.50422936</v>
+      </c>
+      <c r="AD14" s="14">
+        <v>814065.98739934003</v>
+      </c>
+      <c r="AE14" s="14">
+        <v>29</v>
+      </c>
+      <c r="AF14" s="10">
         <v>339993.39600000001</v>
       </c>
     </row>
     <row r="15" spans="1:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="24">
+      <c r="B15" s="22">
         <v>12887.833873</v>
       </c>
-      <c r="C15" s="24">
+      <c r="C15" s="22">
         <v>211.38096899999999</v>
       </c>
-      <c r="D15" s="24">
+      <c r="D15" s="22">
         <v>15308.007311000001</v>
       </c>
-      <c r="E15" s="24">
+      <c r="E15" s="22">
         <v>1383.84726</v>
       </c>
-      <c r="F15" s="24">
+      <c r="F15" s="22">
         <v>190.842276</v>
       </c>
-      <c r="G15" s="24">
+      <c r="G15" s="22">
         <v>1606.899461</v>
       </c>
-      <c r="H15" s="24">
+      <c r="H15" s="22">
         <v>5669.1797379999998</v>
       </c>
-      <c r="I15" s="24">
+      <c r="I15" s="22">
         <v>1848.460221</v>
       </c>
-      <c r="J15" s="24">
+      <c r="J15" s="22">
         <v>228.573487</v>
       </c>
-      <c r="K15" s="24">
+      <c r="K15" s="22">
         <v>397.78660200000002</v>
       </c>
-      <c r="L15" s="24">
+      <c r="L15" s="22">
         <v>2428.6192769999998</v>
       </c>
-      <c r="M15" s="24">
+      <c r="M15" s="22">
         <v>2894.797986</v>
       </c>
-      <c r="N15" s="24">
+      <c r="N15" s="22">
         <v>24.131412999999998</v>
       </c>
-      <c r="O15" s="24">
+      <c r="O15" s="22">
         <v>219.42526599999999</v>
       </c>
-      <c r="P15" s="24">
+      <c r="P15" s="22">
         <v>9885.1810099999984</v>
       </c>
-      <c r="Q15" s="24">
+      <c r="Q15" s="22">
         <v>4115.504457</v>
       </c>
-      <c r="R15" s="24">
+      <c r="R15" s="22">
         <v>1366.1471529999999</v>
       </c>
-      <c r="S15" s="24">
+      <c r="S15" s="22">
         <v>83.412541000000004</v>
       </c>
-      <c r="T15" s="24">
+      <c r="T15" s="22">
         <v>504.980345</v>
       </c>
       <c r="U15" s="8">
@@ -4547,76 +4686,84 @@
       <c r="Z15" s="8">
         <v>0.20330999999999999</v>
       </c>
-      <c r="AA15" s="12">
+      <c r="AA15" s="11">
         <v>15386</v>
       </c>
-      <c r="AB15" s="9"/>
-      <c r="AC15" s="9"/>
-      <c r="AD15" s="9"/>
-      <c r="AE15" s="9"/>
-      <c r="AF15" s="11">
+      <c r="AB15" s="14">
+        <v>2251436.1821754798</v>
+      </c>
+      <c r="AC15" s="14">
+        <v>1143632.8609652</v>
+      </c>
+      <c r="AD15" s="14">
+        <v>814379.64833702997</v>
+      </c>
+      <c r="AE15" s="14">
+        <v>36</v>
+      </c>
+      <c r="AF15" s="10">
         <v>438555.44500000001</v>
       </c>
     </row>
     <row r="16" spans="1:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="24">
+      <c r="B16" s="22">
         <v>13002.126053</v>
       </c>
-      <c r="C16" s="24">
+      <c r="C16" s="22">
         <v>326.29012999999998</v>
       </c>
-      <c r="D16" s="24">
+      <c r="D16" s="22">
         <v>16958.982390000001</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E16" s="22">
         <v>1649.304351</v>
       </c>
-      <c r="F16" s="24">
+      <c r="F16" s="22">
         <v>228.69747799999999</v>
       </c>
-      <c r="G16" s="24">
+      <c r="G16" s="22">
         <v>2363.0427030000001</v>
       </c>
-      <c r="H16" s="24">
+      <c r="H16" s="22">
         <v>6402.6582399999998</v>
       </c>
-      <c r="I16" s="24">
+      <c r="I16" s="22">
         <v>1898.122038</v>
       </c>
-      <c r="J16" s="24">
+      <c r="J16" s="22">
         <v>246.853712</v>
       </c>
-      <c r="K16" s="24">
+      <c r="K16" s="22">
         <v>431.48874999999998</v>
       </c>
-      <c r="L16" s="24">
+      <c r="L16" s="22">
         <v>2454.4595410000002</v>
       </c>
-      <c r="M16" s="24">
+      <c r="M16" s="22">
         <v>3152.4036689999998</v>
       </c>
-      <c r="N16" s="24">
+      <c r="N16" s="22">
         <v>27.894767000000002</v>
       </c>
-      <c r="O16" s="24">
+      <c r="O16" s="22">
         <v>135.11809299999999</v>
       </c>
-      <c r="P16" s="24">
+      <c r="P16" s="22">
         <v>10303.078414000001</v>
       </c>
-      <c r="Q16" s="24">
+      <c r="Q16" s="22">
         <v>4300.5087700000004</v>
       </c>
-      <c r="R16" s="24">
+      <c r="R16" s="22">
         <v>1554.781528</v>
       </c>
-      <c r="S16" s="24">
+      <c r="S16" s="22">
         <v>79.060235000000006</v>
       </c>
-      <c r="T16" s="24">
+      <c r="T16" s="22">
         <v>528.05403000000001</v>
       </c>
       <c r="U16" s="8">
@@ -4637,76 +4784,84 @@
       <c r="Z16" s="8">
         <v>0.23455000000000001</v>
       </c>
-      <c r="AA16" s="12">
+      <c r="AA16" s="11">
         <v>16764</v>
       </c>
-      <c r="AB16" s="9"/>
-      <c r="AC16" s="9"/>
-      <c r="AD16" s="9"/>
-      <c r="AE16" s="9"/>
-      <c r="AF16" s="11">
+      <c r="AB16" s="14">
+        <v>2384673.2990109599</v>
+      </c>
+      <c r="AC16" s="14">
+        <v>1153610.2646582499</v>
+      </c>
+      <c r="AD16" s="14">
+        <v>814192.2141475</v>
+      </c>
+      <c r="AE16" s="14">
+        <v>32</v>
+      </c>
+      <c r="AF16" s="10">
         <v>379657.777</v>
       </c>
     </row>
     <row r="17" spans="1:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="24">
+      <c r="B17" s="22">
         <v>12440.96422</v>
       </c>
-      <c r="C17" s="24">
+      <c r="C17" s="22">
         <v>338.87062500000002</v>
       </c>
-      <c r="D17" s="24">
+      <c r="D17" s="22">
         <v>18119.109111000002</v>
       </c>
-      <c r="E17" s="24">
+      <c r="E17" s="22">
         <v>1836.976422</v>
       </c>
-      <c r="F17" s="24">
+      <c r="F17" s="22">
         <v>224.632328</v>
       </c>
-      <c r="G17" s="24">
+      <c r="G17" s="22">
         <v>2414.2055110000001</v>
       </c>
-      <c r="H17" s="24">
+      <c r="H17" s="22">
         <v>5984.8282249999993</v>
       </c>
-      <c r="I17" s="24">
+      <c r="I17" s="22">
         <v>1840.2281310000001</v>
       </c>
-      <c r="J17" s="24">
+      <c r="J17" s="22">
         <v>280.386077</v>
       </c>
-      <c r="K17" s="24">
+      <c r="K17" s="22">
         <v>511.94456000000002</v>
       </c>
-      <c r="L17" s="24">
+      <c r="L17" s="22">
         <v>2593.2462690000002</v>
       </c>
-      <c r="M17" s="24">
+      <c r="M17" s="22">
         <v>2889.9189459999998</v>
       </c>
-      <c r="N17" s="24">
+      <c r="N17" s="22">
         <v>30.551497999999999</v>
       </c>
-      <c r="O17" s="24">
+      <c r="O17" s="22">
         <v>218.65114299999999</v>
       </c>
-      <c r="P17" s="24">
+      <c r="P17" s="22">
         <v>11503.079081999998</v>
       </c>
-      <c r="Q17" s="24">
+      <c r="Q17" s="22">
         <v>4411.0508159999999</v>
       </c>
-      <c r="R17" s="24">
+      <c r="R17" s="22">
         <v>1481.1972390000001</v>
       </c>
-      <c r="S17" s="24">
+      <c r="S17" s="22">
         <v>106.208242</v>
       </c>
-      <c r="T17" s="24">
+      <c r="T17" s="22">
         <v>461.65977099999998</v>
       </c>
       <c r="U17" s="8">
@@ -4724,83 +4879,87 @@
       <c r="Y17" s="8">
         <v>67195032</v>
       </c>
-      <c r="Z17" s="8"/>
-      <c r="AA17" s="12">
+      <c r="Z17" s="15">
+        <v>0.29800500000000002</v>
+      </c>
+      <c r="AA17" s="11">
         <v>14433</v>
       </c>
-      <c r="AB17" s="13">
+      <c r="AB17" s="12">
         <v>2541350</v>
       </c>
-      <c r="AC17" s="25">
-        <v>695858</v>
-      </c>
-      <c r="AD17" s="18">
-        <v>10147</v>
-      </c>
-      <c r="AE17" s="5"/>
-      <c r="AF17" s="11">
+      <c r="AC17" s="28">
+        <v>1149975</v>
+      </c>
+      <c r="AD17" s="28">
+        <v>825214</v>
+      </c>
+      <c r="AE17" s="26">
+        <v>35</v>
+      </c>
+      <c r="AF17" s="10">
         <v>427733.43600000005</v>
       </c>
     </row>
     <row r="18" spans="1:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="22">
+      <c r="B18" s="20">
         <v>14130.475935</v>
       </c>
-      <c r="C18" s="22">
+      <c r="C18" s="20">
         <v>260.52309000000002</v>
       </c>
-      <c r="D18" s="22">
+      <c r="D18" s="20">
         <v>22255.055638999998</v>
       </c>
-      <c r="E18" s="22">
+      <c r="E18" s="20">
         <v>1828.7517909999999</v>
       </c>
-      <c r="F18" s="22">
+      <c r="F18" s="20">
         <v>213.479006</v>
       </c>
-      <c r="G18" s="22">
+      <c r="G18" s="20">
         <v>2447.707218</v>
       </c>
-      <c r="H18" s="22">
+      <c r="H18" s="20">
         <v>6287.1760519999998</v>
       </c>
-      <c r="I18" s="22">
+      <c r="I18" s="20">
         <v>1747.320946</v>
       </c>
-      <c r="J18" s="22">
+      <c r="J18" s="20">
         <v>319.279991</v>
       </c>
-      <c r="K18" s="22">
+      <c r="K18" s="20">
         <v>565.30637899999999</v>
       </c>
-      <c r="L18" s="22">
+      <c r="L18" s="20">
         <v>2802.9883369999998</v>
       </c>
-      <c r="M18" s="22">
+      <c r="M18" s="20">
         <v>2868.3197749999999</v>
       </c>
-      <c r="N18" s="22">
+      <c r="N18" s="20">
         <v>35.629902999999999</v>
       </c>
-      <c r="O18" s="22">
+      <c r="O18" s="20">
         <v>163.88539499999999</v>
       </c>
-      <c r="P18" s="22">
+      <c r="P18" s="20">
         <v>11735.746643</v>
       </c>
-      <c r="Q18" s="22">
+      <c r="Q18" s="20">
         <v>4421.1794190000001</v>
       </c>
-      <c r="R18" s="22">
+      <c r="R18" s="20">
         <v>1569.6933059999999</v>
       </c>
-      <c r="S18" s="22">
+      <c r="S18" s="20">
         <v>126.835776</v>
       </c>
-      <c r="T18" s="22">
+      <c r="T18" s="20">
         <v>462.58383600000002</v>
       </c>
       <c r="U18" s="8">
@@ -4821,84 +4980,84 @@
       <c r="Z18" s="8">
         <v>0.36146</v>
       </c>
-      <c r="AA18" s="14">
+      <c r="AA18" s="13">
         <v>14875.4</v>
       </c>
-      <c r="AB18" s="13">
+      <c r="AB18" s="12">
         <v>2541569</v>
       </c>
-      <c r="AC18" s="25">
-        <v>333161</v>
-      </c>
-      <c r="AD18" s="18">
-        <v>4904</v>
+      <c r="AC18" s="28">
+        <v>1154555</v>
+      </c>
+      <c r="AD18" s="28">
+        <v>812779</v>
       </c>
       <c r="AE18" s="5">
         <v>26</v>
       </c>
-      <c r="AF18" s="10">
+      <c r="AF18" s="9">
         <v>365800.94500000001</v>
       </c>
     </row>
     <row r="19" spans="1:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="22">
+      <c r="B19" s="20">
         <v>16469.528678999999</v>
       </c>
-      <c r="C19" s="22">
+      <c r="C19" s="20">
         <v>252.60647399999999</v>
       </c>
-      <c r="D19" s="22">
+      <c r="D19" s="20">
         <v>26925.109248999997</v>
       </c>
-      <c r="E19" s="22">
+      <c r="E19" s="20">
         <v>2073.8949499999999</v>
       </c>
-      <c r="F19" s="22">
+      <c r="F19" s="20">
         <v>270.62905699999999</v>
       </c>
-      <c r="G19" s="22">
+      <c r="G19" s="20">
         <v>3287.7490229999999</v>
       </c>
-      <c r="H19" s="22">
+      <c r="H19" s="20">
         <v>7446.6467359999997</v>
       </c>
-      <c r="I19" s="22">
+      <c r="I19" s="20">
         <v>1896.38302</v>
       </c>
-      <c r="J19" s="22">
+      <c r="J19" s="20">
         <v>357.46761199999997</v>
       </c>
-      <c r="K19" s="22">
+      <c r="K19" s="20">
         <v>570.01839099999995</v>
       </c>
-      <c r="L19" s="22">
+      <c r="L19" s="20">
         <v>3235.7426679999999</v>
       </c>
-      <c r="M19" s="22">
+      <c r="M19" s="20">
         <v>2950.6643880000001</v>
       </c>
-      <c r="N19" s="22">
+      <c r="N19" s="20">
         <v>51.684524000000003</v>
       </c>
-      <c r="O19" s="22">
+      <c r="O19" s="20">
         <v>242.72905499999999</v>
       </c>
-      <c r="P19" s="22">
+      <c r="P19" s="20">
         <v>17495.226049000001</v>
       </c>
-      <c r="Q19" s="22">
+      <c r="Q19" s="20">
         <v>4477.6671329999999</v>
       </c>
-      <c r="R19" s="22">
+      <c r="R19" s="20">
         <v>1738.269405</v>
       </c>
-      <c r="S19" s="22">
+      <c r="S19" s="20">
         <v>152.466466</v>
       </c>
-      <c r="T19" s="22">
+      <c r="T19" s="20">
         <v>510.31514499999997</v>
       </c>
       <c r="U19" s="8">
@@ -4916,85 +5075,87 @@
       <c r="Y19" s="8">
         <v>67835969</v>
       </c>
-      <c r="Z19" s="8"/>
-      <c r="AA19" s="14">
+      <c r="Z19" s="15">
+        <v>0.40155000000000002</v>
+      </c>
+      <c r="AA19" s="13">
         <v>17356.96</v>
       </c>
-      <c r="AB19" s="13">
+      <c r="AB19" s="12">
         <v>2196101</v>
       </c>
-      <c r="AC19" s="25">
-        <v>966110</v>
-      </c>
-      <c r="AD19" s="18">
-        <v>6619</v>
+      <c r="AC19" s="28">
+        <v>1153432</v>
+      </c>
+      <c r="AD19" s="28">
+        <v>812975</v>
       </c>
       <c r="AE19" s="5">
         <v>40</v>
       </c>
-      <c r="AF19" s="10">
+      <c r="AF19" s="9">
         <v>378620.53700000001</v>
       </c>
     </row>
     <row r="20" spans="1:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="22">
+      <c r="B20" s="20">
         <v>17217.859748999999</v>
       </c>
-      <c r="C20" s="22">
+      <c r="C20" s="20">
         <v>232.67008999999999</v>
       </c>
-      <c r="D20" s="22">
+      <c r="D20" s="20">
         <v>29236.708713</v>
       </c>
-      <c r="E20" s="22">
+      <c r="E20" s="20">
         <v>2195.5455390000002</v>
       </c>
-      <c r="F20" s="22">
+      <c r="F20" s="20">
         <v>312.24555700000002</v>
       </c>
-      <c r="G20" s="22">
+      <c r="G20" s="20">
         <v>2380.5430769999998</v>
       </c>
-      <c r="H20" s="22">
+      <c r="H20" s="20">
         <v>7472.8277740000003</v>
       </c>
-      <c r="I20" s="22">
+      <c r="I20" s="20">
         <v>1911.03736</v>
       </c>
-      <c r="J20" s="22">
+      <c r="J20" s="20">
         <v>377.23650500000002</v>
       </c>
-      <c r="K20" s="22">
+      <c r="K20" s="20">
         <v>552.58881699999995</v>
       </c>
-      <c r="L20" s="22">
+      <c r="L20" s="20">
         <v>3634.8479619999998</v>
       </c>
-      <c r="M20" s="22">
+      <c r="M20" s="20">
         <v>3119.5282820000002</v>
       </c>
-      <c r="N20" s="22">
+      <c r="N20" s="20">
         <v>54.838940000000001</v>
       </c>
-      <c r="O20" s="22">
+      <c r="O20" s="20">
         <v>240.47305499999999</v>
       </c>
-      <c r="P20" s="22">
+      <c r="P20" s="20">
         <v>18683.099835000001</v>
       </c>
-      <c r="Q20" s="22">
+      <c r="Q20" s="20">
         <v>4645.4518779999999</v>
       </c>
-      <c r="R20" s="22">
+      <c r="R20" s="20">
         <v>1846.760284</v>
       </c>
-      <c r="S20" s="22">
+      <c r="S20" s="20">
         <v>155.193645</v>
       </c>
-      <c r="T20" s="22">
+      <c r="T20" s="20">
         <v>525.06967499999996</v>
       </c>
       <c r="U20" s="8">
@@ -5015,84 +5176,84 @@
       <c r="Z20" s="8">
         <v>0.44163999999999998</v>
       </c>
-      <c r="AA20" s="14">
+      <c r="AA20" s="13">
         <v>15944.8</v>
       </c>
-      <c r="AB20" s="13">
+      <c r="AB20" s="12">
         <v>2189464</v>
       </c>
-      <c r="AC20" s="25">
-        <v>1010038</v>
-      </c>
-      <c r="AD20" s="18">
-        <v>7369</v>
+      <c r="AC20" s="28">
+        <v>1153662</v>
+      </c>
+      <c r="AD20" s="28">
+        <v>812719</v>
       </c>
       <c r="AE20" s="5">
         <v>32</v>
       </c>
-      <c r="AF20" s="10">
+      <c r="AF20" s="9">
         <v>461789.49600000004</v>
       </c>
     </row>
     <row r="21" spans="1:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="22">
+      <c r="B21" s="20">
         <v>17305.341702000002</v>
       </c>
-      <c r="C21" s="22">
+      <c r="C21" s="20">
         <v>277.73333200000002</v>
       </c>
-      <c r="D21" s="22">
+      <c r="D21" s="20">
         <v>32449.357227</v>
       </c>
-      <c r="E21" s="22">
+      <c r="E21" s="20">
         <v>2310.8807059999999</v>
       </c>
-      <c r="F21" s="22">
+      <c r="F21" s="20">
         <v>349.81324499999999</v>
       </c>
-      <c r="G21" s="22">
+      <c r="G21" s="20">
         <v>2129.7829750000001</v>
       </c>
-      <c r="H21" s="22">
+      <c r="H21" s="20">
         <v>8105.0012489999999</v>
       </c>
-      <c r="I21" s="22">
+      <c r="I21" s="20">
         <v>1957.2446399999999</v>
       </c>
-      <c r="J21" s="22">
+      <c r="J21" s="20">
         <v>380.95510999999999</v>
       </c>
-      <c r="K21" s="22">
+      <c r="K21" s="20">
         <v>466.27297099999998</v>
       </c>
-      <c r="L21" s="22">
+      <c r="L21" s="20">
         <v>4021.7197460000002</v>
       </c>
-      <c r="M21" s="22">
+      <c r="M21" s="20">
         <v>2661.313877</v>
       </c>
-      <c r="N21" s="22">
+      <c r="N21" s="20">
         <v>70.840280000000007</v>
       </c>
-      <c r="O21" s="22">
+      <c r="O21" s="20">
         <v>303.416315</v>
       </c>
-      <c r="P21" s="22">
+      <c r="P21" s="20">
         <v>16976.436754999999</v>
       </c>
-      <c r="Q21" s="22">
+      <c r="Q21" s="20">
         <v>4794.3813440000004</v>
       </c>
-      <c r="R21" s="22">
+      <c r="R21" s="20">
         <v>1998.965921</v>
       </c>
-      <c r="S21" s="22">
+      <c r="S21" s="20">
         <v>154.578732</v>
       </c>
-      <c r="T21" s="22">
+      <c r="T21" s="20">
         <v>530.01994500000001</v>
       </c>
       <c r="U21" s="8">
@@ -5113,84 +5274,84 @@
       <c r="Z21" s="8">
         <v>0.47987999999999997</v>
       </c>
-      <c r="AA21" s="14">
+      <c r="AA21" s="13">
         <v>14910.71</v>
       </c>
-      <c r="AB21" s="13">
+      <c r="AB21" s="12">
         <v>2211616</v>
       </c>
-      <c r="AC21" s="25">
-        <v>1025505</v>
-      </c>
-      <c r="AD21" s="18">
-        <v>7016</v>
+      <c r="AC21" s="28">
+        <v>1154050</v>
+      </c>
+      <c r="AD21" s="28">
+        <v>812522</v>
       </c>
       <c r="AE21" s="5">
         <v>37</v>
       </c>
-      <c r="AF21" s="10">
+      <c r="AF21" s="9">
         <v>417614.34099999996</v>
       </c>
     </row>
     <row r="22" spans="1:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="22">
+      <c r="B22" s="20">
         <v>15588.94169</v>
       </c>
-      <c r="C22" s="22">
+      <c r="C22" s="20">
         <v>605.35670700000003</v>
       </c>
-      <c r="D22" s="22">
+      <c r="D22" s="20">
         <v>33482.667132000002</v>
       </c>
-      <c r="E22" s="22">
+      <c r="E22" s="20">
         <v>2321.948946</v>
       </c>
-      <c r="F22" s="22">
+      <c r="F22" s="20">
         <v>347.644564</v>
       </c>
-      <c r="G22" s="22">
+      <c r="G22" s="20">
         <v>2159.959695</v>
       </c>
-      <c r="H22" s="22">
+      <c r="H22" s="20">
         <v>8864.264059000001</v>
       </c>
-      <c r="I22" s="22">
+      <c r="I22" s="20">
         <v>2142.4587059999999</v>
       </c>
-      <c r="J22" s="22">
+      <c r="J22" s="20">
         <v>420.38574599999998</v>
       </c>
-      <c r="K22" s="22">
+      <c r="K22" s="20">
         <v>474.879974</v>
       </c>
-      <c r="L22" s="22">
+      <c r="L22" s="20">
         <v>4285.0244979999998</v>
       </c>
-      <c r="M22" s="22">
+      <c r="M22" s="20">
         <v>2941.445561</v>
       </c>
-      <c r="N22" s="22">
+      <c r="N22" s="20">
         <v>70.789113999999998</v>
       </c>
-      <c r="O22" s="22">
+      <c r="O22" s="20">
         <v>270.58614299999999</v>
       </c>
-      <c r="P22" s="22">
+      <c r="P22" s="20">
         <v>14875.869424999999</v>
       </c>
-      <c r="Q22" s="22">
+      <c r="Q22" s="20">
         <v>4839.0147870000001</v>
       </c>
-      <c r="R22" s="22">
+      <c r="R22" s="20">
         <v>2091.9380350000001</v>
       </c>
-      <c r="S22" s="22">
+      <c r="S22" s="20">
         <v>154.00774100000001</v>
       </c>
-      <c r="T22" s="22">
+      <c r="T22" s="20">
         <v>576.51475600000003</v>
       </c>
       <c r="U22" s="8">
@@ -5211,84 +5372,84 @@
       <c r="Z22" s="8">
         <v>0.61609000000000003</v>
       </c>
-      <c r="AA22" s="14">
+      <c r="AA22" s="13">
         <v>17968.900000000001</v>
       </c>
-      <c r="AB22" s="13">
+      <c r="AB22" s="12">
         <v>2191974</v>
       </c>
-      <c r="AC22" s="25">
-        <v>1078379</v>
-      </c>
-      <c r="AD22" s="18">
-        <v>8049</v>
+      <c r="AC22" s="28">
+        <v>1133959</v>
+      </c>
+      <c r="AD22" s="28">
+        <v>813100</v>
       </c>
       <c r="AE22" s="5">
         <v>59</v>
       </c>
-      <c r="AF22" s="10">
+      <c r="AF22" s="9">
         <v>468325.83400000003</v>
       </c>
     </row>
     <row r="23" spans="1:32" ht="19" x14ac:dyDescent="0.25">
-      <c r="A23" s="20">
+      <c r="A23" s="18">
         <v>2016</v>
       </c>
-      <c r="B23" s="22">
+      <c r="B23" s="20">
         <v>15961.808110000002</v>
       </c>
-      <c r="C23" s="22">
+      <c r="C23" s="20">
         <v>1075.216017</v>
       </c>
-      <c r="D23" s="22">
+      <c r="D23" s="20">
         <v>34521.386075000002</v>
       </c>
-      <c r="E23" s="22">
+      <c r="E23" s="20">
         <v>2354.1560469999999</v>
       </c>
-      <c r="F23" s="22">
+      <c r="F23" s="20">
         <v>324.97511800000001</v>
       </c>
-      <c r="G23" s="22">
+      <c r="G23" s="20">
         <v>2148.0528469999999</v>
       </c>
-      <c r="H23" s="22">
+      <c r="H23" s="20">
         <v>9864.3798509999997</v>
       </c>
-      <c r="I23" s="22">
+      <c r="I23" s="20">
         <v>2253.990953</v>
       </c>
-      <c r="J23" s="22">
+      <c r="J23" s="20">
         <v>449.19643100000002</v>
       </c>
-      <c r="K23" s="22">
+      <c r="K23" s="20">
         <v>485.75881900000002</v>
       </c>
-      <c r="L23" s="22">
+      <c r="L23" s="20">
         <v>4753.0912830000007</v>
       </c>
-      <c r="M23" s="22">
+      <c r="M23" s="20">
         <v>2917.3873600000002</v>
       </c>
-      <c r="N23" s="22">
+      <c r="N23" s="20">
         <v>65.852356</v>
       </c>
-      <c r="O23" s="22">
+      <c r="O23" s="20">
         <v>335.15758899999997</v>
       </c>
-      <c r="P23" s="22">
+      <c r="P23" s="20">
         <v>15481.432991</v>
       </c>
-      <c r="Q23" s="22">
+      <c r="Q23" s="20">
         <v>4796.3022209999999</v>
       </c>
-      <c r="R23" s="22">
+      <c r="R23" s="20">
         <v>2233.1837529999998</v>
       </c>
-      <c r="S23" s="22">
+      <c r="S23" s="20">
         <v>193.74377899999999</v>
       </c>
-      <c r="T23" s="22">
+      <c r="T23" s="20">
         <v>589.40652299999999</v>
       </c>
       <c r="U23" s="8">
@@ -5309,84 +5470,84 @@
       <c r="Z23" s="8">
         <v>0.77817000000000003</v>
       </c>
-      <c r="AA23" s="14">
+      <c r="AA23" s="13">
         <v>15875.5</v>
       </c>
-      <c r="AB23" s="13">
+      <c r="AB23" s="12">
         <v>2191454</v>
       </c>
-      <c r="AC23" s="25">
-        <v>1098904</v>
-      </c>
-      <c r="AD23" s="18">
-        <v>8415</v>
+      <c r="AC23" s="28">
+        <v>1133991</v>
+      </c>
+      <c r="AD23" s="28">
+        <v>812485</v>
       </c>
       <c r="AE23" s="5">
         <v>31</v>
       </c>
-      <c r="AF23" s="10">
+      <c r="AF23" s="9">
         <v>444803.565</v>
       </c>
     </row>
     <row r="24" spans="1:32" ht="19" x14ac:dyDescent="0.25">
-      <c r="A24" s="20">
+      <c r="A24" s="18">
         <v>2017</v>
       </c>
-      <c r="B24" s="22">
+      <c r="B24" s="20">
         <v>18110.396808999998</v>
       </c>
-      <c r="C24" s="22">
+      <c r="C24" s="20">
         <v>1293.9742610000001</v>
       </c>
-      <c r="D24" s="22">
+      <c r="D24" s="20">
         <v>38776.266119999993</v>
       </c>
-      <c r="E24" s="22">
+      <c r="E24" s="20">
         <v>2482.8914140000002</v>
       </c>
-      <c r="F24" s="22">
+      <c r="F24" s="20">
         <v>399.40900199999999</v>
       </c>
-      <c r="G24" s="22">
+      <c r="G24" s="20">
         <v>2011.3616709999999</v>
       </c>
-      <c r="H24" s="22">
+      <c r="H24" s="20">
         <v>11186.072060999999</v>
       </c>
-      <c r="I24" s="22">
+      <c r="I24" s="20">
         <v>2551.9392859999998</v>
       </c>
-      <c r="J24" s="22">
+      <c r="J24" s="20">
         <v>495.09547800000001</v>
       </c>
-      <c r="K24" s="22">
+      <c r="K24" s="20">
         <v>608.02768900000001</v>
       </c>
-      <c r="L24" s="22">
+      <c r="L24" s="20">
         <v>4791.9661120000001</v>
       </c>
-      <c r="M24" s="22">
+      <c r="M24" s="20">
         <v>3403.7357550000002</v>
       </c>
-      <c r="N24" s="22">
+      <c r="N24" s="20">
         <v>58.664696999999997</v>
       </c>
-      <c r="O24" s="22">
+      <c r="O24" s="20">
         <v>339.21287999999998</v>
       </c>
-      <c r="P24" s="22">
+      <c r="P24" s="20">
         <v>15970.611371999999</v>
       </c>
-      <c r="Q24" s="22">
+      <c r="Q24" s="20">
         <v>4859.13249</v>
       </c>
-      <c r="R24" s="22">
+      <c r="R24" s="20">
         <v>2353.2852360000002</v>
       </c>
-      <c r="S24" s="22">
+      <c r="S24" s="20">
         <v>232.34284</v>
       </c>
-      <c r="T24" s="22">
+      <c r="T24" s="20">
         <v>625.48046099999999</v>
       </c>
       <c r="U24" s="8">
@@ -5407,84 +5568,84 @@
       <c r="Z24" s="8">
         <v>1.00179</v>
       </c>
-      <c r="AA24" s="14">
+      <c r="AA24" s="13">
         <v>16012.15</v>
       </c>
-      <c r="AB24" s="13">
+      <c r="AB24" s="12">
         <v>2191311</v>
       </c>
-      <c r="AC24" s="25">
-        <v>1148049</v>
-      </c>
-      <c r="AD24" s="18">
-        <v>8962</v>
+      <c r="AC24" s="28">
+        <v>1133430</v>
+      </c>
+      <c r="AD24" s="28">
+        <v>813167</v>
       </c>
       <c r="AE24" s="5">
         <v>19</v>
       </c>
-      <c r="AF24" s="10">
+      <c r="AF24" s="9">
         <v>449602.96699999995</v>
       </c>
     </row>
     <row r="25" spans="1:32" ht="19" x14ac:dyDescent="0.25">
-      <c r="A25" s="20">
+      <c r="A25" s="18">
         <v>2018</v>
       </c>
-      <c r="B25" s="22">
+      <c r="B25" s="20">
         <v>20601.412908999999</v>
       </c>
-      <c r="C25" s="22">
+      <c r="C25" s="20">
         <v>921.72877000000005</v>
       </c>
-      <c r="D25" s="22">
+      <c r="D25" s="20">
         <v>34067.300287000005</v>
       </c>
-      <c r="E25" s="22">
+      <c r="E25" s="20">
         <v>2187.8439349999999</v>
       </c>
-      <c r="F25" s="22">
+      <c r="F25" s="20">
         <v>457.13392800000003</v>
       </c>
-      <c r="G25" s="22">
+      <c r="G25" s="20">
         <v>2569.1319560000002</v>
       </c>
-      <c r="H25" s="22">
+      <c r="H25" s="20">
         <v>12069.243621</v>
       </c>
-      <c r="I25" s="22">
+      <c r="I25" s="20">
         <v>2719.0488879999998</v>
       </c>
-      <c r="J25" s="22">
+      <c r="J25" s="20">
         <v>557.09805700000004</v>
       </c>
-      <c r="K25" s="22">
+      <c r="K25" s="20">
         <v>614.87138100000004</v>
       </c>
-      <c r="L25" s="22">
+      <c r="L25" s="20">
         <v>4933.9823139999999</v>
       </c>
-      <c r="M25" s="22">
+      <c r="M25" s="20">
         <v>3817.7946889999998</v>
       </c>
-      <c r="N25" s="22">
+      <c r="N25" s="20">
         <v>82.258585999999994</v>
       </c>
-      <c r="O25" s="22">
+      <c r="O25" s="20">
         <v>422.76399400000003</v>
       </c>
-      <c r="P25" s="22">
+      <c r="P25" s="20">
         <v>16818.212539</v>
       </c>
-      <c r="Q25" s="22">
+      <c r="Q25" s="20">
         <v>4715.4060659999996</v>
       </c>
-      <c r="R25" s="22">
+      <c r="R25" s="20">
         <v>2550.2496489999999</v>
       </c>
-      <c r="S25" s="22">
+      <c r="S25" s="20">
         <v>267.578441</v>
       </c>
-      <c r="T25" s="22">
+      <c r="T25" s="20">
         <v>588.92233599999997</v>
       </c>
       <c r="U25" s="8">
@@ -5502,23 +5663,25 @@
       <c r="Y25" s="8">
         <v>69428454</v>
       </c>
-      <c r="Z25" s="8"/>
-      <c r="AA25" s="14">
+      <c r="Z25" s="15">
+        <v>1.00179</v>
+      </c>
+      <c r="AA25" s="13">
         <v>17016.830000000002</v>
       </c>
-      <c r="AB25" s="13">
+      <c r="AB25" s="12">
         <v>2191867</v>
       </c>
-      <c r="AC25" s="25">
-        <v>1107250</v>
-      </c>
-      <c r="AD25" s="18">
-        <v>8501</v>
+      <c r="AC25" s="28">
+        <v>1134183</v>
+      </c>
+      <c r="AD25" s="28">
+        <v>812834</v>
       </c>
       <c r="AE25" s="5">
         <v>30</v>
       </c>
-      <c r="AF25" s="10">
+      <c r="AF25" s="9">
         <v>454952.54100000003</v>
       </c>
     </row>
@@ -5531,71 +5694,78 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFDC5115-B989-7240-9B3D-AF4C2FACAEF3}">
   <dimension ref="A1:AF25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:AF25"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AA16" sqref="AA16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="26" max="26" width="23.33203125" customWidth="1"/>
+    <col min="27" max="27" width="35.83203125" customWidth="1"/>
+    <col min="28" max="29" width="30.83203125" customWidth="1"/>
+    <col min="30" max="30" width="20.1640625" customWidth="1"/>
+    <col min="31" max="31" width="21.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="180" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="L1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="M1" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="N1" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="O1" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="P1" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="Q1" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="21" t="s">
+      <c r="R1" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="21" t="s">
+      <c r="S1" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="21" t="s">
+      <c r="T1" s="19" t="s">
         <v>19</v>
       </c>
       <c r="U1" s="3" t="s">
@@ -5623,10 +5793,10 @@
         <v>26</v>
       </c>
       <c r="AC1" s="4" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="AD1" s="4" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="AE1" s="4" t="s">
         <v>27</v>
@@ -5636,64 +5806,64 @@
       </c>
     </row>
     <row r="2" spans="1:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="22">
+      <c r="B2" s="20">
         <v>1517.1673639999999</v>
       </c>
-      <c r="C2" s="22">
+      <c r="C2" s="20">
         <v>42.410974000000003</v>
       </c>
-      <c r="D2" s="22">
+      <c r="D2" s="20">
         <v>2247.7353360000002</v>
       </c>
-      <c r="E2" s="22">
+      <c r="E2" s="20">
         <v>251.36057299999999</v>
       </c>
-      <c r="F2" s="22">
+      <c r="F2" s="20">
         <v>20.751177999999999</v>
       </c>
-      <c r="G2" s="22">
+      <c r="G2" s="20">
         <v>540.08848899999998</v>
       </c>
-      <c r="H2" s="22">
+      <c r="H2" s="20">
         <v>1553.3504829999999</v>
       </c>
-      <c r="I2" s="22">
+      <c r="I2" s="20">
         <v>662.27885200000003</v>
       </c>
-      <c r="J2" s="22">
+      <c r="J2" s="20">
         <v>43.742963000000003</v>
       </c>
-      <c r="K2" s="22">
+      <c r="K2" s="20">
         <v>80.752568999999994</v>
       </c>
-      <c r="L2" s="22">
+      <c r="L2" s="20">
         <v>939.77599999999995</v>
       </c>
-      <c r="M2" s="22">
+      <c r="M2" s="20">
         <v>365.54209700000001</v>
       </c>
-      <c r="N2" s="22">
+      <c r="N2" s="20">
         <v>1.6664999999999999E-2</v>
       </c>
-      <c r="O2" s="22">
+      <c r="O2" s="20">
         <v>5.4256380000000002</v>
       </c>
-      <c r="P2" s="22">
+      <c r="P2" s="20">
         <v>459.21773200000001</v>
       </c>
-      <c r="Q2" s="22">
+      <c r="Q2" s="20">
         <v>683.20480299999997</v>
       </c>
-      <c r="R2" s="22">
+      <c r="R2" s="20">
         <v>337.997771</v>
       </c>
-      <c r="S2" s="22">
+      <c r="S2" s="20">
         <v>13.959275</v>
       </c>
-      <c r="T2" s="22">
+      <c r="T2" s="20">
         <v>50.404097</v>
       </c>
       <c r="U2" s="8">
@@ -5711,75 +5881,87 @@
       <c r="Y2" s="8">
         <v>59467272</v>
       </c>
-      <c r="Z2" s="8"/>
-      <c r="AA2" s="26"/>
-      <c r="AB2" s="26"/>
-      <c r="AC2" s="26"/>
-      <c r="AD2" s="26"/>
-      <c r="AE2" s="26"/>
-      <c r="AF2" s="27">
+      <c r="Z2" s="15">
+        <v>0.11917999999999999</v>
+      </c>
+      <c r="AA2" s="29">
+        <v>12384.87013329</v>
+      </c>
+      <c r="AB2" s="29">
+        <v>407634.68248070998</v>
+      </c>
+      <c r="AC2" s="29">
+        <v>110908.82713931</v>
+      </c>
+      <c r="AD2" s="29">
+        <v>342336.26697966998</v>
+      </c>
+      <c r="AE2" s="29">
+        <v>10</v>
+      </c>
+      <c r="AF2" s="23">
         <v>143862.554</v>
       </c>
     </row>
     <row r="3" spans="1:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="22">
+      <c r="B3" s="20">
         <v>2151.7327289999998</v>
       </c>
-      <c r="C3" s="22">
+      <c r="C3" s="20">
         <v>39.837997000000001</v>
       </c>
-      <c r="D3" s="22">
+      <c r="D3" s="20">
         <v>2525.5262910000001</v>
       </c>
-      <c r="E3" s="22">
+      <c r="E3" s="20">
         <v>268.32203299999998</v>
       </c>
-      <c r="F3" s="22">
+      <c r="F3" s="20">
         <v>21.818722999999999</v>
       </c>
-      <c r="G3" s="22">
+      <c r="G3" s="20">
         <v>412.59641499999998</v>
       </c>
-      <c r="H3" s="22">
+      <c r="H3" s="20">
         <v>1778.5790030000001</v>
       </c>
-      <c r="I3" s="22">
+      <c r="I3" s="20">
         <v>737.96758</v>
       </c>
-      <c r="J3" s="22">
+      <c r="J3" s="20">
         <v>37.939543</v>
       </c>
-      <c r="K3" s="22">
+      <c r="K3" s="20">
         <v>90.268174999999999</v>
       </c>
-      <c r="L3" s="22">
+      <c r="L3" s="20">
         <v>622.03428099999996</v>
       </c>
-      <c r="M3" s="22">
+      <c r="M3" s="20">
         <v>432.64720399999999</v>
       </c>
-      <c r="N3" s="22">
+      <c r="N3" s="20">
         <v>0.76424199999999998</v>
       </c>
-      <c r="O3" s="22">
+      <c r="O3" s="20">
         <v>4.470313</v>
       </c>
-      <c r="P3" s="22">
+      <c r="P3" s="20">
         <v>506.82884899999999</v>
       </c>
-      <c r="Q3" s="22">
+      <c r="Q3" s="20">
         <v>736.510538</v>
       </c>
-      <c r="R3" s="22">
+      <c r="R3" s="20">
         <v>561.60140999999999</v>
       </c>
-      <c r="S3" s="22">
+      <c r="S3" s="20">
         <v>22.577044999999998</v>
       </c>
-      <c r="T3" s="22">
+      <c r="T3" s="20">
         <v>52.587071999999999</v>
       </c>
       <c r="U3" s="8">
@@ -5800,74 +5982,84 @@
       <c r="Z3" s="8">
         <v>0.11917999999999999</v>
       </c>
-      <c r="AA3" s="26"/>
-      <c r="AB3" s="26"/>
-      <c r="AC3" s="26"/>
-      <c r="AD3" s="26"/>
-      <c r="AE3" s="26"/>
-      <c r="AF3" s="27">
+      <c r="AA3" s="29">
+        <v>13039.34837251</v>
+      </c>
+      <c r="AB3" s="29">
+        <v>414866.32629838999</v>
+      </c>
+      <c r="AC3" s="29">
+        <v>110942.84888410001</v>
+      </c>
+      <c r="AD3" s="29">
+        <v>342215.98331415001</v>
+      </c>
+      <c r="AE3" s="29">
+        <v>10</v>
+      </c>
+      <c r="AF3" s="23">
         <v>171503.91700000002</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="22">
+      <c r="B4" s="20">
         <v>2438.9091920000001</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="20">
         <v>28.967616</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="20">
         <v>2434.7777580000002</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="20">
         <v>282.65665999999999</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F4" s="20">
         <v>23.104803</v>
       </c>
-      <c r="G4" s="22">
+      <c r="G4" s="20">
         <v>399.62583599999999</v>
       </c>
-      <c r="H4" s="22">
+      <c r="H4" s="20">
         <v>1934.5774710000001</v>
       </c>
-      <c r="I4" s="22">
+      <c r="I4" s="20">
         <v>790.81920200000002</v>
       </c>
-      <c r="J4" s="22">
+      <c r="J4" s="20">
         <v>44.211323999999998</v>
       </c>
-      <c r="K4" s="22">
+      <c r="K4" s="20">
         <v>89.376423000000003</v>
       </c>
-      <c r="L4" s="22">
+      <c r="L4" s="20">
         <v>573.92851499999995</v>
       </c>
-      <c r="M4" s="22">
+      <c r="M4" s="20">
         <v>502.25883900000002</v>
       </c>
-      <c r="N4" s="22">
+      <c r="N4" s="20">
         <v>0.66490700000000003</v>
       </c>
-      <c r="O4" s="22">
+      <c r="O4" s="20">
         <v>37.927701999999996</v>
       </c>
-      <c r="P4" s="22">
+      <c r="P4" s="20">
         <v>547.37277099999994</v>
       </c>
-      <c r="Q4" s="22">
+      <c r="Q4" s="20">
         <v>769.08044099999995</v>
       </c>
-      <c r="R4" s="22">
+      <c r="R4" s="20">
         <v>564.66907700000002</v>
       </c>
-      <c r="S4" s="22">
+      <c r="S4" s="20">
         <v>22.148885</v>
       </c>
-      <c r="T4" s="22">
+      <c r="T4" s="20">
         <v>53.450476000000002</v>
       </c>
       <c r="U4" s="8">
@@ -5888,74 +6080,84 @@
       <c r="Z4" s="8">
         <v>0.10213999999999999</v>
       </c>
-      <c r="AA4" s="26"/>
-      <c r="AB4" s="26"/>
-      <c r="AC4" s="26"/>
-      <c r="AD4" s="26"/>
-      <c r="AE4" s="26"/>
-      <c r="AF4" s="27">
+      <c r="AA4" s="29">
+        <v>13222.127601599999</v>
+      </c>
+      <c r="AB4" s="29">
+        <v>416885.94162366999</v>
+      </c>
+      <c r="AC4" s="29">
+        <v>110952.35029746</v>
+      </c>
+      <c r="AD4" s="29">
+        <v>342182.39112675999</v>
+      </c>
+      <c r="AE4" s="29">
+        <v>10</v>
+      </c>
+      <c r="AF4" s="23">
         <v>179223.451</v>
       </c>
     </row>
     <row r="5" spans="1:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5" s="20">
         <v>2872.2276790000001</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="20">
         <v>23.722861999999999</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="20">
         <v>2635.2337859999998</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="20">
         <v>362.89272099999999</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F5" s="20">
         <v>23.570354999999999</v>
       </c>
-      <c r="G5" s="22">
+      <c r="G5" s="20">
         <v>241.360017</v>
       </c>
-      <c r="H5" s="22">
+      <c r="H5" s="20">
         <v>1787.959114</v>
       </c>
-      <c r="I5" s="22">
+      <c r="I5" s="20">
         <v>724.54561100000001</v>
       </c>
-      <c r="J5" s="22">
+      <c r="J5" s="20">
         <v>45.740985000000002</v>
       </c>
-      <c r="K5" s="22">
+      <c r="K5" s="20">
         <v>87.423897999999994</v>
       </c>
-      <c r="L5" s="22">
+      <c r="L5" s="20">
         <v>542.87358900000004</v>
       </c>
-      <c r="M5" s="22">
+      <c r="M5" s="20">
         <v>600.64526000000001</v>
       </c>
-      <c r="N5" s="22">
+      <c r="N5" s="20">
         <v>0.50025200000000003</v>
       </c>
-      <c r="O5" s="22">
+      <c r="O5" s="20">
         <v>19.804368</v>
       </c>
-      <c r="P5" s="22">
+      <c r="P5" s="20">
         <v>630.95762100000002</v>
       </c>
-      <c r="Q5" s="22">
+      <c r="Q5" s="20">
         <v>896.40938700000004</v>
       </c>
-      <c r="R5" s="22">
+      <c r="R5" s="20">
         <v>594.62234899999999</v>
       </c>
-      <c r="S5" s="22">
+      <c r="S5" s="20">
         <v>22.264320000000001</v>
       </c>
-      <c r="T5" s="22">
+      <c r="T5" s="20">
         <v>53.628442</v>
       </c>
       <c r="U5" s="8">
@@ -5973,75 +6175,87 @@
       <c r="Y5" s="8">
         <v>61585103</v>
       </c>
-      <c r="Z5" s="8"/>
-      <c r="AA5" s="26"/>
-      <c r="AB5" s="26"/>
-      <c r="AC5" s="26"/>
-      <c r="AD5" s="26"/>
-      <c r="AE5" s="26"/>
-      <c r="AF5" s="27">
+      <c r="Z5" s="15">
+        <v>0.17524999999999999</v>
+      </c>
+      <c r="AA5" s="29">
+        <v>13255.000370420001</v>
+      </c>
+      <c r="AB5" s="29">
+        <v>417249.16860536003</v>
+      </c>
+      <c r="AC5" s="29">
+        <v>110954.05912273</v>
+      </c>
+      <c r="AD5" s="29">
+        <v>342176.34958574001</v>
+      </c>
+      <c r="AE5" s="29">
+        <v>10</v>
+      </c>
+      <c r="AF5" s="23">
         <v>180611.80600000001</v>
       </c>
     </row>
     <row r="6" spans="1:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B6" s="20">
         <v>1738.973389</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="20">
         <v>18.169377000000001</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="20">
         <v>2775.66986</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="20">
         <v>310.67528499999997</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="20">
         <v>26.850345999999998</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G6" s="20">
         <v>240.759815</v>
       </c>
-      <c r="H6" s="22">
+      <c r="H6" s="20">
         <v>1607.2854609999999</v>
       </c>
-      <c r="I6" s="22">
+      <c r="I6" s="20">
         <v>736.278279</v>
       </c>
-      <c r="J6" s="22">
+      <c r="J6" s="20">
         <v>63.183245999999997</v>
       </c>
-      <c r="K6" s="22">
+      <c r="K6" s="20">
         <v>98.627150999999998</v>
       </c>
-      <c r="L6" s="22">
+      <c r="L6" s="20">
         <v>384.46262300000001</v>
       </c>
-      <c r="M6" s="22">
+      <c r="M6" s="20">
         <v>725.96368500000005</v>
       </c>
-      <c r="N6" s="22">
+      <c r="N6" s="20">
         <v>0.60951299999999997</v>
       </c>
-      <c r="O6" s="22">
+      <c r="O6" s="20">
         <v>3.288818</v>
       </c>
-      <c r="P6" s="22">
+      <c r="P6" s="20">
         <v>695.04029500000001</v>
       </c>
-      <c r="Q6" s="22">
+      <c r="Q6" s="20">
         <v>927.37326499999995</v>
       </c>
-      <c r="R6" s="22">
+      <c r="R6" s="20">
         <v>619.26658799999996</v>
       </c>
-      <c r="S6" s="22">
+      <c r="S6" s="20">
         <v>24.707350999999999</v>
       </c>
-      <c r="T6" s="22">
+      <c r="T6" s="20">
         <v>57.101004000000003</v>
       </c>
       <c r="U6" s="8">
@@ -6062,74 +6276,84 @@
       <c r="Z6" s="8">
         <v>0.24836</v>
       </c>
-      <c r="AA6" s="26"/>
-      <c r="AB6" s="26"/>
-      <c r="AC6" s="26"/>
-      <c r="AD6" s="26"/>
-      <c r="AE6" s="26"/>
-      <c r="AF6" s="27">
+      <c r="AA6" s="29">
+        <v>13473.896445619999</v>
+      </c>
+      <c r="AB6" s="29">
+        <v>419667.85627753002</v>
+      </c>
+      <c r="AC6" s="29">
+        <v>110965.43799823</v>
+      </c>
+      <c r="AD6" s="29">
+        <v>342136.11964269</v>
+      </c>
+      <c r="AE6" s="29">
+        <v>10</v>
+      </c>
+      <c r="AF6" s="23">
         <v>189856.70600000001</v>
       </c>
     </row>
     <row r="7" spans="1:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="22">
+      <c r="B7" s="20">
         <v>2041.548117</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="20">
         <v>15.352669000000001</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="20">
         <v>3129.051723</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="20">
         <v>332.91534999999999</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="20">
         <v>42.477141000000003</v>
       </c>
-      <c r="G7" s="22">
+      <c r="G7" s="20">
         <v>301.09201899999999</v>
       </c>
-      <c r="H7" s="22">
+      <c r="H7" s="20">
         <v>1620.9961249999999</v>
       </c>
-      <c r="I7" s="22">
+      <c r="I7" s="20">
         <v>712.62413300000003</v>
       </c>
-      <c r="J7" s="22">
+      <c r="J7" s="20">
         <v>74.348899000000003</v>
       </c>
-      <c r="K7" s="22">
+      <c r="K7" s="20">
         <v>106.625631</v>
       </c>
-      <c r="L7" s="22">
+      <c r="L7" s="20">
         <v>395.23318799999998</v>
       </c>
-      <c r="M7" s="22">
+      <c r="M7" s="20">
         <v>742.800749</v>
       </c>
-      <c r="N7" s="22">
+      <c r="N7" s="20">
         <v>0.60637799999999997</v>
       </c>
-      <c r="O7" s="22">
+      <c r="O7" s="20">
         <v>4.1493120000000001</v>
       </c>
-      <c r="P7" s="22">
+      <c r="P7" s="20">
         <v>948.84756400000003</v>
       </c>
-      <c r="Q7" s="22">
+      <c r="Q7" s="20">
         <v>943.03179799999998</v>
       </c>
-      <c r="R7" s="22">
+      <c r="R7" s="20">
         <v>653.29269799999997</v>
       </c>
-      <c r="S7" s="22">
+      <c r="S7" s="20">
         <v>25.586758</v>
       </c>
-      <c r="T7" s="22">
+      <c r="T7" s="20">
         <v>56.653778000000003</v>
       </c>
       <c r="U7" s="8">
@@ -6150,74 +6374,84 @@
       <c r="Z7" s="8">
         <v>0.24471000000000001</v>
       </c>
-      <c r="AA7" s="26"/>
-      <c r="AB7" s="26"/>
-      <c r="AC7" s="26"/>
-      <c r="AD7" s="26"/>
-      <c r="AE7" s="26"/>
-      <c r="AF7" s="27">
+      <c r="AA7" s="29">
+        <v>14167.29523052</v>
+      </c>
+      <c r="AB7" s="29">
+        <v>427329.55186260998</v>
+      </c>
+      <c r="AC7" s="29">
+        <v>111001.4829499</v>
+      </c>
+      <c r="AD7" s="29">
+        <v>342008.68294194998</v>
+      </c>
+      <c r="AE7" s="29">
+        <v>9</v>
+      </c>
+      <c r="AF7" s="23">
         <v>219141.84700000001</v>
       </c>
     </row>
     <row r="8" spans="1:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="22">
+      <c r="B8" s="20">
         <v>1900.398244</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="20">
         <v>16.256768999999998</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="20">
         <v>3458.696101</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="20">
         <v>325.463302</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="20">
         <v>38.342888000000002</v>
       </c>
-      <c r="G8" s="22">
+      <c r="G8" s="20">
         <v>234.134117</v>
       </c>
-      <c r="H8" s="22">
+      <c r="H8" s="20">
         <v>1515.208091</v>
       </c>
-      <c r="I8" s="22">
+      <c r="I8" s="20">
         <v>657.05397200000004</v>
       </c>
-      <c r="J8" s="22">
+      <c r="J8" s="20">
         <v>82.619238999999993</v>
       </c>
-      <c r="K8" s="22">
+      <c r="K8" s="20">
         <v>145.250597</v>
       </c>
-      <c r="L8" s="22">
+      <c r="L8" s="20">
         <v>383.89962400000002</v>
       </c>
-      <c r="M8" s="22">
+      <c r="M8" s="20">
         <v>709.50090399999999</v>
       </c>
-      <c r="N8" s="22">
+      <c r="N8" s="20">
         <v>0.60765899999999995</v>
       </c>
-      <c r="O8" s="22">
+      <c r="O8" s="20">
         <v>4.7204670000000002</v>
       </c>
-      <c r="P8" s="22">
+      <c r="P8" s="20">
         <v>878.03489200000001</v>
       </c>
-      <c r="Q8" s="22">
+      <c r="Q8" s="20">
         <v>948.91436699999997</v>
       </c>
-      <c r="R8" s="22">
+      <c r="R8" s="20">
         <v>745.83059600000001</v>
       </c>
-      <c r="S8" s="22">
+      <c r="S8" s="20">
         <v>26.149242000000001</v>
       </c>
-      <c r="T8" s="22">
+      <c r="T8" s="20">
         <v>54.888973999999997</v>
       </c>
       <c r="U8" s="8">
@@ -6238,74 +6472,84 @@
       <c r="Z8" s="8">
         <v>0.25230999999999998</v>
       </c>
-      <c r="AA8" s="26"/>
-      <c r="AB8" s="26"/>
-      <c r="AC8" s="26"/>
-      <c r="AD8" s="26"/>
-      <c r="AE8" s="26"/>
-      <c r="AF8" s="27">
+      <c r="AA8" s="29">
+        <v>14165.371315640001</v>
+      </c>
+      <c r="AB8" s="29">
+        <v>427308.29360489</v>
+      </c>
+      <c r="AC8" s="29">
+        <v>111001.38293902</v>
+      </c>
+      <c r="AD8" s="29">
+        <v>342009.03652977</v>
+      </c>
+      <c r="AE8" s="29">
+        <v>9</v>
+      </c>
+      <c r="AF8" s="23">
         <v>219060.592</v>
       </c>
     </row>
     <row r="9" spans="1:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="24">
+      <c r="B9" s="22">
         <v>1951.4735659999999</v>
       </c>
-      <c r="C9" s="24">
+      <c r="C9" s="22">
         <v>14.873887</v>
       </c>
-      <c r="D9" s="24">
+      <c r="D9" s="22">
         <v>3567.4072590000001</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="22">
         <v>330.52504599999997</v>
       </c>
-      <c r="F9" s="24">
+      <c r="F9" s="22">
         <v>26.335972000000002</v>
       </c>
-      <c r="G9" s="24">
+      <c r="G9" s="22">
         <v>375.039221</v>
       </c>
-      <c r="H9" s="24">
+      <c r="H9" s="22">
         <v>1543.583746</v>
       </c>
-      <c r="I9" s="24">
+      <c r="I9" s="22">
         <v>660.09715600000004</v>
       </c>
-      <c r="J9" s="24">
+      <c r="J9" s="22">
         <v>71.461164999999994</v>
       </c>
-      <c r="K9" s="24">
+      <c r="K9" s="22">
         <v>165.947248</v>
       </c>
-      <c r="L9" s="24">
+      <c r="L9" s="22">
         <v>473.92343899999997</v>
       </c>
-      <c r="M9" s="24">
+      <c r="M9" s="22">
         <v>772.88371800000004</v>
       </c>
-      <c r="N9" s="24">
+      <c r="N9" s="22">
         <v>1.1702600000000001</v>
       </c>
-      <c r="O9" s="24">
+      <c r="O9" s="22">
         <v>16.565521</v>
       </c>
-      <c r="P9" s="24">
+      <c r="P9" s="22">
         <v>948.82965899999999</v>
       </c>
-      <c r="Q9" s="24">
+      <c r="Q9" s="22">
         <v>987.87709600000005</v>
       </c>
-      <c r="R9" s="24">
+      <c r="R9" s="22">
         <v>752.23300099999994</v>
       </c>
-      <c r="S9" s="24">
+      <c r="S9" s="22">
         <v>26.388508000000002</v>
       </c>
-      <c r="T9" s="24">
+      <c r="T9" s="22">
         <v>72.981699000000006</v>
       </c>
       <c r="U9" s="8">
@@ -6326,74 +6570,84 @@
       <c r="Z9" s="8">
         <v>0.23055</v>
       </c>
-      <c r="AA9" s="26"/>
-      <c r="AB9" s="26"/>
-      <c r="AC9" s="26"/>
-      <c r="AD9" s="26"/>
-      <c r="AE9" s="26"/>
-      <c r="AF9" s="28">
+      <c r="AA9" s="29">
+        <v>14450.966894769999</v>
+      </c>
+      <c r="AB9" s="29">
+        <v>430463.97607122001</v>
+      </c>
+      <c r="AC9" s="29">
+        <v>111016.2290551</v>
+      </c>
+      <c r="AD9" s="29">
+        <v>341956.54817943001</v>
+      </c>
+      <c r="AE9" s="29">
+        <v>9</v>
+      </c>
+      <c r="AF9" s="24">
         <v>231122.49200000003</v>
       </c>
     </row>
     <row r="10" spans="1:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="24">
+      <c r="B10" s="22">
         <v>2330.5766400000002</v>
       </c>
-      <c r="C10" s="24">
+      <c r="C10" s="22">
         <v>14.910602000000001</v>
       </c>
-      <c r="D10" s="24">
+      <c r="D10" s="22">
         <v>4839.2156080000004</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="22">
         <v>370.27648900000003</v>
       </c>
-      <c r="F10" s="24">
+      <c r="F10" s="22">
         <v>30.488796000000001</v>
       </c>
-      <c r="G10" s="24">
+      <c r="G10" s="22">
         <v>309.378895</v>
       </c>
-      <c r="H10" s="24">
+      <c r="H10" s="22">
         <v>1630.0828509999999</v>
       </c>
-      <c r="I10" s="24">
+      <c r="I10" s="22">
         <v>569.15611100000001</v>
       </c>
-      <c r="J10" s="24">
+      <c r="J10" s="22">
         <v>92.557047999999995</v>
       </c>
-      <c r="K10" s="24">
+      <c r="K10" s="22">
         <v>187.39382599999999</v>
       </c>
-      <c r="L10" s="24">
+      <c r="L10" s="22">
         <v>490.97785399999998</v>
       </c>
-      <c r="M10" s="24">
+      <c r="M10" s="22">
         <v>808.48991599999999</v>
       </c>
-      <c r="N10" s="24">
+      <c r="N10" s="22">
         <v>1.565585</v>
       </c>
-      <c r="O10" s="24">
+      <c r="O10" s="22">
         <v>18.173078</v>
       </c>
-      <c r="P10" s="24">
+      <c r="P10" s="22">
         <v>984.15137300000004</v>
       </c>
-      <c r="Q10" s="24">
+      <c r="Q10" s="22">
         <v>1040.789117</v>
       </c>
-      <c r="R10" s="24">
+      <c r="R10" s="22">
         <v>626.55416700000001</v>
       </c>
-      <c r="S10" s="24">
+      <c r="S10" s="22">
         <v>42.985919000000003</v>
       </c>
-      <c r="T10" s="24">
+      <c r="T10" s="22">
         <v>80.332272000000003</v>
       </c>
       <c r="U10" s="8">
@@ -6414,74 +6668,84 @@
       <c r="Z10" s="8">
         <v>0.24534</v>
       </c>
-      <c r="AA10" s="26"/>
-      <c r="AB10" s="26"/>
-      <c r="AC10" s="26"/>
-      <c r="AD10" s="26"/>
-      <c r="AE10" s="26"/>
-      <c r="AF10" s="29">
+      <c r="AA10" s="29">
+        <v>15057.59874089</v>
+      </c>
+      <c r="AB10" s="29">
+        <v>437166.94215433003</v>
+      </c>
+      <c r="AC10" s="29">
+        <v>111047.76360065999</v>
+      </c>
+      <c r="AD10" s="29">
+        <v>341845.05799121998</v>
+      </c>
+      <c r="AE10" s="29">
+        <v>9</v>
+      </c>
+      <c r="AF10" s="25">
         <v>256743.10100000002</v>
       </c>
     </row>
     <row r="11" spans="1:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="24">
+      <c r="B11" s="22">
         <v>2726.8671509999999</v>
       </c>
-      <c r="C11" s="24">
+      <c r="C11" s="22">
         <v>15.203193000000001</v>
       </c>
-      <c r="D11" s="24">
+      <c r="D11" s="22">
         <v>5165.4480129999993</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="22">
         <v>424.47723500000001</v>
       </c>
-      <c r="F11" s="24">
+      <c r="F11" s="22">
         <v>33.970981000000002</v>
       </c>
-      <c r="G11" s="24">
+      <c r="G11" s="22">
         <v>400.19775600000003</v>
       </c>
-      <c r="H11" s="24">
+      <c r="H11" s="22">
         <v>1763.609616</v>
       </c>
-      <c r="I11" s="24">
+      <c r="I11" s="22">
         <v>607.83936200000005</v>
       </c>
-      <c r="J11" s="24">
+      <c r="J11" s="22">
         <v>118.79088299999999</v>
       </c>
-      <c r="K11" s="24">
+      <c r="K11" s="22">
         <v>189.10605200000001</v>
       </c>
-      <c r="L11" s="24">
+      <c r="L11" s="22">
         <v>554.22479299999998</v>
       </c>
-      <c r="M11" s="24">
+      <c r="M11" s="22">
         <v>813.69758200000001</v>
       </c>
-      <c r="N11" s="24">
+      <c r="N11" s="22">
         <v>1.3158939999999999</v>
       </c>
-      <c r="O11" s="24">
+      <c r="O11" s="22">
         <v>22.523520999999999</v>
       </c>
-      <c r="P11" s="24">
+      <c r="P11" s="22">
         <v>1060.1517759999999</v>
       </c>
-      <c r="Q11" s="24">
+      <c r="Q11" s="22">
         <v>1174.1039539999999</v>
       </c>
-      <c r="R11" s="24">
+      <c r="R11" s="22">
         <v>677.19379800000002</v>
       </c>
-      <c r="S11" s="24">
+      <c r="S11" s="22">
         <v>78.540615000000003</v>
       </c>
-      <c r="T11" s="24">
+      <c r="T11" s="22">
         <v>65.172888999999998</v>
       </c>
       <c r="U11" s="8">
@@ -6502,74 +6766,84 @@
       <c r="Z11" s="8">
         <v>0.23827999999999999</v>
       </c>
-      <c r="AA11" s="26"/>
-      <c r="AB11" s="26"/>
-      <c r="AC11" s="26"/>
-      <c r="AD11" s="26"/>
-      <c r="AE11" s="26"/>
-      <c r="AF11" s="29">
+      <c r="AA11" s="29">
+        <v>15413.28245234</v>
+      </c>
+      <c r="AB11" s="29">
+        <v>441097.06199448998</v>
+      </c>
+      <c r="AC11" s="29">
+        <v>111066.25310838</v>
+      </c>
+      <c r="AD11" s="29">
+        <v>341779.68845254002</v>
+      </c>
+      <c r="AE11" s="29">
+        <v>9</v>
+      </c>
+      <c r="AF11" s="25">
         <v>271765.11700000003</v>
       </c>
     </row>
     <row r="12" spans="1:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="24">
+      <c r="B12" s="22">
         <v>2950.9067839999998</v>
       </c>
-      <c r="C12" s="24">
+      <c r="C12" s="22">
         <v>12.557382</v>
       </c>
-      <c r="D12" s="24">
+      <c r="D12" s="22">
         <v>5243.3079740000003</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="22">
         <v>510.371306</v>
       </c>
-      <c r="F12" s="24">
+      <c r="F12" s="22">
         <v>53.111646</v>
       </c>
-      <c r="G12" s="24">
+      <c r="G12" s="22">
         <v>424.87431099999998</v>
       </c>
-      <c r="H12" s="24">
+      <c r="H12" s="22">
         <v>1922.678934</v>
       </c>
-      <c r="I12" s="24">
+      <c r="I12" s="22">
         <v>618.82910400000003</v>
       </c>
-      <c r="J12" s="24">
+      <c r="J12" s="22">
         <v>109.01724900000001</v>
       </c>
-      <c r="K12" s="24">
+      <c r="K12" s="22">
         <v>186.14523299999999</v>
       </c>
-      <c r="L12" s="24">
+      <c r="L12" s="22">
         <v>713.48042199999998</v>
       </c>
-      <c r="M12" s="24">
+      <c r="M12" s="22">
         <v>829.24437399999999</v>
       </c>
-      <c r="N12" s="24">
+      <c r="N12" s="22">
         <v>0.97226699999999999</v>
       </c>
-      <c r="O12" s="24">
+      <c r="O12" s="22">
         <v>23.076566</v>
       </c>
-      <c r="P12" s="24">
+      <c r="P12" s="22">
         <v>1221.0411810000001</v>
       </c>
-      <c r="Q12" s="24">
+      <c r="Q12" s="22">
         <v>1356.7399620000001</v>
       </c>
-      <c r="R12" s="24">
+      <c r="R12" s="22">
         <v>727.259995</v>
       </c>
-      <c r="S12" s="24">
+      <c r="S12" s="22">
         <v>101.717376</v>
       </c>
-      <c r="T12" s="24">
+      <c r="T12" s="22">
         <v>103.703924</v>
       </c>
       <c r="U12" s="8">
@@ -6590,74 +6864,84 @@
       <c r="Z12" s="8">
         <v>0.21889</v>
       </c>
-      <c r="AA12" s="26"/>
-      <c r="AB12" s="26"/>
-      <c r="AC12" s="26"/>
-      <c r="AD12" s="26"/>
-      <c r="AE12" s="26"/>
-      <c r="AF12" s="29">
+      <c r="AA12" s="29">
+        <v>15460.040604080001</v>
+      </c>
+      <c r="AB12" s="29">
+        <v>441613.71522861999</v>
+      </c>
+      <c r="AC12" s="29">
+        <v>111068.68373756</v>
+      </c>
+      <c r="AD12" s="29">
+        <v>341771.09497830999</v>
+      </c>
+      <c r="AE12" s="29">
+        <v>9</v>
+      </c>
+      <c r="AF12" s="25">
         <v>273739.91000000003</v>
       </c>
     </row>
     <row r="13" spans="1:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="24">
+      <c r="B13" s="22">
         <v>3119.9154859999999</v>
       </c>
-      <c r="C13" s="24">
+      <c r="C13" s="22">
         <v>60.508246</v>
       </c>
-      <c r="D13" s="24">
+      <c r="D13" s="22">
         <v>5882.1478870000001</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13" s="22">
         <v>552.83233499999994</v>
       </c>
-      <c r="F13" s="24">
+      <c r="F13" s="22">
         <v>53.828200000000002</v>
       </c>
-      <c r="G13" s="24">
+      <c r="G13" s="22">
         <v>550.64190699999995</v>
       </c>
-      <c r="H13" s="24">
+      <c r="H13" s="22">
         <v>2024.0927489999999</v>
       </c>
-      <c r="I13" s="24">
+      <c r="I13" s="22">
         <v>656.589967</v>
       </c>
-      <c r="J13" s="24">
+      <c r="J13" s="22">
         <v>95.453866000000005</v>
       </c>
-      <c r="K13" s="24">
+      <c r="K13" s="22">
         <v>182.891437</v>
       </c>
-      <c r="L13" s="24">
+      <c r="L13" s="22">
         <v>924.072138</v>
       </c>
-      <c r="M13" s="24">
+      <c r="M13" s="22">
         <v>883.39262299999996</v>
       </c>
-      <c r="N13" s="24">
+      <c r="N13" s="22">
         <v>0.85654699999999995</v>
       </c>
-      <c r="O13" s="24">
+      <c r="O13" s="22">
         <v>27.909994000000001</v>
       </c>
-      <c r="P13" s="24">
+      <c r="P13" s="22">
         <v>1259.986568</v>
       </c>
-      <c r="Q13" s="24">
+      <c r="Q13" s="22">
         <v>1454.1966460000001</v>
       </c>
-      <c r="R13" s="24">
+      <c r="R13" s="22">
         <v>709.93198500000005</v>
       </c>
-      <c r="S13" s="24">
+      <c r="S13" s="22">
         <v>90.137845999999996</v>
       </c>
-      <c r="T13" s="24">
+      <c r="T13" s="22">
         <v>108.28717899999999</v>
       </c>
       <c r="U13" s="8">
@@ -6678,76 +6962,84 @@
       <c r="Z13" s="8">
         <v>0.23271</v>
       </c>
-      <c r="AA13" s="30">
+      <c r="AA13" s="11">
         <v>16209</v>
       </c>
-      <c r="AB13" s="26"/>
-      <c r="AC13" s="26"/>
-      <c r="AD13" s="26"/>
-      <c r="AE13" s="26"/>
-      <c r="AF13" s="29">
+      <c r="AB13" s="29">
+        <v>448210.39237775002</v>
+      </c>
+      <c r="AC13" s="29">
+        <v>111099.71823981999</v>
+      </c>
+      <c r="AD13" s="29">
+        <v>341661.37269003002</v>
+      </c>
+      <c r="AE13" s="29">
+        <v>8</v>
+      </c>
+      <c r="AF13" s="25">
         <v>298954.25300000003</v>
       </c>
     </row>
     <row r="14" spans="1:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="24">
+      <c r="B14" s="22">
         <v>3684.521788</v>
       </c>
-      <c r="C14" s="24">
+      <c r="C14" s="22">
         <v>59.214776000000001</v>
       </c>
-      <c r="D14" s="24">
+      <c r="D14" s="22">
         <v>6332.3594649999995</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E14" s="22">
         <v>546.26774699999999</v>
       </c>
-      <c r="F14" s="24">
+      <c r="F14" s="22">
         <v>36.663021999999998</v>
       </c>
-      <c r="G14" s="24">
+      <c r="G14" s="22">
         <v>690.54012</v>
       </c>
-      <c r="H14" s="24">
+      <c r="H14" s="22">
         <v>2290.930492</v>
       </c>
-      <c r="I14" s="24">
+      <c r="I14" s="22">
         <v>670.68351500000006</v>
       </c>
-      <c r="J14" s="24">
+      <c r="J14" s="22">
         <v>96.333707000000004</v>
       </c>
-      <c r="K14" s="24">
+      <c r="K14" s="22">
         <v>166.212996</v>
       </c>
-      <c r="L14" s="24">
+      <c r="L14" s="22">
         <v>927.90794700000004</v>
       </c>
-      <c r="M14" s="24">
+      <c r="M14" s="22">
         <v>974.31660999999997</v>
       </c>
-      <c r="N14" s="24">
+      <c r="N14" s="22">
         <v>0.86802400000000002</v>
       </c>
-      <c r="O14" s="24">
+      <c r="O14" s="22">
         <v>32.106999000000002</v>
       </c>
-      <c r="P14" s="24">
+      <c r="P14" s="22">
         <v>1065.940004</v>
       </c>
-      <c r="Q14" s="24">
+      <c r="Q14" s="22">
         <v>1602.2972890000001</v>
       </c>
-      <c r="R14" s="24">
+      <c r="R14" s="22">
         <v>738.99451799999997</v>
       </c>
-      <c r="S14" s="24">
+      <c r="S14" s="22">
         <v>46.845740999999997</v>
       </c>
-      <c r="T14" s="24">
+      <c r="T14" s="22">
         <v>113.45966199999999</v>
       </c>
       <c r="U14" s="8">
@@ -6768,76 +7060,84 @@
       <c r="Z14" s="8">
         <v>0.20080000000000001</v>
       </c>
-      <c r="AA14" s="30">
+      <c r="AA14" s="11">
         <v>14988</v>
       </c>
-      <c r="AB14" s="26"/>
-      <c r="AC14" s="26"/>
-      <c r="AD14" s="26"/>
-      <c r="AE14" s="26"/>
-      <c r="AF14" s="29">
+      <c r="AB14" s="29">
+        <v>458947.21692431002</v>
+      </c>
+      <c r="AC14" s="29">
+        <v>111150.23033829</v>
+      </c>
+      <c r="AD14" s="29">
+        <v>341482.78748242999</v>
+      </c>
+      <c r="AE14" s="29">
+        <v>8</v>
+      </c>
+      <c r="AF14" s="25">
         <v>339993.39600000001</v>
       </c>
     </row>
     <row r="15" spans="1:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="24">
+      <c r="B15" s="22">
         <v>5248.6923790000001</v>
       </c>
-      <c r="C15" s="24">
+      <c r="C15" s="22">
         <v>57.911354000000003</v>
       </c>
-      <c r="D15" s="24">
+      <c r="D15" s="22">
         <v>7225.1302369999994</v>
       </c>
-      <c r="E15" s="24">
+      <c r="E15" s="22">
         <v>540.34763099999998</v>
       </c>
-      <c r="F15" s="24">
+      <c r="F15" s="22">
         <v>39.591146999999999</v>
       </c>
-      <c r="G15" s="24">
+      <c r="G15" s="22">
         <v>585.78157899999997</v>
       </c>
-      <c r="H15" s="24">
+      <c r="H15" s="22">
         <v>2520.3690270000002</v>
       </c>
-      <c r="I15" s="24">
+      <c r="I15" s="22">
         <v>690.23718499999995</v>
       </c>
-      <c r="J15" s="24">
+      <c r="J15" s="22">
         <v>103.75981899999999</v>
       </c>
-      <c r="K15" s="24">
+      <c r="K15" s="22">
         <v>172.64999800000001</v>
       </c>
-      <c r="L15" s="24">
+      <c r="L15" s="22">
         <v>851.115769</v>
       </c>
-      <c r="M15" s="24">
+      <c r="M15" s="22">
         <v>817.94337199999995</v>
       </c>
-      <c r="N15" s="24">
+      <c r="N15" s="22">
         <v>1.1866460000000001</v>
       </c>
-      <c r="O15" s="24">
+      <c r="O15" s="22">
         <v>39.980524000000003</v>
       </c>
-      <c r="P15" s="24">
+      <c r="P15" s="22">
         <v>905.18195000000003</v>
       </c>
-      <c r="Q15" s="24">
+      <c r="Q15" s="22">
         <v>1676.344554</v>
       </c>
-      <c r="R15" s="24">
+      <c r="R15" s="22">
         <v>801.08351500000003</v>
       </c>
-      <c r="S15" s="24">
+      <c r="S15" s="22">
         <v>43.844423999999997</v>
       </c>
-      <c r="T15" s="24">
+      <c r="T15" s="22">
         <v>135.29069200000001</v>
       </c>
       <c r="U15" s="8">
@@ -6858,76 +7158,84 @@
       <c r="Z15" s="8">
         <v>0.20330999999999999</v>
       </c>
-      <c r="AA15" s="30">
+      <c r="AA15" s="11">
         <v>13792</v>
       </c>
-      <c r="AB15" s="26"/>
-      <c r="AC15" s="26"/>
-      <c r="AD15" s="26"/>
-      <c r="AE15" s="26"/>
-      <c r="AF15" s="29">
+      <c r="AB15" s="29">
+        <v>484733.41394755</v>
+      </c>
+      <c r="AC15" s="29">
+        <v>111271.54320109</v>
+      </c>
+      <c r="AD15" s="29">
+        <v>341053.88661620999</v>
+      </c>
+      <c r="AE15" s="29">
+        <v>7</v>
+      </c>
+      <c r="AF15" s="25">
         <v>438555.44500000001</v>
       </c>
     </row>
     <row r="16" spans="1:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="24">
+      <c r="B16" s="22">
         <v>4423.0372029999999</v>
       </c>
-      <c r="C16" s="24">
+      <c r="C16" s="22">
         <v>54.023598</v>
       </c>
-      <c r="D16" s="24">
+      <c r="D16" s="22">
         <v>8422.3229389999997</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E16" s="22">
         <v>668.30098099999998</v>
       </c>
-      <c r="F16" s="24">
+      <c r="F16" s="22">
         <v>46.478808999999998</v>
       </c>
-      <c r="G16" s="24">
+      <c r="G16" s="22">
         <v>648.09115999999995</v>
       </c>
-      <c r="H16" s="24">
+      <c r="H16" s="22">
         <v>2695.278182</v>
       </c>
-      <c r="I16" s="24">
+      <c r="I16" s="22">
         <v>716.813804</v>
       </c>
-      <c r="J16" s="24">
+      <c r="J16" s="22">
         <v>109.22230500000001</v>
       </c>
-      <c r="K16" s="24">
+      <c r="K16" s="22">
         <v>171.15072799999999</v>
       </c>
-      <c r="L16" s="24">
+      <c r="L16" s="22">
         <v>849.32515100000001</v>
       </c>
-      <c r="M16" s="24">
+      <c r="M16" s="22">
         <v>840.13249800000006</v>
       </c>
-      <c r="N16" s="24">
+      <c r="N16" s="22">
         <v>1.5403530000000001</v>
       </c>
-      <c r="O16" s="24">
+      <c r="O16" s="22">
         <v>54.571458</v>
       </c>
-      <c r="P16" s="24">
+      <c r="P16" s="22">
         <v>947.71603800000003</v>
       </c>
-      <c r="Q16" s="24">
+      <c r="Q16" s="22">
         <v>1759.303228</v>
       </c>
-      <c r="R16" s="24">
+      <c r="R16" s="22">
         <v>808.75316199999997</v>
       </c>
-      <c r="S16" s="24">
+      <c r="S16" s="22">
         <v>41.556705999999998</v>
       </c>
-      <c r="T16" s="24">
+      <c r="T16" s="22">
         <v>152.986143</v>
       </c>
       <c r="U16" s="8">
@@ -6948,76 +7256,84 @@
       <c r="Z16" s="8">
         <v>0.23455000000000001</v>
       </c>
-      <c r="AA16" s="30">
+      <c r="AA16" s="11">
         <v>17787</v>
       </c>
-      <c r="AB16" s="26"/>
-      <c r="AC16" s="26"/>
-      <c r="AD16" s="26"/>
-      <c r="AE16" s="26"/>
-      <c r="AF16" s="29">
+      <c r="AB16" s="29">
+        <v>469324.37074414</v>
+      </c>
+      <c r="AC16" s="29">
+        <v>111199.05034212999</v>
+      </c>
+      <c r="AD16" s="29">
+        <v>341310.18466480001</v>
+      </c>
+      <c r="AE16" s="29">
+        <v>7</v>
+      </c>
+      <c r="AF16" s="25">
         <v>379657.777</v>
       </c>
     </row>
     <row r="17" spans="1:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="24">
+      <c r="B17" s="22">
         <v>3240.6692849999999</v>
       </c>
-      <c r="C17" s="24">
+      <c r="C17" s="22">
         <v>55.520870000000002</v>
       </c>
-      <c r="D17" s="24">
+      <c r="D17" s="22">
         <v>9837.9356079999998</v>
       </c>
-      <c r="E17" s="24">
+      <c r="E17" s="22">
         <v>705.67134499999997</v>
       </c>
-      <c r="F17" s="24">
+      <c r="F17" s="22">
         <v>45.349361999999999</v>
       </c>
-      <c r="G17" s="24">
+      <c r="G17" s="22">
         <v>555.43018800000004</v>
       </c>
-      <c r="H17" s="24">
+      <c r="H17" s="22">
         <v>2495.0958989999999</v>
       </c>
-      <c r="I17" s="24">
+      <c r="I17" s="22">
         <v>632.52622399999996</v>
       </c>
-      <c r="J17" s="24">
+      <c r="J17" s="22">
         <v>115.228942</v>
       </c>
-      <c r="K17" s="24">
+      <c r="K17" s="22">
         <v>182.46911399999999</v>
       </c>
-      <c r="L17" s="24">
+      <c r="L17" s="22">
         <v>847.77004399999998</v>
       </c>
-      <c r="M17" s="24">
+      <c r="M17" s="22">
         <v>778.186868</v>
       </c>
-      <c r="N17" s="24">
+      <c r="N17" s="22">
         <v>3.4486119999999998</v>
       </c>
-      <c r="O17" s="24">
+      <c r="O17" s="22">
         <v>53.166648000000002</v>
       </c>
-      <c r="P17" s="24">
+      <c r="P17" s="22">
         <v>997.59863900000005</v>
       </c>
-      <c r="Q17" s="24">
+      <c r="Q17" s="22">
         <v>1842.9994019999999</v>
       </c>
-      <c r="R17" s="24">
+      <c r="R17" s="22">
         <v>775.93738099999996</v>
       </c>
-      <c r="S17" s="24">
+      <c r="S17" s="22">
         <v>55.826607000000003</v>
       </c>
-      <c r="T17" s="24">
+      <c r="T17" s="22">
         <v>133.997028</v>
       </c>
       <c r="U17" s="8">
@@ -7035,83 +7351,87 @@
       <c r="Y17" s="8">
         <v>67195032</v>
       </c>
-      <c r="Z17" s="8"/>
-      <c r="AA17" s="30">
+      <c r="Z17" s="15">
+        <v>0.29800500000000002</v>
+      </c>
+      <c r="AA17" s="11">
         <v>15643</v>
       </c>
-      <c r="AB17" s="31">
+      <c r="AB17" s="30">
         <v>449686</v>
       </c>
-      <c r="AC17" s="18">
-        <v>130915</v>
-      </c>
-      <c r="AD17" s="18">
-        <v>1266</v>
-      </c>
-      <c r="AE17" s="26"/>
-      <c r="AF17" s="29">
+      <c r="AC17" s="28">
+        <v>105867</v>
+      </c>
+      <c r="AD17" s="28">
+        <v>313067</v>
+      </c>
+      <c r="AE17" s="29">
+        <v>7</v>
+      </c>
+      <c r="AF17" s="25">
         <v>427733.43600000005</v>
       </c>
     </row>
     <row r="18" spans="1:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="22">
+      <c r="B18" s="20">
         <v>3576.782068</v>
       </c>
-      <c r="C18" s="22">
+      <c r="C18" s="20">
         <v>62.032474999999998</v>
       </c>
-      <c r="D18" s="22">
+      <c r="D18" s="20">
         <v>9922.8362519999991</v>
       </c>
-      <c r="E18" s="22">
+      <c r="E18" s="20">
         <v>678.20064600000001</v>
       </c>
-      <c r="F18" s="22">
+      <c r="F18" s="20">
         <v>46.650812999999999</v>
       </c>
-      <c r="G18" s="22">
+      <c r="G18" s="20">
         <v>722.41804300000001</v>
       </c>
-      <c r="H18" s="22">
+      <c r="H18" s="20">
         <v>2545.1322660000001</v>
       </c>
-      <c r="I18" s="22">
+      <c r="I18" s="20">
         <v>615.34095600000001</v>
       </c>
-      <c r="J18" s="22">
+      <c r="J18" s="20">
         <v>103.50732000000001</v>
       </c>
-      <c r="K18" s="22">
+      <c r="K18" s="20">
         <v>202.099502</v>
       </c>
-      <c r="L18" s="22">
+      <c r="L18" s="20">
         <v>901.61320999999998</v>
       </c>
-      <c r="M18" s="22">
+      <c r="M18" s="20">
         <v>748.38890700000002</v>
       </c>
-      <c r="N18" s="22">
+      <c r="N18" s="20">
         <v>2.1181559999999999</v>
       </c>
-      <c r="O18" s="22">
+      <c r="O18" s="20">
         <v>43.523842000000002</v>
       </c>
-      <c r="P18" s="22">
+      <c r="P18" s="20">
         <v>1135.2868699999999</v>
       </c>
-      <c r="Q18" s="22">
+      <c r="Q18" s="20">
         <v>2860.1228689999998</v>
       </c>
-      <c r="R18" s="22">
+      <c r="R18" s="20">
         <v>805.21874300000002</v>
       </c>
-      <c r="S18" s="22">
+      <c r="S18" s="20">
         <v>66.669128999999998</v>
       </c>
-      <c r="T18" s="22">
+      <c r="T18" s="20">
         <v>177.54431600000001</v>
       </c>
       <c r="U18" s="8">
@@ -7132,84 +7452,84 @@
       <c r="Z18" s="8">
         <v>0.36146</v>
       </c>
-      <c r="AA18" s="32">
+      <c r="AA18" s="13">
         <v>19207.099999999999</v>
       </c>
-      <c r="AB18" s="31">
+      <c r="AB18" s="30">
         <v>449681</v>
       </c>
-      <c r="AC18" s="18">
-        <v>113017</v>
-      </c>
-      <c r="AD18" s="33">
-        <v>932</v>
-      </c>
-      <c r="AE18" s="34">
+      <c r="AC18" s="28">
+        <v>111656</v>
+      </c>
+      <c r="AD18" s="28">
+        <v>344589</v>
+      </c>
+      <c r="AE18" s="31">
         <v>9</v>
       </c>
-      <c r="AF18" s="27">
+      <c r="AF18" s="23">
         <v>365800.94500000001</v>
       </c>
     </row>
     <row r="19" spans="1:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="22">
+      <c r="B19" s="20">
         <v>6015.3732430000009</v>
       </c>
-      <c r="C19" s="22">
+      <c r="C19" s="20">
         <v>57.633502</v>
       </c>
-      <c r="D19" s="22">
+      <c r="D19" s="20">
         <v>7715.2128599999996</v>
       </c>
-      <c r="E19" s="22">
+      <c r="E19" s="20">
         <v>763.31936199999996</v>
       </c>
-      <c r="F19" s="22">
+      <c r="F19" s="20">
         <v>49.240749999999998</v>
       </c>
-      <c r="G19" s="22">
+      <c r="G19" s="20">
         <v>1474.33484</v>
       </c>
-      <c r="H19" s="22">
+      <c r="H19" s="20">
         <v>3189.9114209999998</v>
       </c>
-      <c r="I19" s="22">
+      <c r="I19" s="20">
         <v>576.95891099999994</v>
       </c>
-      <c r="J19" s="22">
+      <c r="J19" s="20">
         <v>91.249972999999997</v>
       </c>
-      <c r="K19" s="22">
+      <c r="K19" s="20">
         <v>190.75493</v>
       </c>
-      <c r="L19" s="22">
+      <c r="L19" s="20">
         <v>1033.736416</v>
       </c>
-      <c r="M19" s="22">
+      <c r="M19" s="20">
         <v>852.94688099999996</v>
       </c>
-      <c r="N19" s="22">
+      <c r="N19" s="20">
         <v>2.022383</v>
       </c>
-      <c r="O19" s="22">
+      <c r="O19" s="20">
         <v>33.090502999999998</v>
       </c>
-      <c r="P19" s="22">
+      <c r="P19" s="20">
         <v>1387.671515</v>
       </c>
-      <c r="Q19" s="22">
+      <c r="Q19" s="20">
         <v>4044.3491469999999</v>
       </c>
-      <c r="R19" s="22">
+      <c r="R19" s="20">
         <v>879.86534500000005</v>
       </c>
-      <c r="S19" s="22">
+      <c r="S19" s="20">
         <v>80.141478000000006</v>
       </c>
-      <c r="T19" s="22">
+      <c r="T19" s="20">
         <v>272.12013100000001</v>
       </c>
       <c r="U19" s="8">
@@ -7227,85 +7547,87 @@
       <c r="Y19" s="8">
         <v>67835969</v>
       </c>
-      <c r="Z19" s="8"/>
-      <c r="AA19" s="32">
+      <c r="Z19" s="15">
+        <v>0.40155000000000002</v>
+      </c>
+      <c r="AA19" s="13">
         <v>23474.62</v>
       </c>
-      <c r="AB19" s="31">
+      <c r="AB19" s="30">
         <v>492314</v>
       </c>
-      <c r="AC19" s="18">
-        <v>164531</v>
-      </c>
-      <c r="AD19" s="33">
-        <v>945</v>
-      </c>
-      <c r="AE19" s="34">
+      <c r="AC19" s="28">
+        <v>112165</v>
+      </c>
+      <c r="AD19" s="28">
+        <v>345037</v>
+      </c>
+      <c r="AE19" s="31">
         <v>6</v>
       </c>
-      <c r="AF19" s="27">
+      <c r="AF19" s="23">
         <v>378620.53700000001</v>
       </c>
     </row>
     <row r="20" spans="1:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="22">
+      <c r="B20" s="20">
         <v>5646.1184910000002</v>
       </c>
-      <c r="C20" s="22">
+      <c r="C20" s="20">
         <v>55.812863</v>
       </c>
-      <c r="D20" s="22">
+      <c r="D20" s="20">
         <v>7758.9439460000003</v>
       </c>
-      <c r="E20" s="22">
+      <c r="E20" s="20">
         <v>831.63612999999998</v>
       </c>
-      <c r="F20" s="22">
+      <c r="F20" s="20">
         <v>56.596603999999999</v>
       </c>
-      <c r="G20" s="22">
+      <c r="G20" s="20">
         <v>825.75317900000005</v>
       </c>
-      <c r="H20" s="22">
+      <c r="H20" s="20">
         <v>2924.518427</v>
       </c>
-      <c r="I20" s="22">
+      <c r="I20" s="20">
         <v>581.72520099999997</v>
       </c>
-      <c r="J20" s="22">
+      <c r="J20" s="20">
         <v>96.097821999999994</v>
       </c>
-      <c r="K20" s="22">
+      <c r="K20" s="20">
         <v>203.978049</v>
       </c>
-      <c r="L20" s="22">
+      <c r="L20" s="20">
         <v>1154.9829549999999</v>
       </c>
-      <c r="M20" s="22">
+      <c r="M20" s="20">
         <v>1026.9585729999999</v>
       </c>
-      <c r="N20" s="22">
+      <c r="N20" s="20">
         <v>1.9912879999999999</v>
       </c>
-      <c r="O20" s="22">
+      <c r="O20" s="20">
         <v>29.241012000000001</v>
       </c>
-      <c r="P20" s="22">
+      <c r="P20" s="20">
         <v>1097.0559599999999</v>
       </c>
-      <c r="Q20" s="22">
+      <c r="Q20" s="20">
         <v>4156.1298660000002</v>
       </c>
-      <c r="R20" s="22">
+      <c r="R20" s="20">
         <v>945.07603300000005</v>
       </c>
-      <c r="S20" s="22">
+      <c r="S20" s="20">
         <v>81.574973999999997</v>
       </c>
-      <c r="T20" s="22">
+      <c r="T20" s="20">
         <v>274.31893300000002</v>
       </c>
       <c r="U20" s="8">
@@ -7326,84 +7648,84 @@
       <c r="Z20" s="8">
         <v>0.44163999999999998</v>
       </c>
-      <c r="AA20" s="32">
+      <c r="AA20" s="13">
         <v>22118.2</v>
       </c>
-      <c r="AB20" s="31">
+      <c r="AB20" s="30">
         <v>491212</v>
       </c>
-      <c r="AC20" s="18">
-        <v>162999</v>
-      </c>
-      <c r="AD20" s="33">
-        <v>856</v>
-      </c>
-      <c r="AE20" s="34">
+      <c r="AC20" s="28">
+        <v>112054</v>
+      </c>
+      <c r="AD20" s="28">
+        <v>345116</v>
+      </c>
+      <c r="AE20" s="31">
         <v>8</v>
       </c>
-      <c r="AF20" s="27">
+      <c r="AF20" s="23">
         <v>461789.49600000004</v>
       </c>
     </row>
     <row r="21" spans="1:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="22">
+      <c r="B21" s="20">
         <v>4101.6656670000002</v>
       </c>
-      <c r="C21" s="22">
+      <c r="C21" s="20">
         <v>52.207929999999998</v>
       </c>
-      <c r="D21" s="22">
+      <c r="D21" s="20">
         <v>7679.6094870000006</v>
       </c>
-      <c r="E21" s="22">
+      <c r="E21" s="20">
         <v>831.68772899999999</v>
       </c>
-      <c r="F21" s="22">
+      <c r="F21" s="20">
         <v>65.900210999999999</v>
       </c>
-      <c r="G21" s="22">
+      <c r="G21" s="20">
         <v>749.91904299999999</v>
       </c>
-      <c r="H21" s="22">
+      <c r="H21" s="20">
         <v>2741.9193009999999</v>
       </c>
-      <c r="I21" s="22">
+      <c r="I21" s="20">
         <v>600.70335899999998</v>
       </c>
-      <c r="J21" s="22">
+      <c r="J21" s="20">
         <v>97.966733000000005</v>
       </c>
-      <c r="K21" s="22">
+      <c r="K21" s="20">
         <v>191.99365800000001</v>
       </c>
-      <c r="L21" s="22">
+      <c r="L21" s="20">
         <v>1246.3423009999999</v>
       </c>
-      <c r="M21" s="22">
+      <c r="M21" s="20">
         <v>706.86712599999998</v>
       </c>
-      <c r="N21" s="22">
+      <c r="N21" s="20">
         <v>1.7343679999999999</v>
       </c>
-      <c r="O21" s="22">
+      <c r="O21" s="20">
         <v>26.725743000000001</v>
       </c>
-      <c r="P21" s="22">
+      <c r="P21" s="20">
         <v>833.84823500000005</v>
       </c>
-      <c r="Q21" s="22">
+      <c r="Q21" s="20">
         <v>4351.2944049999996</v>
       </c>
-      <c r="R21" s="22">
+      <c r="R21" s="20">
         <v>1012.753674</v>
       </c>
-      <c r="S21" s="22">
+      <c r="S21" s="20">
         <v>81.251755000000003</v>
       </c>
-      <c r="T21" s="22">
+      <c r="T21" s="20">
         <v>268.55886099999998</v>
       </c>
       <c r="U21" s="8">
@@ -7424,84 +7746,84 @@
       <c r="Z21" s="8">
         <v>0.47987999999999997</v>
       </c>
-      <c r="AA21" s="32">
+      <c r="AA21" s="13">
         <v>19631.55</v>
       </c>
-      <c r="AB21" s="31">
+      <c r="AB21" s="30">
         <v>491553</v>
       </c>
-      <c r="AC21" s="18">
-        <v>172139</v>
-      </c>
-      <c r="AD21" s="33">
-        <v>875</v>
-      </c>
-      <c r="AE21" s="34">
+      <c r="AC21" s="28">
+        <v>111942</v>
+      </c>
+      <c r="AD21" s="28">
+        <v>345313</v>
+      </c>
+      <c r="AE21" s="31">
         <v>4</v>
       </c>
-      <c r="AF21" s="27">
+      <c r="AF21" s="23">
         <v>417614.34099999996</v>
       </c>
     </row>
     <row r="22" spans="1:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="22">
+      <c r="B22" s="20">
         <v>2643.7459709999998</v>
       </c>
-      <c r="C22" s="22">
+      <c r="C22" s="20">
         <v>64.552128999999994</v>
       </c>
-      <c r="D22" s="22">
+      <c r="D22" s="20">
         <v>7502.1853889999993</v>
       </c>
-      <c r="E22" s="22">
+      <c r="E22" s="20">
         <v>773.44355900000005</v>
       </c>
-      <c r="F22" s="22">
+      <c r="F22" s="20">
         <v>128.11793700000001</v>
       </c>
-      <c r="G22" s="22">
+      <c r="G22" s="20">
         <v>751.28846799999997</v>
       </c>
-      <c r="H22" s="22">
+      <c r="H22" s="20">
         <v>2689.8009489999999</v>
       </c>
-      <c r="I22" s="22">
+      <c r="I22" s="20">
         <v>619.72768599999995</v>
       </c>
-      <c r="J22" s="22">
+      <c r="J22" s="20">
         <v>108.005154</v>
       </c>
-      <c r="K22" s="22">
+      <c r="K22" s="20">
         <v>198.76593099999999</v>
       </c>
-      <c r="L22" s="22">
+      <c r="L22" s="20">
         <v>1340.4462020000001</v>
       </c>
-      <c r="M22" s="22">
+      <c r="M22" s="20">
         <v>809.97268199999996</v>
       </c>
-      <c r="N22" s="22">
+      <c r="N22" s="20">
         <v>2.204971</v>
       </c>
-      <c r="O22" s="22">
+      <c r="O22" s="20">
         <v>34.625695999999998</v>
       </c>
-      <c r="P22" s="22">
+      <c r="P22" s="20">
         <v>889.84305700000004</v>
       </c>
-      <c r="Q22" s="22">
+      <c r="Q22" s="20">
         <v>3970.3217749999999</v>
       </c>
-      <c r="R22" s="22">
+      <c r="R22" s="20">
         <v>1057.109451</v>
       </c>
-      <c r="S22" s="22">
+      <c r="S22" s="20">
         <v>80.951623999999995</v>
       </c>
-      <c r="T22" s="22">
+      <c r="T22" s="20">
         <v>695.19094199999995</v>
       </c>
       <c r="U22" s="8">
@@ -7522,84 +7844,84 @@
       <c r="Z22" s="8">
         <v>0.61609000000000003</v>
       </c>
-      <c r="AA22" s="32">
+      <c r="AA22" s="13">
         <v>22136.799999999999</v>
       </c>
-      <c r="AB22" s="31">
+      <c r="AB22" s="30">
         <v>491350</v>
       </c>
-      <c r="AC22" s="18">
-        <v>184089</v>
-      </c>
-      <c r="AD22" s="33">
-        <v>922</v>
-      </c>
-      <c r="AE22" s="34">
+      <c r="AC22" s="28">
+        <v>111778</v>
+      </c>
+      <c r="AD22" s="28">
+        <v>345205</v>
+      </c>
+      <c r="AE22" s="31">
         <v>6</v>
       </c>
-      <c r="AF22" s="27">
+      <c r="AF22" s="23">
         <v>468325.83400000003</v>
       </c>
     </row>
     <row r="23" spans="1:32" ht="19" x14ac:dyDescent="0.25">
-      <c r="A23" s="20">
+      <c r="A23" s="18">
         <v>2016</v>
       </c>
-      <c r="B23" s="22">
+      <c r="B23" s="20">
         <v>2456.2343449999998</v>
       </c>
-      <c r="C23" s="22">
+      <c r="C23" s="20">
         <v>49.939608999999997</v>
       </c>
-      <c r="D23" s="22">
+      <c r="D23" s="20">
         <v>7879.7490990000006</v>
       </c>
-      <c r="E23" s="22">
+      <c r="E23" s="20">
         <v>759.05327599999998</v>
       </c>
-      <c r="F23" s="22">
+      <c r="F23" s="20">
         <v>107.980249</v>
       </c>
-      <c r="G23" s="22">
+      <c r="G23" s="20">
         <v>783.99641599999995</v>
       </c>
-      <c r="H23" s="22">
+      <c r="H23" s="20">
         <v>2937.1454739999999</v>
       </c>
-      <c r="I23" s="22">
+      <c r="I23" s="20">
         <v>678.31694100000004</v>
       </c>
-      <c r="J23" s="22">
+      <c r="J23" s="20">
         <v>116.11282</v>
       </c>
-      <c r="K23" s="22">
+      <c r="K23" s="20">
         <v>184.197732</v>
       </c>
-      <c r="L23" s="22">
+      <c r="L23" s="20">
         <v>1504.921736</v>
       </c>
-      <c r="M23" s="22">
+      <c r="M23" s="20">
         <v>842.64566400000001</v>
       </c>
-      <c r="N23" s="22">
+      <c r="N23" s="20">
         <v>3.3622390000000002</v>
       </c>
-      <c r="O23" s="22">
+      <c r="O23" s="20">
         <v>38.996673999999999</v>
       </c>
-      <c r="P23" s="22">
+      <c r="P23" s="20">
         <v>893.49458100000004</v>
       </c>
-      <c r="Q23" s="22">
+      <c r="Q23" s="20">
         <v>3829.300827</v>
       </c>
-      <c r="R23" s="22">
+      <c r="R23" s="20">
         <v>1122.470503</v>
       </c>
-      <c r="S23" s="22">
+      <c r="S23" s="20">
         <v>102.847759</v>
       </c>
-      <c r="T23" s="22">
+      <c r="T23" s="20">
         <v>913.11873000000003</v>
       </c>
       <c r="U23" s="8">
@@ -7620,84 +7942,84 @@
       <c r="Z23" s="8">
         <v>0.77817000000000003</v>
       </c>
-      <c r="AA23" s="32">
+      <c r="AA23" s="13">
         <v>19381.46</v>
       </c>
-      <c r="AB23" s="31">
+      <c r="AB23" s="30">
         <v>491322</v>
       </c>
-      <c r="AC23" s="18">
-        <v>188910</v>
-      </c>
-      <c r="AD23" s="33">
-        <v>953</v>
-      </c>
-      <c r="AE23" s="34">
+      <c r="AC23" s="28">
+        <v>111677</v>
+      </c>
+      <c r="AD23" s="28">
+        <v>345244</v>
+      </c>
+      <c r="AE23" s="31">
         <v>11</v>
       </c>
-      <c r="AF23" s="27">
+      <c r="AF23" s="23">
         <v>444803.565</v>
       </c>
     </row>
     <row r="24" spans="1:32" ht="19" x14ac:dyDescent="0.25">
-      <c r="A24" s="20">
+      <c r="A24" s="18">
         <v>2017</v>
       </c>
-      <c r="B24" s="22">
+      <c r="B24" s="20">
         <v>3401.5183919999999</v>
       </c>
-      <c r="C24" s="22">
+      <c r="C24" s="20">
         <v>44.789842999999998</v>
       </c>
-      <c r="D24" s="22">
+      <c r="D24" s="20">
         <v>7512.115366</v>
       </c>
-      <c r="E24" s="22">
+      <c r="E24" s="20">
         <v>763.74001299999998</v>
       </c>
-      <c r="F24" s="22">
+      <c r="F24" s="20">
         <v>138.114047</v>
       </c>
-      <c r="G24" s="22">
+      <c r="G24" s="20">
         <v>786.33034499999997</v>
       </c>
-      <c r="H24" s="22">
+      <c r="H24" s="20">
         <v>3333.8359850000002</v>
       </c>
-      <c r="I24" s="22">
+      <c r="I24" s="20">
         <v>754.49839999999995</v>
       </c>
-      <c r="J24" s="22">
+      <c r="J24" s="20">
         <v>124.95141099999999</v>
       </c>
-      <c r="K24" s="22">
+      <c r="K24" s="20">
         <v>211.792147</v>
       </c>
-      <c r="L24" s="22">
+      <c r="L24" s="20">
         <v>1523.9466789999999</v>
       </c>
-      <c r="M24" s="22">
+      <c r="M24" s="20">
         <v>909.48021400000005</v>
       </c>
-      <c r="N24" s="22">
+      <c r="N24" s="20">
         <v>5.1916909999999996</v>
       </c>
-      <c r="O24" s="22">
+      <c r="O24" s="20">
         <v>45.237101000000003</v>
       </c>
-      <c r="P24" s="22">
+      <c r="P24" s="20">
         <v>922.677054</v>
       </c>
-      <c r="Q24" s="22">
+      <c r="Q24" s="20">
         <v>3885.283003</v>
       </c>
-      <c r="R24" s="22">
+      <c r="R24" s="20">
         <v>1184.502833</v>
       </c>
-      <c r="S24" s="22">
+      <c r="S24" s="20">
         <v>120.9744</v>
       </c>
-      <c r="T24" s="22">
+      <c r="T24" s="20">
         <v>948.29857000000004</v>
       </c>
       <c r="U24" s="8">
@@ -7718,84 +8040,84 @@
       <c r="Z24" s="8">
         <v>1.00179</v>
       </c>
-      <c r="AA24" s="32">
+      <c r="AA24" s="13">
         <v>20262.78</v>
       </c>
-      <c r="AB24" s="31">
+      <c r="AB24" s="30">
         <v>491855</v>
       </c>
-      <c r="AC24" s="18">
-        <v>197075</v>
-      </c>
-      <c r="AD24" s="18">
-        <v>1014</v>
-      </c>
-      <c r="AE24" s="34">
+      <c r="AC24" s="28">
+        <v>112365</v>
+      </c>
+      <c r="AD24" s="28">
+        <v>345124</v>
+      </c>
+      <c r="AE24" s="31">
         <v>6</v>
       </c>
-      <c r="AF24" s="27">
+      <c r="AF24" s="23">
         <v>449602.96699999995</v>
       </c>
     </row>
     <row r="25" spans="1:32" ht="19" x14ac:dyDescent="0.25">
-      <c r="A25" s="20">
+      <c r="A25" s="18">
         <v>2018</v>
       </c>
-      <c r="B25" s="22">
+      <c r="B25" s="20">
         <v>4314.3237319999998</v>
       </c>
-      <c r="C25" s="22">
+      <c r="C25" s="20">
         <v>46.443027000000001</v>
       </c>
-      <c r="D25" s="22">
+      <c r="D25" s="20">
         <v>7184.4808499999999</v>
       </c>
-      <c r="E25" s="22">
+      <c r="E25" s="20">
         <v>625.10137199999997</v>
       </c>
-      <c r="F25" s="22">
+      <c r="F25" s="20">
         <v>200.17054400000001</v>
       </c>
-      <c r="G25" s="22">
+      <c r="G25" s="20">
         <v>816.34720500000003</v>
       </c>
-      <c r="H25" s="22">
+      <c r="H25" s="20">
         <v>3726.8711079999998</v>
       </c>
-      <c r="I25" s="22">
+      <c r="I25" s="20">
         <v>773.16384500000004</v>
       </c>
-      <c r="J25" s="22">
+      <c r="J25" s="20">
         <v>137.40613300000001</v>
       </c>
-      <c r="K25" s="22">
+      <c r="K25" s="20">
         <v>221.698824</v>
       </c>
-      <c r="L25" s="22">
+      <c r="L25" s="20">
         <v>1552.445774</v>
       </c>
-      <c r="M25" s="22">
+      <c r="M25" s="20">
         <v>1103.455522</v>
       </c>
-      <c r="N25" s="22">
+      <c r="N25" s="20">
         <v>4.0811830000000002</v>
       </c>
-      <c r="O25" s="22">
+      <c r="O25" s="20">
         <v>40.576529999999998</v>
       </c>
-      <c r="P25" s="22">
+      <c r="P25" s="20">
         <v>956.24064699999997</v>
       </c>
-      <c r="Q25" s="22">
+      <c r="Q25" s="20">
         <v>3710.8028530000001</v>
       </c>
-      <c r="R25" s="22">
+      <c r="R25" s="20">
         <v>1303.039743</v>
       </c>
-      <c r="S25" s="22">
+      <c r="S25" s="20">
         <v>140.434381</v>
       </c>
-      <c r="T25" s="22">
+      <c r="T25" s="20">
         <v>925.66668700000002</v>
       </c>
       <c r="U25" s="8">
@@ -7813,23 +8135,25 @@
       <c r="Y25" s="8">
         <v>69428454</v>
       </c>
-      <c r="Z25" s="8"/>
-      <c r="AA25" s="32">
+      <c r="Z25" s="15">
+        <v>1.00179</v>
+      </c>
+      <c r="AA25" s="13">
         <v>19773.04</v>
       </c>
-      <c r="AB25" s="31">
+      <c r="AB25" s="30">
         <v>492113</v>
       </c>
-      <c r="AC25" s="18">
-        <v>200403</v>
-      </c>
-      <c r="AD25" s="18">
-        <v>1061</v>
-      </c>
-      <c r="AE25" s="34">
+      <c r="AC25" s="28">
+        <v>112314</v>
+      </c>
+      <c r="AD25" s="28">
+        <v>345409</v>
+      </c>
+      <c r="AE25" s="31">
         <v>5</v>
       </c>
-      <c r="AF25" s="27">
+      <c r="AF25" s="23">
         <v>454952.54100000003</v>
       </c>
     </row>

--- a/process_data/GPP_6210501001_real.xlsx
+++ b/process_data/GPP_6210501001_real.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pantchanit/Documents/final_stat_pant/process_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A2B3CC-9845-FA49-851B-BAE4AD1EEB7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E5ABF1-711B-6145-9CC4-E2997C16C088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20360" activeTab="2" xr2:uid="{F412434C-C783-6D4A-8278-77BCBC527C82}"/>
+    <workbookView xWindow="-38400" yWindow="4540" windowWidth="38400" windowHeight="21100" xr2:uid="{F412434C-C783-6D4A-8278-77BCBC527C82}"/>
   </bookViews>
   <sheets>
     <sheet name="Ayutthaya" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="59">
   <si>
     <t>Year</t>
   </si>
@@ -135,9 +135,6 @@
     <t>จำนวนนักท่องเที่ยวชาวต่างชาติ (คน)</t>
   </si>
   <si>
-    <t xml:space="preserve">	154928.052598</t>
-  </si>
-  <si>
     <t>รายจ่ายของประชากรในจังหวัดลพบุรี (บาท)</t>
   </si>
   <si>
@@ -211,6 +208,12 @@
   </si>
   <si>
     <t>เนื้อที่สำหรับปลูกนาข้าว (ไร่)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	154929</t>
+  </si>
+  <si>
+    <t>Water supply sewerage, waste management and remediation activities</t>
   </si>
 </sst>
 </file>
@@ -747,8 +750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{559AE083-E2E3-E54E-9D32-3D8C6F89AA68}">
   <dimension ref="A1:AF26"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AH15" sqref="AH15"/>
+    <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="111" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -776,7 +779,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>6</v>
@@ -943,10 +946,10 @@
         <v>1141681.3373884801</v>
       </c>
       <c r="AC2" s="14">
-        <v>205979.6393863</v>
+        <v>205980</v>
       </c>
       <c r="AD2" s="14">
-        <v>8722.2640909999991</v>
+        <v>8723</v>
       </c>
       <c r="AE2" s="14">
         <v>178</v>
@@ -1041,10 +1044,10 @@
         <v>1144784.2627945901</v>
       </c>
       <c r="AC3" s="14">
-        <v>297245.16013127001</v>
+        <v>297246</v>
       </c>
       <c r="AD3" s="14">
-        <v>8722.2640909999991</v>
+        <v>8723</v>
       </c>
       <c r="AE3" s="14">
         <v>172</v>
@@ -1139,10 +1142,10 @@
         <v>1145650.83142842</v>
       </c>
       <c r="AC4" s="14">
-        <v>322733.31317272002</v>
+        <v>322734</v>
       </c>
       <c r="AD4" s="14">
-        <v>8722.2640909999991</v>
+        <v>8723</v>
       </c>
       <c r="AE4" s="14">
         <v>170</v>
@@ -1237,10 +1240,10 @@
         <v>1145806.68343912</v>
       </c>
       <c r="AC5" s="14">
-        <v>327317.34696489997</v>
+        <v>327318</v>
       </c>
       <c r="AD5" s="14">
-        <v>10417.613442</v>
+        <v>10418</v>
       </c>
       <c r="AE5" s="14">
         <v>170</v>
@@ -1335,10 +1338,10 @@
         <v>1146844.48447256</v>
       </c>
       <c r="AC6" s="14">
-        <v>357841.91309195</v>
+        <v>357842</v>
       </c>
       <c r="AD6" s="14">
-        <v>21706.754345000001</v>
+        <v>21707</v>
       </c>
       <c r="AE6" s="14">
         <v>168</v>
@@ -1433,10 +1436,10 @@
         <v>1150131.9348067001</v>
       </c>
       <c r="AC7" s="14">
-        <v>454534.81652997999</v>
+        <v>454535</v>
       </c>
       <c r="AD7" s="14">
-        <v>57467.453010999998</v>
+        <v>57468</v>
       </c>
       <c r="AE7" s="14">
         <v>162</v>
@@ -1531,10 +1534,10 @@
         <v>1150122.81339674</v>
       </c>
       <c r="AC8" s="14">
-        <v>454266.53092162998</v>
+        <v>454267</v>
       </c>
       <c r="AD8" s="14">
-        <v>57368.23083</v>
+        <v>57369</v>
       </c>
       <c r="AE8" s="14">
         <v>162</v>
@@ -1629,10 +1632,10 @@
         <v>1151476.8412699699</v>
       </c>
       <c r="AC9" s="14">
-        <v>494092.19308863999</v>
+        <v>494093</v>
       </c>
       <c r="AD9" s="14">
-        <v>72097.269398000004</v>
+        <v>72098</v>
       </c>
       <c r="AE9" s="14">
         <v>159</v>
@@ -1727,10 +1730,10 @@
         <v>1154352.9237043301</v>
       </c>
       <c r="AC10" s="14">
-        <v>578685.64176149003</v>
+        <v>578686</v>
       </c>
       <c r="AD10" s="14">
-        <v>103383.13133400001</v>
+        <v>103384</v>
       </c>
       <c r="AE10" s="14">
         <v>153</v>
@@ -1825,10 +1828,10 @@
         <v>1156039.24413279</v>
       </c>
       <c r="AC11" s="14">
-        <v>628284.93658929004</v>
+        <v>628285</v>
       </c>
       <c r="AD11" s="14">
-        <v>121726.82951</v>
+        <v>121727</v>
       </c>
       <c r="AE11" s="14">
         <v>150</v>
@@ -1923,10 +1926,10 @@
         <v>1156260.9276789899</v>
       </c>
       <c r="AC12" s="14">
-        <v>634805.25584809005</v>
+        <v>634806</v>
       </c>
       <c r="AD12" s="14">
-        <v>124138.290578</v>
+        <v>124139</v>
       </c>
       <c r="AE12" s="14">
         <v>150</v>
@@ -2021,10 +2024,10 @@
         <v>1159091.40407385</v>
       </c>
       <c r="AC13" s="14">
-        <v>718057.30619514</v>
+        <v>718058</v>
       </c>
       <c r="AD13" s="14" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="AE13" s="14">
         <v>144</v>
@@ -2119,10 +2122,10 @@
         <v>1163698.31869885</v>
       </c>
       <c r="AC14" s="14">
-        <v>853559.26233319996</v>
+        <v>853560</v>
       </c>
       <c r="AD14" s="14">
-        <v>205041.80913899999</v>
+        <v>205042</v>
       </c>
       <c r="AE14" s="14">
         <v>1354</v>
@@ -2217,10 +2220,10 @@
         <v>1174762.5591243601</v>
       </c>
       <c r="AC15" s="14">
-        <v>1178988.8269923499</v>
+        <v>1178989</v>
       </c>
       <c r="AD15" s="14">
-        <v>325397.99025700003</v>
+        <v>325398</v>
       </c>
       <c r="AE15" s="14">
         <v>114</v>
@@ -2315,10 +2318,10 @@
         <v>1168150.90721711</v>
       </c>
       <c r="AC16" s="14">
-        <v>984522.06568670005</v>
+        <v>984523</v>
       </c>
       <c r="AD16" s="14">
-        <v>253476.815026</v>
+        <v>253477</v>
       </c>
       <c r="AE16" s="14">
         <v>127</v>
@@ -3214,6 +3217,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -3222,7 +3226,7 @@
   <dimension ref="A1:AF25"/>
   <sheetViews>
     <sheetView topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="Z1" sqref="Z1:Z25"/>
+      <selection activeCell="AB22" sqref="AB22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3315,16 +3319,16 @@
         <v>29</v>
       </c>
       <c r="AA1" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AB1" s="5" t="s">
         <v>26</v>
       </c>
       <c r="AC1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD1" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="AD1" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="AE1" s="4" t="s">
         <v>27</v>
@@ -3335,7 +3339,7 @@
     </row>
     <row r="2" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" s="20">
         <v>5391.5758539999997</v>
@@ -3531,7 +3535,7 @@
     </row>
     <row r="4" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" s="20">
         <v>6014.4152150000009</v>
@@ -3629,7 +3633,7 @@
     </row>
     <row r="5" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" s="20">
         <v>6270.1771489999992</v>
@@ -3727,7 +3731,7 @@
     </row>
     <row r="6" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" s="20">
         <v>5684.6740969999992</v>
@@ -3825,7 +3829,7 @@
     </row>
     <row r="7" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B7" s="20">
         <v>6101.7808180000002</v>
@@ -3923,7 +3927,7 @@
     </row>
     <row r="8" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B8" s="20">
         <v>6704.374562</v>
@@ -4021,7 +4025,7 @@
     </row>
     <row r="9" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B9" s="22">
         <v>6495.3498030000001</v>
@@ -4119,7 +4123,7 @@
     </row>
     <row r="10" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B10" s="22">
         <v>7014.641912</v>
@@ -4217,7 +4221,7 @@
     </row>
     <row r="11" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B11" s="22">
         <v>7333.6659089999994</v>
@@ -4315,7 +4319,7 @@
     </row>
     <row r="12" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B12" s="22">
         <v>7960.8161129999999</v>
@@ -4413,7 +4417,7 @@
     </row>
     <row r="13" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B13" s="22">
         <v>7815.0604689999991</v>
@@ -4511,7 +4515,7 @@
     </row>
     <row r="14" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B14" s="22">
         <v>9248.951384</v>
@@ -4609,7 +4613,7 @@
     </row>
     <row r="15" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B15" s="22">
         <v>12887.833873</v>
@@ -4707,7 +4711,7 @@
     </row>
     <row r="16" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B16" s="22">
         <v>13002.126053</v>
@@ -4805,7 +4809,7 @@
     </row>
     <row r="17" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B17" s="22">
         <v>12440.96422</v>
@@ -4903,7 +4907,7 @@
     </row>
     <row r="18" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B18" s="20">
         <v>14130.475935</v>
@@ -5001,7 +5005,7 @@
     </row>
     <row r="19" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B19" s="20">
         <v>16469.528678999999</v>
@@ -5099,7 +5103,7 @@
     </row>
     <row r="20" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B20" s="20">
         <v>17217.859748999999</v>
@@ -5197,7 +5201,7 @@
     </row>
     <row r="21" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B21" s="20">
         <v>17305.341702000002</v>
@@ -5295,7 +5299,7 @@
     </row>
     <row r="22" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B22" s="20">
         <v>15588.94169</v>
@@ -5694,8 +5698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFDC5115-B989-7240-9B3D-AF4C2FACAEF3}">
   <dimension ref="A1:AF25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AA16" sqref="AA16"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AD9" sqref="AD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5787,16 +5791,16 @@
         <v>29</v>
       </c>
       <c r="AA1" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AB1" s="5" t="s">
         <v>26</v>
       </c>
       <c r="AC1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD1" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="AD1" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="AE1" s="4" t="s">
         <v>27</v>
@@ -5807,7 +5811,7 @@
     </row>
     <row r="2" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" s="20">
         <v>1517.1673639999999</v>
@@ -5905,7 +5909,7 @@
     </row>
     <row r="3" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B3" s="20">
         <v>2151.7327289999998</v>
@@ -6003,7 +6007,7 @@
     </row>
     <row r="4" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" s="20">
         <v>2438.9091920000001</v>
@@ -6101,7 +6105,7 @@
     </row>
     <row r="5" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" s="20">
         <v>2872.2276790000001</v>
@@ -6199,7 +6203,7 @@
     </row>
     <row r="6" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" s="20">
         <v>1738.973389</v>
@@ -6297,7 +6301,7 @@
     </row>
     <row r="7" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B7" s="20">
         <v>2041.548117</v>
@@ -6395,7 +6399,7 @@
     </row>
     <row r="8" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B8" s="20">
         <v>1900.398244</v>
@@ -6493,7 +6497,7 @@
     </row>
     <row r="9" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B9" s="22">
         <v>1951.4735659999999</v>
@@ -6591,7 +6595,7 @@
     </row>
     <row r="10" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B10" s="22">
         <v>2330.5766400000002</v>
@@ -6689,7 +6693,7 @@
     </row>
     <row r="11" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B11" s="22">
         <v>2726.8671509999999</v>
@@ -6787,7 +6791,7 @@
     </row>
     <row r="12" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B12" s="22">
         <v>2950.9067839999998</v>
@@ -6885,7 +6889,7 @@
     </row>
     <row r="13" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B13" s="22">
         <v>3119.9154859999999</v>
@@ -6983,7 +6987,7 @@
     </row>
     <row r="14" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B14" s="22">
         <v>3684.521788</v>
@@ -7081,7 +7085,7 @@
     </row>
     <row r="15" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B15" s="22">
         <v>5248.6923790000001</v>
@@ -7179,7 +7183,7 @@
     </row>
     <row r="16" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B16" s="22">
         <v>4423.0372029999999</v>
@@ -7277,7 +7281,7 @@
     </row>
     <row r="17" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B17" s="22">
         <v>3240.6692849999999</v>
@@ -7375,7 +7379,7 @@
     </row>
     <row r="18" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B18" s="20">
         <v>3576.782068</v>
@@ -7473,7 +7477,7 @@
     </row>
     <row r="19" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B19" s="20">
         <v>6015.3732430000009</v>
@@ -7571,7 +7575,7 @@
     </row>
     <row r="20" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B20" s="20">
         <v>5646.1184910000002</v>
@@ -7669,7 +7673,7 @@
     </row>
     <row r="21" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B21" s="20">
         <v>4101.6656670000002</v>
@@ -7767,7 +7771,7 @@
     </row>
     <row r="22" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B22" s="20">
         <v>2643.7459709999998</v>

--- a/process_data/GPP_6210501001_real.xlsx
+++ b/process_data/GPP_6210501001_real.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pantchanit/Documents/final_stat_pant/process_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pantc\Documents\final_stat_pant\process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E5ABF1-711B-6145-9CC4-E2997C16C088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1782588E-ED57-4A82-A9AB-2179C49CB12D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="4540" windowWidth="38400" windowHeight="21100" xr2:uid="{F412434C-C783-6D4A-8278-77BCBC527C82}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{F412434C-C783-6D4A-8278-77BCBC527C82}"/>
   </bookViews>
   <sheets>
     <sheet name="Ayutthaya" sheetId="1" r:id="rId1"/>
@@ -223,7 +223,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-1010409]#,##0;\-#,##0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -750,19 +750,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{559AE083-E2E3-E54E-9D32-3D8C6F89AA68}">
   <dimension ref="A1:AF26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="111" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView topLeftCell="N1" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="Z1" sqref="Z1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
+    <col min="21" max="21" width="35.375" customWidth="1"/>
+    <col min="25" max="25" width="15" customWidth="1"/>
     <col min="26" max="26" width="58" customWidth="1"/>
-    <col min="27" max="27" width="30" customWidth="1"/>
-    <col min="29" max="29" width="40.1640625" customWidth="1"/>
+    <col min="27" max="27" width="38.625" customWidth="1"/>
+    <col min="29" max="29" width="40.125" customWidth="1"/>
     <col min="30" max="30" width="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="180" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" ht="168.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -860,7 +862,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:32" ht="19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" ht="18.75">
       <c r="A2" s="1">
         <v>1995</v>
       </c>
@@ -958,7 +960,7 @@
         <v>143862.554</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" ht="18.75">
       <c r="A3" s="1">
         <v>1996</v>
       </c>
@@ -1056,7 +1058,7 @@
         <v>171503.91700000002</v>
       </c>
     </row>
-    <row r="4" spans="1:32" ht="19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" ht="18.75">
       <c r="A4" s="1">
         <v>1997</v>
       </c>
@@ -1154,7 +1156,7 @@
         <v>179223.451</v>
       </c>
     </row>
-    <row r="5" spans="1:32" ht="19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" ht="18.75">
       <c r="A5" s="1">
         <v>1998</v>
       </c>
@@ -1252,7 +1254,7 @@
         <v>180611.80600000001</v>
       </c>
     </row>
-    <row r="6" spans="1:32" ht="19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" ht="18.75">
       <c r="A6" s="1">
         <v>1999</v>
       </c>
@@ -1350,7 +1352,7 @@
         <v>189856.70600000001</v>
       </c>
     </row>
-    <row r="7" spans="1:32" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" ht="18.75">
       <c r="A7" s="1">
         <v>2000</v>
       </c>
@@ -1448,7 +1450,7 @@
         <v>219141.84700000001</v>
       </c>
     </row>
-    <row r="8" spans="1:32" ht="19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" ht="18.75">
       <c r="A8" s="1">
         <v>2001</v>
       </c>
@@ -1546,7 +1548,7 @@
         <v>219060.592</v>
       </c>
     </row>
-    <row r="9" spans="1:32" ht="19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" ht="18.75">
       <c r="A9" s="1">
         <v>2002</v>
       </c>
@@ -1644,7 +1646,7 @@
         <v>231122.49200000003</v>
       </c>
     </row>
-    <row r="10" spans="1:32" ht="19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" ht="18.75">
       <c r="A10" s="1">
         <v>2003</v>
       </c>
@@ -1742,7 +1744,7 @@
         <v>256743.10100000002</v>
       </c>
     </row>
-    <row r="11" spans="1:32" ht="19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" ht="18.75">
       <c r="A11" s="1">
         <v>2004</v>
       </c>
@@ -1840,7 +1842,7 @@
         <v>271765.11700000003</v>
       </c>
     </row>
-    <row r="12" spans="1:32" ht="19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" ht="18.75">
       <c r="A12" s="1">
         <v>2005</v>
       </c>
@@ -1938,7 +1940,7 @@
         <v>273739.91000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:32" ht="19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" ht="18.75">
       <c r="A13" s="1">
         <v>2006</v>
       </c>
@@ -2036,7 +2038,7 @@
         <v>298954.25300000003</v>
       </c>
     </row>
-    <row r="14" spans="1:32" ht="19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" ht="18.75">
       <c r="A14" s="1">
         <v>2007</v>
       </c>
@@ -2128,13 +2130,13 @@
         <v>205042</v>
       </c>
       <c r="AE14" s="14">
-        <v>1354</v>
+        <v>135</v>
       </c>
       <c r="AF14" s="10">
         <v>339993.39600000001</v>
       </c>
     </row>
-    <row r="15" spans="1:32" ht="19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" ht="18.75">
       <c r="A15" s="1">
         <v>2008</v>
       </c>
@@ -2232,7 +2234,7 @@
         <v>438555.44500000001</v>
       </c>
     </row>
-    <row r="16" spans="1:32" ht="19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" ht="18.75">
       <c r="A16" s="1">
         <v>2009</v>
       </c>
@@ -2330,7 +2332,7 @@
         <v>379657.777</v>
       </c>
     </row>
-    <row r="17" spans="1:32" ht="19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" ht="18.75">
       <c r="A17" s="1">
         <v>2010</v>
       </c>
@@ -2428,7 +2430,7 @@
         <v>427733.43600000005</v>
       </c>
     </row>
-    <row r="18" spans="1:32" ht="19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" ht="18.75">
       <c r="A18" s="1">
         <v>2011</v>
       </c>
@@ -2526,7 +2528,7 @@
         <v>365800.94500000001</v>
       </c>
     </row>
-    <row r="19" spans="1:32" ht="19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32" ht="18.75">
       <c r="A19" s="1">
         <v>2012</v>
       </c>
@@ -2624,7 +2626,7 @@
         <v>378620.53700000001</v>
       </c>
     </row>
-    <row r="20" spans="1:32" ht="19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32" ht="18.75">
       <c r="A20" s="1">
         <v>2013</v>
       </c>
@@ -2722,7 +2724,7 @@
         <v>461789.49600000004</v>
       </c>
     </row>
-    <row r="21" spans="1:32" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32" ht="18.75">
       <c r="A21" s="1">
         <v>2014</v>
       </c>
@@ -2820,7 +2822,7 @@
         <v>417614.34099999996</v>
       </c>
     </row>
-    <row r="22" spans="1:32" ht="19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:32" ht="18.75">
       <c r="A22" s="1">
         <v>2015</v>
       </c>
@@ -2918,7 +2920,7 @@
         <v>468325.83400000003</v>
       </c>
     </row>
-    <row r="23" spans="1:32" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:32" ht="18.75">
       <c r="A23" s="1">
         <v>2016</v>
       </c>
@@ -3016,7 +3018,7 @@
         <v>444803.565</v>
       </c>
     </row>
-    <row r="24" spans="1:32" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32" ht="18.75">
       <c r="A24" s="1">
         <v>2017</v>
       </c>
@@ -3114,7 +3116,7 @@
         <v>449602.96699999995</v>
       </c>
     </row>
-    <row r="25" spans="1:32" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32" ht="18.75">
       <c r="A25" s="1">
         <v>2018</v>
       </c>
@@ -3212,7 +3214,7 @@
         <v>454952.54100000003</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:32">
       <c r="Z26" s="16"/>
     </row>
   </sheetData>
@@ -3225,21 +3227,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8095EF19-8E19-0747-84C0-9C329A469980}">
   <dimension ref="A1:AF25"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AB22" sqref="AB22"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AE1" sqref="AE1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="26" max="26" width="24.5" customWidth="1"/>
     <col min="27" max="27" width="31" customWidth="1"/>
-    <col min="28" max="28" width="25.1640625" customWidth="1"/>
-    <col min="29" max="29" width="29.83203125" customWidth="1"/>
+    <col min="28" max="28" width="25.125" customWidth="1"/>
+    <col min="29" max="29" width="29.875" customWidth="1"/>
     <col min="30" max="30" width="30" customWidth="1"/>
     <col min="31" max="31" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="180" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" ht="168.75">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -3337,7 +3339,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:32" ht="20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" ht="18.75">
       <c r="A2" s="18" t="s">
         <v>33</v>
       </c>
@@ -3435,7 +3437,7 @@
         <v>143862.554</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" ht="18.75">
       <c r="A3" s="18">
         <v>1996</v>
       </c>
@@ -3533,7 +3535,7 @@
         <v>171503.91700000002</v>
       </c>
     </row>
-    <row r="4" spans="1:32" ht="20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" ht="18.75">
       <c r="A4" s="18" t="s">
         <v>34</v>
       </c>
@@ -3631,7 +3633,7 @@
         <v>179223.451</v>
       </c>
     </row>
-    <row r="5" spans="1:32" ht="20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" ht="18.75">
       <c r="A5" s="18" t="s">
         <v>35</v>
       </c>
@@ -3729,7 +3731,7 @@
         <v>180611.80600000001</v>
       </c>
     </row>
-    <row r="6" spans="1:32" ht="20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" ht="18.75">
       <c r="A6" s="18" t="s">
         <v>36</v>
       </c>
@@ -3827,7 +3829,7 @@
         <v>189856.70600000001</v>
       </c>
     </row>
-    <row r="7" spans="1:32" ht="20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" ht="18.75">
       <c r="A7" s="18" t="s">
         <v>37</v>
       </c>
@@ -3925,7 +3927,7 @@
         <v>219141.84700000001</v>
       </c>
     </row>
-    <row r="8" spans="1:32" ht="20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" ht="18.75">
       <c r="A8" s="18" t="s">
         <v>38</v>
       </c>
@@ -4023,7 +4025,7 @@
         <v>219060.592</v>
       </c>
     </row>
-    <row r="9" spans="1:32" ht="20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" ht="18.75">
       <c r="A9" s="21" t="s">
         <v>39</v>
       </c>
@@ -4121,7 +4123,7 @@
         <v>231122.49200000003</v>
       </c>
     </row>
-    <row r="10" spans="1:32" ht="20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" ht="18.75">
       <c r="A10" s="21" t="s">
         <v>40</v>
       </c>
@@ -4219,7 +4221,7 @@
         <v>256743.10100000002</v>
       </c>
     </row>
-    <row r="11" spans="1:32" ht="20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" ht="18.75">
       <c r="A11" s="21" t="s">
         <v>41</v>
       </c>
@@ -4317,7 +4319,7 @@
         <v>271765.11700000003</v>
       </c>
     </row>
-    <row r="12" spans="1:32" ht="20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" ht="18.75">
       <c r="A12" s="21" t="s">
         <v>42</v>
       </c>
@@ -4415,7 +4417,7 @@
         <v>273739.91000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:32" ht="20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" ht="18.75">
       <c r="A13" s="21" t="s">
         <v>43</v>
       </c>
@@ -4513,7 +4515,7 @@
         <v>298954.25300000003</v>
       </c>
     </row>
-    <row r="14" spans="1:32" ht="20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" ht="18.75">
       <c r="A14" s="21" t="s">
         <v>44</v>
       </c>
@@ -4611,7 +4613,7 @@
         <v>339993.39600000001</v>
       </c>
     </row>
-    <row r="15" spans="1:32" ht="20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" ht="18.75">
       <c r="A15" s="21" t="s">
         <v>45</v>
       </c>
@@ -4709,7 +4711,7 @@
         <v>438555.44500000001</v>
       </c>
     </row>
-    <row r="16" spans="1:32" ht="20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" ht="18.75">
       <c r="A16" s="21" t="s">
         <v>46</v>
       </c>
@@ -4807,7 +4809,7 @@
         <v>379657.777</v>
       </c>
     </row>
-    <row r="17" spans="1:32" ht="20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" ht="18.75">
       <c r="A17" s="21" t="s">
         <v>47</v>
       </c>
@@ -4905,7 +4907,7 @@
         <v>427733.43600000005</v>
       </c>
     </row>
-    <row r="18" spans="1:32" ht="20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" ht="18.75">
       <c r="A18" s="18" t="s">
         <v>48</v>
       </c>
@@ -5003,7 +5005,7 @@
         <v>365800.94500000001</v>
       </c>
     </row>
-    <row r="19" spans="1:32" ht="20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32" ht="18.75">
       <c r="A19" s="18" t="s">
         <v>49</v>
       </c>
@@ -5101,7 +5103,7 @@
         <v>378620.53700000001</v>
       </c>
     </row>
-    <row r="20" spans="1:32" ht="20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32" ht="18.75">
       <c r="A20" s="18" t="s">
         <v>50</v>
       </c>
@@ -5199,7 +5201,7 @@
         <v>461789.49600000004</v>
       </c>
     </row>
-    <row r="21" spans="1:32" ht="20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32" ht="18.75">
       <c r="A21" s="18" t="s">
         <v>51</v>
       </c>
@@ -5297,7 +5299,7 @@
         <v>417614.34099999996</v>
       </c>
     </row>
-    <row r="22" spans="1:32" ht="20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:32" ht="18.75">
       <c r="A22" s="18" t="s">
         <v>52</v>
       </c>
@@ -5395,7 +5397,7 @@
         <v>468325.83400000003</v>
       </c>
     </row>
-    <row r="23" spans="1:32" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:32" ht="18.75">
       <c r="A23" s="18">
         <v>2016</v>
       </c>
@@ -5493,7 +5495,7 @@
         <v>444803.565</v>
       </c>
     </row>
-    <row r="24" spans="1:32" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32" ht="18.75">
       <c r="A24" s="18">
         <v>2017</v>
       </c>
@@ -5591,7 +5593,7 @@
         <v>449602.96699999995</v>
       </c>
     </row>
-    <row r="25" spans="1:32" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32" ht="18.75">
       <c r="A25" s="18">
         <v>2018</v>
       </c>
@@ -5698,20 +5700,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFDC5115-B989-7240-9B3D-AF4C2FACAEF3}">
   <dimension ref="A1:AF25"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
+    <sheetView topLeftCell="U10" workbookViewId="0">
       <selection activeCell="AD9" sqref="AD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="26" max="26" width="23.33203125" customWidth="1"/>
-    <col min="27" max="27" width="35.83203125" customWidth="1"/>
-    <col min="28" max="29" width="30.83203125" customWidth="1"/>
-    <col min="30" max="30" width="20.1640625" customWidth="1"/>
-    <col min="31" max="31" width="21.6640625" customWidth="1"/>
+    <col min="26" max="26" width="23.375" customWidth="1"/>
+    <col min="27" max="27" width="35.875" customWidth="1"/>
+    <col min="28" max="29" width="30.875" customWidth="1"/>
+    <col min="30" max="30" width="20.125" customWidth="1"/>
+    <col min="31" max="31" width="21.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="180" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" ht="168.75">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -5809,7 +5811,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:32" ht="20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" ht="18.75">
       <c r="A2" s="18" t="s">
         <v>33</v>
       </c>
@@ -5907,7 +5909,7 @@
         <v>143862.554</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" ht="18.75">
       <c r="A3" s="18" t="s">
         <v>54</v>
       </c>
@@ -6005,7 +6007,7 @@
         <v>171503.91700000002</v>
       </c>
     </row>
-    <row r="4" spans="1:32" ht="20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" ht="18.75">
       <c r="A4" s="18" t="s">
         <v>34</v>
       </c>
@@ -6103,7 +6105,7 @@
         <v>179223.451</v>
       </c>
     </row>
-    <row r="5" spans="1:32" ht="20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" ht="18.75">
       <c r="A5" s="18" t="s">
         <v>35</v>
       </c>
@@ -6201,7 +6203,7 @@
         <v>180611.80600000001</v>
       </c>
     </row>
-    <row r="6" spans="1:32" ht="20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" ht="18.75">
       <c r="A6" s="18" t="s">
         <v>36</v>
       </c>
@@ -6299,7 +6301,7 @@
         <v>189856.70600000001</v>
       </c>
     </row>
-    <row r="7" spans="1:32" ht="20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" ht="18.75">
       <c r="A7" s="18" t="s">
         <v>37</v>
       </c>
@@ -6397,7 +6399,7 @@
         <v>219141.84700000001</v>
       </c>
     </row>
-    <row r="8" spans="1:32" ht="20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" ht="18.75">
       <c r="A8" s="18" t="s">
         <v>38</v>
       </c>
@@ -6495,7 +6497,7 @@
         <v>219060.592</v>
       </c>
     </row>
-    <row r="9" spans="1:32" ht="20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" ht="18.75">
       <c r="A9" s="21" t="s">
         <v>39</v>
       </c>
@@ -6593,7 +6595,7 @@
         <v>231122.49200000003</v>
       </c>
     </row>
-    <row r="10" spans="1:32" ht="20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" ht="18.75">
       <c r="A10" s="21" t="s">
         <v>40</v>
       </c>
@@ -6691,7 +6693,7 @@
         <v>256743.10100000002</v>
       </c>
     </row>
-    <row r="11" spans="1:32" ht="20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" ht="18.75">
       <c r="A11" s="21" t="s">
         <v>41</v>
       </c>
@@ -6789,7 +6791,7 @@
         <v>271765.11700000003</v>
       </c>
     </row>
-    <row r="12" spans="1:32" ht="20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" ht="18.75">
       <c r="A12" s="21" t="s">
         <v>42</v>
       </c>
@@ -6887,7 +6889,7 @@
         <v>273739.91000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:32" ht="20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" ht="18.75">
       <c r="A13" s="21" t="s">
         <v>43</v>
       </c>
@@ -6985,7 +6987,7 @@
         <v>298954.25300000003</v>
       </c>
     </row>
-    <row r="14" spans="1:32" ht="20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" ht="18.75">
       <c r="A14" s="21" t="s">
         <v>44</v>
       </c>
@@ -7083,7 +7085,7 @@
         <v>339993.39600000001</v>
       </c>
     </row>
-    <row r="15" spans="1:32" ht="20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" ht="18.75">
       <c r="A15" s="21" t="s">
         <v>45</v>
       </c>
@@ -7181,7 +7183,7 @@
         <v>438555.44500000001</v>
       </c>
     </row>
-    <row r="16" spans="1:32" ht="20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" ht="18.75">
       <c r="A16" s="21" t="s">
         <v>46</v>
       </c>
@@ -7279,7 +7281,7 @@
         <v>379657.777</v>
       </c>
     </row>
-    <row r="17" spans="1:32" ht="20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" ht="18.75">
       <c r="A17" s="21" t="s">
         <v>47</v>
       </c>
@@ -7377,7 +7379,7 @@
         <v>427733.43600000005</v>
       </c>
     </row>
-    <row r="18" spans="1:32" ht="20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" ht="18.75">
       <c r="A18" s="18" t="s">
         <v>48</v>
       </c>
@@ -7475,7 +7477,7 @@
         <v>365800.94500000001</v>
       </c>
     </row>
-    <row r="19" spans="1:32" ht="20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32" ht="18.75">
       <c r="A19" s="18" t="s">
         <v>49</v>
       </c>
@@ -7573,7 +7575,7 @@
         <v>378620.53700000001</v>
       </c>
     </row>
-    <row r="20" spans="1:32" ht="20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32" ht="18.75">
       <c r="A20" s="18" t="s">
         <v>50</v>
       </c>
@@ -7671,7 +7673,7 @@
         <v>461789.49600000004</v>
       </c>
     </row>
-    <row r="21" spans="1:32" ht="20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32" ht="18.75">
       <c r="A21" s="18" t="s">
         <v>51</v>
       </c>
@@ -7769,7 +7771,7 @@
         <v>417614.34099999996</v>
       </c>
     </row>
-    <row r="22" spans="1:32" ht="20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:32" ht="18.75">
       <c r="A22" s="18" t="s">
         <v>52</v>
       </c>
@@ -7867,7 +7869,7 @@
         <v>468325.83400000003</v>
       </c>
     </row>
-    <row r="23" spans="1:32" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:32" ht="18.75">
       <c r="A23" s="18">
         <v>2016</v>
       </c>
@@ -7965,7 +7967,7 @@
         <v>444803.565</v>
       </c>
     </row>
-    <row r="24" spans="1:32" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32" ht="18.75">
       <c r="A24" s="18">
         <v>2017</v>
       </c>
@@ -8063,7 +8065,7 @@
         <v>449602.96699999995</v>
       </c>
     </row>
-    <row r="25" spans="1:32" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32" ht="18.75">
       <c r="A25" s="18">
         <v>2018</v>
       </c>

--- a/process_data/GPP_6210501001_real.xlsx
+++ b/process_data/GPP_6210501001_real.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pantc\Documents\final_stat_pant\process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pantchanit/Documents/final_stat_pant/process_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1782588E-ED57-4A82-A9AB-2179C49CB12D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31ADC6E3-D1B3-9C43-8C6C-565B4A353339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{F412434C-C783-6D4A-8278-77BCBC527C82}"/>
+    <workbookView xWindow="5300" yWindow="1060" windowWidth="29040" windowHeight="17920" xr2:uid="{F412434C-C783-6D4A-8278-77BCBC527C82}"/>
   </bookViews>
   <sheets>
     <sheet name="Ayutthaya" sheetId="1" r:id="rId1"/>
     <sheet name="LopBuri" sheetId="2" r:id="rId2"/>
     <sheet name="SingBuri" sheetId="3" r:id="rId3"/>
+    <sheet name="ForCluster" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="58">
   <si>
     <t>Year</t>
   </si>
@@ -204,16 +205,13 @@
     <t>1996</t>
   </si>
   <si>
-    <t>เนื้อที่สำหรับปลูกพืชไร่ (ไร่)</t>
-  </si>
-  <si>
     <t>เนื้อที่สำหรับปลูกนาข้าว (ไร่)</t>
   </si>
   <si>
-    <t xml:space="preserve">	154929</t>
+    <t>Water supply sewerage, waste management and remediation activities</t>
   </si>
   <si>
-    <t>Water supply sewerage, waste management and remediation activities</t>
+    <t>เนื้อที่สวนผักและไม้ดอก (ไร่)</t>
   </si>
 </sst>
 </file>
@@ -223,7 +221,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-1010409]#,##0;\-#,##0"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -281,6 +279,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -344,7 +348,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -432,6 +436,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -750,21 +757,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{559AE083-E2E3-E54E-9D32-3D8C6F89AA68}">
   <dimension ref="A1:AF26"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="Z1" sqref="Z1"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB21" sqref="AB21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="21" max="21" width="35.375" customWidth="1"/>
+    <col min="21" max="21" width="35.33203125" customWidth="1"/>
     <col min="25" max="25" width="15" customWidth="1"/>
     <col min="26" max="26" width="58" customWidth="1"/>
-    <col min="27" max="27" width="38.625" customWidth="1"/>
-    <col min="29" max="29" width="40.125" customWidth="1"/>
+    <col min="27" max="27" width="38.6640625" customWidth="1"/>
+    <col min="28" max="28" width="25.1640625" customWidth="1"/>
+    <col min="29" max="29" width="40.1640625" customWidth="1"/>
     <col min="30" max="30" width="46" customWidth="1"/>
+    <col min="31" max="31" width="38.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="168.75">
+    <row r="1" spans="1:32" ht="180" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -781,7 +790,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>6</v>
@@ -850,10 +859,10 @@
         <v>26</v>
       </c>
       <c r="AC1" s="4" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="AD1" s="4" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="AE1" s="4" t="s">
         <v>27</v>
@@ -862,7 +871,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:32" ht="18.75">
+    <row r="2" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1995</v>
       </c>
@@ -948,10 +957,10 @@
         <v>1141681.3373884801</v>
       </c>
       <c r="AC2" s="14">
-        <v>205980</v>
+        <v>9067.8114134200005</v>
       </c>
       <c r="AD2" s="14">
-        <v>8723</v>
+        <v>1064454.4604503601</v>
       </c>
       <c r="AE2" s="14">
         <v>178</v>
@@ -960,7 +969,7 @@
         <v>143862.554</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="18.75">
+    <row r="3" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1996</v>
       </c>
@@ -1046,10 +1055,10 @@
         <v>1144784.2627945901</v>
       </c>
       <c r="AC3" s="14">
-        <v>297246</v>
+        <v>9114.3264204999996</v>
       </c>
       <c r="AD3" s="14">
-        <v>8723</v>
+        <v>1064305.7404002501</v>
       </c>
       <c r="AE3" s="14">
         <v>172</v>
@@ -1058,7 +1067,7 @@
         <v>171503.91700000002</v>
       </c>
     </row>
-    <row r="4" spans="1:32" ht="18.75">
+    <row r="4" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1997</v>
       </c>
@@ -1144,10 +1153,10 @@
         <v>1145650.83142842</v>
       </c>
       <c r="AC4" s="14">
-        <v>322734</v>
+        <v>9127.31688622</v>
       </c>
       <c r="AD4" s="14">
-        <v>8723</v>
+        <v>1064264.2066494301</v>
       </c>
       <c r="AE4" s="14">
         <v>170</v>
@@ -1156,7 +1165,7 @@
         <v>179223.451</v>
       </c>
     </row>
-    <row r="5" spans="1:32" ht="18.75">
+    <row r="5" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1998</v>
       </c>
@@ -1242,10 +1251,10 @@
         <v>1145806.68343912</v>
       </c>
       <c r="AC5" s="14">
-        <v>327318</v>
+        <v>9129.6532161100004</v>
       </c>
       <c r="AD5" s="14">
-        <v>10418</v>
+        <v>1064256.7368215099</v>
       </c>
       <c r="AE5" s="14">
         <v>170</v>
@@ -1254,7 +1263,7 @@
         <v>180611.80600000001</v>
       </c>
     </row>
-    <row r="6" spans="1:32" ht="18.75">
+    <row r="6" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1999</v>
       </c>
@@ -1340,10 +1349,10 @@
         <v>1146844.48447256</v>
       </c>
       <c r="AC6" s="14">
-        <v>357842</v>
+        <v>9145.2105744399996</v>
       </c>
       <c r="AD6" s="14">
-        <v>21707</v>
+        <v>1064206.9960764099</v>
       </c>
       <c r="AE6" s="14">
         <v>168</v>
@@ -1352,7 +1361,7 @@
         <v>189856.70600000001</v>
       </c>
     </row>
-    <row r="7" spans="1:32" ht="18.75">
+    <row r="7" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2000</v>
       </c>
@@ -1438,10 +1447,10 @@
         <v>1150131.9348067001</v>
       </c>
       <c r="AC7" s="14">
-        <v>454535</v>
+        <v>9194.4917383499997</v>
       </c>
       <c r="AD7" s="14">
-        <v>57468</v>
+        <v>1064049.4319346901</v>
       </c>
       <c r="AE7" s="14">
         <v>162</v>
@@ -1450,7 +1459,7 @@
         <v>219141.84700000001</v>
       </c>
     </row>
-    <row r="8" spans="1:32" ht="18.75">
+    <row r="8" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2001</v>
       </c>
@@ -1536,10 +1545,10 @@
         <v>1150122.81339674</v>
       </c>
       <c r="AC8" s="14">
-        <v>454267</v>
+        <v>9194.3550020799994</v>
       </c>
       <c r="AD8" s="14">
-        <v>57369</v>
+        <v>1064049.8691145701</v>
       </c>
       <c r="AE8" s="14">
         <v>162</v>
@@ -1548,7 +1557,7 @@
         <v>219060.592</v>
       </c>
     </row>
-    <row r="9" spans="1:32" ht="18.75">
+    <row r="9" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2002</v>
       </c>
@@ -1634,10 +1643,10 @@
         <v>1151476.8412699699</v>
       </c>
       <c r="AC9" s="14">
-        <v>494093</v>
+        <v>9214.6528203899998</v>
       </c>
       <c r="AD9" s="14">
-        <v>72098</v>
+        <v>1063984.97193955</v>
       </c>
       <c r="AE9" s="14">
         <v>159</v>
@@ -1646,7 +1655,7 @@
         <v>231122.49200000003</v>
       </c>
     </row>
-    <row r="10" spans="1:32" ht="18.75">
+    <row r="10" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2003</v>
       </c>
@@ -1732,10 +1741,10 @@
         <v>1154352.9237043301</v>
       </c>
       <c r="AC10" s="14">
-        <v>578686</v>
+        <v>9257.7672937499992</v>
       </c>
       <c r="AD10" s="14">
-        <v>103384</v>
+        <v>1063847.12424173</v>
       </c>
       <c r="AE10" s="14">
         <v>153</v>
@@ -1744,7 +1753,7 @@
         <v>256743.10100000002</v>
       </c>
     </row>
-    <row r="11" spans="1:32" ht="18.75">
+    <row r="11" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2004</v>
       </c>
@@ -1830,10 +1839,10 @@
         <v>1156039.24413279</v>
       </c>
       <c r="AC11" s="14">
-        <v>628285</v>
+        <v>9283.0464082599992</v>
       </c>
       <c r="AD11" s="14">
-        <v>121727</v>
+        <v>1063766.3006234299</v>
       </c>
       <c r="AE11" s="14">
         <v>150</v>
@@ -1842,7 +1851,7 @@
         <v>271765.11700000003</v>
       </c>
     </row>
-    <row r="12" spans="1:32" ht="18.75">
+    <row r="12" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2005</v>
       </c>
@@ -1928,10 +1937,10 @@
         <v>1156260.9276789899</v>
       </c>
       <c r="AC12" s="14">
-        <v>634806</v>
+        <v>9286.3695986000002</v>
       </c>
       <c r="AD12" s="14">
-        <v>124139</v>
+        <v>1063755.67555715</v>
       </c>
       <c r="AE12" s="14">
         <v>150</v>
@@ -1940,7 +1949,7 @@
         <v>273739.91000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:32" ht="18.75">
+    <row r="13" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2006</v>
       </c>
@@ -2026,10 +2035,10 @@
         <v>1159091.40407385</v>
       </c>
       <c r="AC13" s="14">
-        <v>718058</v>
-      </c>
-      <c r="AD13" s="14" t="s">
-        <v>57</v>
+        <v>9328.8004057500002</v>
+      </c>
+      <c r="AD13" s="14">
+        <v>1063620.01371029</v>
       </c>
       <c r="AE13" s="14">
         <v>144</v>
@@ -2038,7 +2047,7 @@
         <v>298954.25300000003</v>
       </c>
     </row>
-    <row r="14" spans="1:32" ht="18.75">
+    <row r="14" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>2007</v>
       </c>
@@ -2124,10 +2133,10 @@
         <v>1163698.31869885</v>
       </c>
       <c r="AC14" s="14">
-        <v>853560</v>
+        <v>9397.8612558599998</v>
       </c>
       <c r="AD14" s="14">
-        <v>205042</v>
+        <v>1063399.20899081</v>
       </c>
       <c r="AE14" s="14">
         <v>135</v>
@@ -2136,7 +2145,7 @@
         <v>339993.39600000001</v>
       </c>
     </row>
-    <row r="15" spans="1:32" ht="18.75">
+    <row r="15" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>2008</v>
       </c>
@@ -2222,10 +2231,10 @@
         <v>1174762.5591243601</v>
       </c>
       <c r="AC15" s="14">
-        <v>1178989</v>
+        <v>9563.72190486</v>
       </c>
       <c r="AD15" s="14">
-        <v>325398</v>
+        <v>1062868.9112314</v>
       </c>
       <c r="AE15" s="14">
         <v>114</v>
@@ -2234,7 +2243,7 @@
         <v>438555.44500000001</v>
       </c>
     </row>
-    <row r="16" spans="1:32" ht="18.75">
+    <row r="16" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2009</v>
       </c>
@@ -2320,10 +2329,10 @@
         <v>1168150.90721711</v>
       </c>
       <c r="AC16" s="14">
-        <v>984523</v>
+        <v>9464.6086504399991</v>
       </c>
       <c r="AD16" s="14">
-        <v>253477</v>
+        <v>1063185.80096423</v>
       </c>
       <c r="AE16" s="14">
         <v>127</v>
@@ -2332,7 +2341,7 @@
         <v>379657.777</v>
       </c>
     </row>
-    <row r="17" spans="1:32" ht="18.75">
+    <row r="17" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>2010</v>
       </c>
@@ -2417,11 +2426,11 @@
       <c r="AB17" s="12">
         <v>1155861</v>
       </c>
-      <c r="AC17" s="17">
-        <v>1068404</v>
-      </c>
-      <c r="AD17" s="17">
-        <v>241583</v>
+      <c r="AC17" s="32">
+        <v>9042</v>
+      </c>
+      <c r="AD17" s="32">
+        <v>1046128</v>
       </c>
       <c r="AE17" s="14">
         <v>116</v>
@@ -2430,7 +2439,7 @@
         <v>427733.43600000005</v>
       </c>
     </row>
-    <row r="18" spans="1:32" ht="18.75">
+    <row r="18" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>2011</v>
       </c>
@@ -2515,11 +2524,11 @@
       <c r="AB18" s="12">
         <v>1158113</v>
       </c>
-      <c r="AC18" s="17">
-        <v>851323</v>
-      </c>
-      <c r="AD18" s="17">
-        <v>176974</v>
+      <c r="AC18" s="32">
+        <v>9461</v>
+      </c>
+      <c r="AD18" s="32">
+        <v>1065030</v>
       </c>
       <c r="AE18" s="5">
         <v>147</v>
@@ -2528,7 +2537,7 @@
         <v>365800.94500000001</v>
       </c>
     </row>
-    <row r="19" spans="1:32" ht="18.75">
+    <row r="19" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>2012</v>
       </c>
@@ -2613,11 +2622,11 @@
       <c r="AB19" s="12">
         <v>1180726</v>
       </c>
-      <c r="AC19" s="17">
-        <v>1068100</v>
-      </c>
-      <c r="AD19" s="17">
-        <v>319872</v>
+      <c r="AC19" s="32">
+        <v>9598</v>
+      </c>
+      <c r="AD19" s="32">
+        <v>1065565</v>
       </c>
       <c r="AE19" s="5">
         <v>109</v>
@@ -2626,7 +2635,7 @@
         <v>378620.53700000001</v>
       </c>
     </row>
-    <row r="20" spans="1:32" ht="18.75">
+    <row r="20" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>2013</v>
       </c>
@@ -2711,11 +2720,11 @@
       <c r="AB20" s="12">
         <v>1177369</v>
       </c>
-      <c r="AC20" s="17">
-        <v>1073412</v>
-      </c>
-      <c r="AD20" s="17">
-        <v>319845</v>
+      <c r="AC20" s="32">
+        <v>9573.8304647791701</v>
+      </c>
+      <c r="AD20" s="32">
+        <v>1065335.81531144</v>
       </c>
       <c r="AE20" s="5">
         <v>93</v>
@@ -2724,7 +2733,7 @@
         <v>461789.49600000004</v>
       </c>
     </row>
-    <row r="21" spans="1:32" ht="18.75">
+    <row r="21" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>2014</v>
       </c>
@@ -2809,11 +2818,11 @@
       <c r="AB21" s="12">
         <v>1178443</v>
       </c>
-      <c r="AC21" s="17">
-        <v>1142119</v>
-      </c>
-      <c r="AD21" s="17">
-        <v>343339</v>
+      <c r="AC21" s="32">
+        <v>9510</v>
+      </c>
+      <c r="AD21" s="32">
+        <v>1065583</v>
       </c>
       <c r="AE21" s="5">
         <v>117</v>
@@ -2822,7 +2831,7 @@
         <v>417614.34099999996</v>
       </c>
     </row>
-    <row r="22" spans="1:32" ht="18.75">
+    <row r="22" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>2015</v>
       </c>
@@ -2907,11 +2916,11 @@
       <c r="AB22" s="12">
         <v>1177896</v>
       </c>
-      <c r="AC22" s="17">
-        <v>1205428</v>
-      </c>
-      <c r="AD22" s="17">
-        <v>343180</v>
+      <c r="AC22" s="32">
+        <v>9500</v>
+      </c>
+      <c r="AD22" s="32">
+        <v>1065016</v>
       </c>
       <c r="AE22" s="5">
         <v>132</v>
@@ -2920,7 +2929,7 @@
         <v>468325.83400000003</v>
       </c>
     </row>
-    <row r="23" spans="1:32" ht="18.75">
+    <row r="23" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>2016</v>
       </c>
@@ -3005,11 +3014,11 @@
       <c r="AB23" s="12">
         <v>1178345</v>
       </c>
-      <c r="AC23" s="17">
-        <v>1237790</v>
-      </c>
-      <c r="AD23" s="17">
-        <v>345115</v>
+      <c r="AC23" s="32">
+        <v>9711</v>
+      </c>
+      <c r="AD23" s="32">
+        <v>1065315</v>
       </c>
       <c r="AE23" s="5">
         <v>121</v>
@@ -3018,7 +3027,7 @@
         <v>444803.565</v>
       </c>
     </row>
-    <row r="24" spans="1:32" ht="18.75">
+    <row r="24" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>2017</v>
       </c>
@@ -3103,11 +3112,11 @@
       <c r="AB24" s="12">
         <v>1178698</v>
       </c>
-      <c r="AC24" s="17">
-        <v>1281574</v>
-      </c>
-      <c r="AD24" s="17">
-        <v>355607</v>
+      <c r="AC24" s="32">
+        <v>9720</v>
+      </c>
+      <c r="AD24" s="32">
+        <v>1065376</v>
       </c>
       <c r="AE24" s="5">
         <v>117</v>
@@ -3116,7 +3125,7 @@
         <v>449602.96699999995</v>
       </c>
     </row>
-    <row r="25" spans="1:32" ht="18.75">
+    <row r="25" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>2018</v>
       </c>
@@ -3201,11 +3210,11 @@
       <c r="AB25" s="12">
         <v>1178475</v>
       </c>
-      <c r="AC25" s="17">
-        <v>1354163</v>
-      </c>
-      <c r="AD25" s="17">
-        <v>369547</v>
+      <c r="AC25" s="32">
+        <v>9713</v>
+      </c>
+      <c r="AD25" s="32">
+        <v>1065197</v>
       </c>
       <c r="AE25" s="5">
         <v>96</v>
@@ -3214,7 +3223,7 @@
         <v>454952.54100000003</v>
       </c>
     </row>
-    <row r="26" spans="1:32">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
       <c r="Z26" s="16"/>
     </row>
   </sheetData>
@@ -3227,21 +3236,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8095EF19-8E19-0747-84C0-9C329A469980}">
   <dimension ref="A1:AF25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AE1" sqref="AE1"/>
+    <sheetView topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AC1" sqref="AC1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="26" max="26" width="24.5" customWidth="1"/>
     <col min="27" max="27" width="31" customWidth="1"/>
-    <col min="28" max="28" width="25.125" customWidth="1"/>
-    <col min="29" max="29" width="29.875" customWidth="1"/>
+    <col min="28" max="28" width="25.1640625" customWidth="1"/>
+    <col min="29" max="29" width="29.83203125" customWidth="1"/>
     <col min="30" max="30" width="30" customWidth="1"/>
     <col min="31" max="31" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="168.75">
+    <row r="1" spans="1:32" ht="180" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -3327,10 +3336,10 @@
         <v>26</v>
       </c>
       <c r="AC1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD1" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="AD1" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="AE1" s="4" t="s">
         <v>27</v>
@@ -3339,7 +3348,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:32" ht="18.75">
+    <row r="2" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>33</v>
       </c>
@@ -3425,7 +3434,7 @@
         <v>2918084.49750019</v>
       </c>
       <c r="AC2" s="14">
-        <v>1193554.5308516501</v>
+        <v>20481.606762759999</v>
       </c>
       <c r="AD2" s="14">
         <v>813441.82643234998</v>
@@ -3437,7 +3446,7 @@
         <v>143862.554</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="18.75">
+    <row r="3" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="18">
         <v>1996</v>
       </c>
@@ -3523,7 +3532,7 @@
         <v>2855554.7635296802</v>
       </c>
       <c r="AC3" s="14">
-        <v>1188872.0188500399</v>
+        <v>20481.86001665</v>
       </c>
       <c r="AD3" s="14">
         <v>813529.79148508003</v>
@@ -3535,7 +3544,7 @@
         <v>171503.91700000002</v>
       </c>
     </row>
-    <row r="4" spans="1:32" ht="18.75">
+    <row r="4" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>34</v>
       </c>
@@ -3621,7 +3630,7 @@
         <v>2838091.7893848699</v>
       </c>
       <c r="AC4" s="14">
-        <v>1187564.31160702</v>
+        <v>20481.930744059999</v>
       </c>
       <c r="AD4" s="14">
         <v>813554.35790082999</v>
@@ -3633,7 +3642,7 @@
         <v>179223.451</v>
       </c>
     </row>
-    <row r="5" spans="1:32" ht="18.75">
+    <row r="5" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>35</v>
       </c>
@@ -3719,7 +3728,7 @@
         <v>2834951.0807010601</v>
       </c>
       <c r="AC5" s="14">
-        <v>1187329.12099974</v>
+        <v>20481.943464349999</v>
       </c>
       <c r="AD5" s="14">
         <v>813558.77616054995</v>
@@ -3731,7 +3740,7 @@
         <v>180611.80600000001</v>
       </c>
     </row>
-    <row r="6" spans="1:32" ht="18.75">
+    <row r="6" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>36</v>
       </c>
@@ -3817,7 +3826,7 @@
         <v>2814037.4543511602</v>
       </c>
       <c r="AC6" s="14">
-        <v>1185763.01316332</v>
+        <v>20482.028167370001</v>
       </c>
       <c r="AD6" s="14">
         <v>813588.19685575995</v>
@@ -3829,7 +3838,7 @@
         <v>189856.70600000001</v>
       </c>
     </row>
-    <row r="7" spans="1:32" ht="18.75">
+    <row r="7" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>37</v>
       </c>
@@ -3915,7 +3924,7 @@
         <v>2747789.19893703</v>
       </c>
       <c r="AC7" s="14">
-        <v>1180802.0412965801</v>
+        <v>20482.296481779998</v>
       </c>
       <c r="AD7" s="14">
         <v>813681.39301879006</v>
@@ -3927,7 +3936,7 @@
         <v>219141.84700000001</v>
       </c>
     </row>
-    <row r="8" spans="1:32" ht="18.75">
+    <row r="8" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>38</v>
       </c>
@@ -4013,7 +4022,7 @@
         <v>2747973.0123594599</v>
       </c>
       <c r="AC8" s="14">
-        <v>1180815.80608498</v>
+        <v>20482.29573731</v>
       </c>
       <c r="AD8" s="14">
         <v>813681.13443529001</v>
@@ -4025,7 +4034,7 @@
         <v>219060.592</v>
       </c>
     </row>
-    <row r="9" spans="1:32" ht="18.75">
+    <row r="9" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
         <v>39</v>
       </c>
@@ -4111,7 +4120,7 @@
         <v>2720686.8254164099</v>
       </c>
       <c r="AC9" s="14">
-        <v>1178772.4918130899</v>
+        <v>20482.406250060001</v>
       </c>
       <c r="AD9" s="14">
         <v>813719.51986763999</v>
@@ -4123,7 +4132,7 @@
         <v>231122.49200000003</v>
       </c>
     </row>
-    <row r="10" spans="1:32" ht="18.75">
+    <row r="10" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
         <v>40</v>
       </c>
@@ -4209,7 +4218,7 @@
         <v>2662728.40039474</v>
       </c>
       <c r="AC10" s="14">
-        <v>1174432.30029898</v>
+        <v>20482.640989520001</v>
       </c>
       <c r="AD10" s="14">
         <v>813801.05413285003</v>
@@ -4221,7 +4230,7 @@
         <v>256743.10100000002</v>
       </c>
     </row>
-    <row r="11" spans="1:32" ht="18.75">
+    <row r="11" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
         <v>41</v>
       </c>
@@ -4307,7 +4316,7 @@
         <v>2628745.89872937</v>
       </c>
       <c r="AC11" s="14">
-        <v>1171887.5354041201</v>
+        <v>20482.778623260001</v>
       </c>
       <c r="AD11" s="14">
         <v>813848.85975046002</v>
@@ -4319,7 +4328,7 @@
         <v>271765.11700000003</v>
       </c>
     </row>
-    <row r="12" spans="1:32" ht="18.75">
+    <row r="12" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
         <v>42</v>
       </c>
@@ -4405,7 +4414,7 @@
         <v>2624278.5618278999</v>
       </c>
       <c r="AC12" s="14">
-        <v>1171553.00081828</v>
+        <v>20482.79671658</v>
       </c>
       <c r="AD12" s="14">
         <v>813855.14427305001</v>
@@ -4417,7 +4426,7 @@
         <v>273739.91000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:32" ht="18.75">
+    <row r="13" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
         <v>43</v>
       </c>
@@ -4503,7 +4512,7 @@
         <v>2567239.1835587798</v>
       </c>
       <c r="AC13" s="14">
-        <v>1167281.6317215301</v>
+        <v>20483.02773378</v>
       </c>
       <c r="AD13" s="14">
         <v>813935.38564941997</v>
@@ -4515,7 +4524,7 @@
         <v>298954.25300000003</v>
       </c>
     </row>
-    <row r="14" spans="1:32" ht="18.75">
+    <row r="14" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
         <v>44</v>
       </c>
@@ -4601,7 +4610,7 @@
         <v>2474401.2618482099</v>
       </c>
       <c r="AC14" s="14">
-        <v>1160329.50422936</v>
+        <v>20483.40373993</v>
       </c>
       <c r="AD14" s="14">
         <v>814065.98739934003</v>
@@ -4613,7 +4622,7 @@
         <v>339993.39600000001</v>
       </c>
     </row>
-    <row r="15" spans="1:32" ht="18.75">
+    <row r="15" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
         <v>45</v>
       </c>
@@ -4699,7 +4708,7 @@
         <v>2251436.1821754798</v>
       </c>
       <c r="AC15" s="14">
-        <v>1143632.8609652</v>
+        <v>20484.306778689999</v>
       </c>
       <c r="AD15" s="14">
         <v>814379.64833702997</v>
@@ -4711,7 +4720,7 @@
         <v>438555.44500000001</v>
       </c>
     </row>
-    <row r="16" spans="1:32" ht="18.75">
+    <row r="16" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
         <v>46</v>
       </c>
@@ -4797,7 +4806,7 @@
         <v>2384673.2990109599</v>
       </c>
       <c r="AC16" s="14">
-        <v>1153610.2646582499</v>
+        <v>20483.767150330001</v>
       </c>
       <c r="AD16" s="14">
         <v>814192.2141475</v>
@@ -4809,7 +4818,7 @@
         <v>379657.777</v>
       </c>
     </row>
-    <row r="17" spans="1:32" ht="18.75">
+    <row r="17" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
         <v>47</v>
       </c>
@@ -4894,8 +4903,8 @@
       <c r="AB17" s="12">
         <v>2541350</v>
       </c>
-      <c r="AC17" s="28">
-        <v>1149975</v>
+      <c r="AC17" s="32">
+        <v>20343</v>
       </c>
       <c r="AD17" s="28">
         <v>825214</v>
@@ -4907,7 +4916,7 @@
         <v>427733.43600000005</v>
       </c>
     </row>
-    <row r="18" spans="1:32" ht="18.75">
+    <row r="18" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>48</v>
       </c>
@@ -4992,8 +5001,8 @@
       <c r="AB18" s="12">
         <v>2541569</v>
       </c>
-      <c r="AC18" s="28">
-        <v>1154555</v>
+      <c r="AC18" s="32">
+        <v>20535</v>
       </c>
       <c r="AD18" s="28">
         <v>812779</v>
@@ -5005,7 +5014,7 @@
         <v>365800.94500000001</v>
       </c>
     </row>
-    <row r="19" spans="1:32" ht="18.75">
+    <row r="19" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
         <v>49</v>
       </c>
@@ -5090,8 +5099,8 @@
       <c r="AB19" s="12">
         <v>2196101</v>
       </c>
-      <c r="AC19" s="28">
-        <v>1153432</v>
+      <c r="AC19" s="32">
+        <v>20364</v>
       </c>
       <c r="AD19" s="28">
         <v>812975</v>
@@ -5103,7 +5112,7 @@
         <v>378620.53700000001</v>
       </c>
     </row>
-    <row r="20" spans="1:32" ht="18.75">
+    <row r="20" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
         <v>50</v>
       </c>
@@ -5188,8 +5197,8 @@
       <c r="AB20" s="12">
         <v>2189464</v>
       </c>
-      <c r="AC20" s="28">
-        <v>1153662</v>
+      <c r="AC20" s="32">
+        <v>20318.469064254801</v>
       </c>
       <c r="AD20" s="28">
         <v>812719</v>
@@ -5201,7 +5210,7 @@
         <v>461789.49600000004</v>
       </c>
     </row>
-    <row r="21" spans="1:32" ht="18.75">
+    <row r="21" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
         <v>51</v>
       </c>
@@ -5286,8 +5295,8 @@
       <c r="AB21" s="12">
         <v>2211616</v>
       </c>
-      <c r="AC21" s="28">
-        <v>1154050</v>
+      <c r="AC21" s="32">
+        <v>20634</v>
       </c>
       <c r="AD21" s="28">
         <v>812522</v>
@@ -5299,7 +5308,7 @@
         <v>417614.34099999996</v>
       </c>
     </row>
-    <row r="22" spans="1:32" ht="18.75">
+    <row r="22" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
         <v>52</v>
       </c>
@@ -5384,8 +5393,8 @@
       <c r="AB22" s="12">
         <v>2191974</v>
       </c>
-      <c r="AC22" s="28">
-        <v>1133959</v>
+      <c r="AC22" s="32">
+        <v>20630</v>
       </c>
       <c r="AD22" s="28">
         <v>813100</v>
@@ -5397,7 +5406,7 @@
         <v>468325.83400000003</v>
       </c>
     </row>
-    <row r="23" spans="1:32" ht="18.75">
+    <row r="23" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="18">
         <v>2016</v>
       </c>
@@ -5482,8 +5491,8 @@
       <c r="AB23" s="12">
         <v>2191454</v>
       </c>
-      <c r="AC23" s="28">
-        <v>1133991</v>
+      <c r="AC23" s="32">
+        <v>20629</v>
       </c>
       <c r="AD23" s="28">
         <v>812485</v>
@@ -5495,7 +5504,7 @@
         <v>444803.565</v>
       </c>
     </row>
-    <row r="24" spans="1:32" ht="18.75">
+    <row r="24" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="18">
         <v>2017</v>
       </c>
@@ -5580,8 +5589,8 @@
       <c r="AB24" s="12">
         <v>2191311</v>
       </c>
-      <c r="AC24" s="28">
-        <v>1133430</v>
+      <c r="AC24" s="32">
+        <v>20523</v>
       </c>
       <c r="AD24" s="28">
         <v>813167</v>
@@ -5593,7 +5602,7 @@
         <v>449602.96699999995</v>
       </c>
     </row>
-    <row r="25" spans="1:32" ht="18.75">
+    <row r="25" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="18">
         <v>2018</v>
       </c>
@@ -5678,8 +5687,8 @@
       <c r="AB25" s="12">
         <v>2191867</v>
       </c>
-      <c r="AC25" s="28">
-        <v>1134183</v>
+      <c r="AC25" s="32">
+        <v>20527</v>
       </c>
       <c r="AD25" s="28">
         <v>812834</v>
@@ -5693,6 +5702,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -5700,20 +5710,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFDC5115-B989-7240-9B3D-AF4C2FACAEF3}">
   <dimension ref="A1:AF25"/>
   <sheetViews>
-    <sheetView topLeftCell="U10" workbookViewId="0">
-      <selection activeCell="AD9" sqref="AD9"/>
+    <sheetView topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AC1" sqref="AC1:AD25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="26" max="26" width="23.375" customWidth="1"/>
-    <col min="27" max="27" width="35.875" customWidth="1"/>
-    <col min="28" max="29" width="30.875" customWidth="1"/>
-    <col min="30" max="30" width="20.125" customWidth="1"/>
-    <col min="31" max="31" width="21.625" customWidth="1"/>
+    <col min="26" max="26" width="23.33203125" customWidth="1"/>
+    <col min="27" max="27" width="35.83203125" customWidth="1"/>
+    <col min="28" max="29" width="30.83203125" customWidth="1"/>
+    <col min="30" max="30" width="20.1640625" customWidth="1"/>
+    <col min="31" max="31" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="168.75">
+    <row r="1" spans="1:32" ht="180" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -5799,10 +5809,10 @@
         <v>26</v>
       </c>
       <c r="AC1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD1" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="AD1" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="AE1" s="4" t="s">
         <v>27</v>
@@ -5811,7 +5821,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:32" ht="18.75">
+    <row r="2" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>33</v>
       </c>
@@ -5896,8 +5906,8 @@
       <c r="AB2" s="29">
         <v>407634.68248070998</v>
       </c>
-      <c r="AC2" s="29">
-        <v>110908.82713931</v>
+      <c r="AC2" s="14">
+        <v>2134.56825574</v>
       </c>
       <c r="AD2" s="29">
         <v>342336.26697966998</v>
@@ -5909,7 +5919,7 @@
         <v>143862.554</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="18.75">
+    <row r="3" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>54</v>
       </c>
@@ -5994,8 +6004,8 @@
       <c r="AB3" s="29">
         <v>414866.32629838999</v>
       </c>
-      <c r="AC3" s="29">
-        <v>110942.84888410001</v>
+      <c r="AC3" s="14">
+        <v>2150.25363505</v>
       </c>
       <c r="AD3" s="29">
         <v>342215.98331415001</v>
@@ -6007,7 +6017,7 @@
         <v>171503.91700000002</v>
       </c>
     </row>
-    <row r="4" spans="1:32" ht="18.75">
+    <row r="4" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>34</v>
       </c>
@@ -6092,8 +6102,8 @@
       <c r="AB4" s="29">
         <v>416885.94162366999</v>
       </c>
-      <c r="AC4" s="29">
-        <v>110952.35029746</v>
+      <c r="AC4" s="14">
+        <v>2154.6341650099998</v>
       </c>
       <c r="AD4" s="29">
         <v>342182.39112675999</v>
@@ -6105,7 +6115,7 @@
         <v>179223.451</v>
       </c>
     </row>
-    <row r="5" spans="1:32" ht="18.75">
+    <row r="5" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>35</v>
       </c>
@@ -6190,8 +6200,8 @@
       <c r="AB5" s="29">
         <v>417249.16860536003</v>
       </c>
-      <c r="AC5" s="29">
-        <v>110954.05912273</v>
+      <c r="AC5" s="14">
+        <v>2155.4220015199999</v>
       </c>
       <c r="AD5" s="29">
         <v>342176.34958574001</v>
@@ -6203,7 +6213,7 @@
         <v>180611.80600000001</v>
       </c>
     </row>
-    <row r="6" spans="1:32" ht="18.75">
+    <row r="6" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>36</v>
       </c>
@@ -6288,8 +6298,8 @@
       <c r="AB6" s="29">
         <v>419667.85627753002</v>
       </c>
-      <c r="AC6" s="29">
-        <v>110965.43799823</v>
+      <c r="AC6" s="14">
+        <v>2160.6681163100002</v>
       </c>
       <c r="AD6" s="29">
         <v>342136.11964269</v>
@@ -6301,7 +6311,7 @@
         <v>189856.70600000001</v>
       </c>
     </row>
-    <row r="7" spans="1:32" ht="18.75">
+    <row r="7" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>37</v>
       </c>
@@ -6386,8 +6396,8 @@
       <c r="AB7" s="29">
         <v>427329.55186260998</v>
       </c>
-      <c r="AC7" s="29">
-        <v>111001.4829499</v>
+      <c r="AC7" s="14">
+        <v>2177.28627456</v>
       </c>
       <c r="AD7" s="29">
         <v>342008.68294194998</v>
@@ -6399,7 +6409,7 @@
         <v>219141.84700000001</v>
       </c>
     </row>
-    <row r="8" spans="1:32" ht="18.75">
+    <row r="8" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>38</v>
       </c>
@@ -6484,8 +6494,8 @@
       <c r="AB8" s="29">
         <v>427308.29360489</v>
       </c>
-      <c r="AC8" s="29">
-        <v>111001.38293902</v>
+      <c r="AC8" s="14">
+        <v>2177.24016557</v>
       </c>
       <c r="AD8" s="29">
         <v>342009.03652977</v>
@@ -6497,7 +6507,7 @@
         <v>219060.592</v>
       </c>
     </row>
-    <row r="9" spans="1:32" ht="18.75">
+    <row r="9" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
         <v>39</v>
       </c>
@@ -6582,8 +6592,8 @@
       <c r="AB9" s="29">
         <v>430463.97607122001</v>
       </c>
-      <c r="AC9" s="29">
-        <v>111016.2290551</v>
+      <c r="AC9" s="14">
+        <v>2184.08481635</v>
       </c>
       <c r="AD9" s="29">
         <v>341956.54817943001</v>
@@ -6595,7 +6605,7 @@
         <v>231122.49200000003</v>
       </c>
     </row>
-    <row r="10" spans="1:32" ht="18.75">
+    <row r="10" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
         <v>40</v>
       </c>
@@ -6680,8 +6690,8 @@
       <c r="AB10" s="29">
         <v>437166.94215433003</v>
       </c>
-      <c r="AC10" s="29">
-        <v>111047.76360065999</v>
+      <c r="AC10" s="14">
+        <v>2198.6234977600002</v>
       </c>
       <c r="AD10" s="29">
         <v>341845.05799121998</v>
@@ -6693,7 +6703,7 @@
         <v>256743.10100000002</v>
       </c>
     </row>
-    <row r="11" spans="1:32" ht="18.75">
+    <row r="11" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
         <v>41</v>
       </c>
@@ -6778,8 +6788,8 @@
       <c r="AB11" s="29">
         <v>441097.06199448998</v>
       </c>
-      <c r="AC11" s="29">
-        <v>111066.25310838</v>
+      <c r="AC11" s="14">
+        <v>2207.1478971900001</v>
       </c>
       <c r="AD11" s="29">
         <v>341779.68845254002</v>
@@ -6791,7 +6801,7 @@
         <v>271765.11700000003</v>
       </c>
     </row>
-    <row r="12" spans="1:32" ht="18.75">
+    <row r="12" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
         <v>42</v>
       </c>
@@ -6876,8 +6886,8 @@
       <c r="AB12" s="29">
         <v>441613.71522861999</v>
       </c>
-      <c r="AC12" s="29">
-        <v>111068.68373756</v>
+      <c r="AC12" s="14">
+        <v>2208.2685140399999</v>
       </c>
       <c r="AD12" s="29">
         <v>341771.09497830999</v>
@@ -6889,7 +6899,7 @@
         <v>273739.91000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:32" ht="18.75">
+    <row r="13" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
         <v>43</v>
       </c>
@@ -6974,8 +6984,8 @@
       <c r="AB13" s="29">
         <v>448210.39237775002</v>
       </c>
-      <c r="AC13" s="29">
-        <v>111099.71823981999</v>
+      <c r="AC13" s="14">
+        <v>2222.5766555800001</v>
       </c>
       <c r="AD13" s="29">
         <v>341661.37269003002</v>
@@ -6987,7 +6997,7 @@
         <v>298954.25300000003</v>
       </c>
     </row>
-    <row r="14" spans="1:32" ht="18.75">
+    <row r="14" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
         <v>44</v>
       </c>
@@ -7072,8 +7082,8 @@
       <c r="AB14" s="29">
         <v>458947.21692431002</v>
       </c>
-      <c r="AC14" s="29">
-        <v>111150.23033829</v>
+      <c r="AC14" s="14">
+        <v>2245.86474469</v>
       </c>
       <c r="AD14" s="29">
         <v>341482.78748242999</v>
@@ -7085,7 +7095,7 @@
         <v>339993.39600000001</v>
       </c>
     </row>
-    <row r="15" spans="1:32" ht="18.75">
+    <row r="15" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
         <v>45</v>
       </c>
@@ -7170,8 +7180,8 @@
       <c r="AB15" s="29">
         <v>484733.41394755</v>
       </c>
-      <c r="AC15" s="29">
-        <v>111271.54320109</v>
+      <c r="AC15" s="14">
+        <v>2301.7948058900001</v>
       </c>
       <c r="AD15" s="29">
         <v>341053.88661620999</v>
@@ -7183,7 +7193,7 @@
         <v>438555.44500000001</v>
       </c>
     </row>
-    <row r="16" spans="1:32" ht="18.75">
+    <row r="16" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
         <v>46</v>
       </c>
@@ -7268,8 +7278,8 @@
       <c r="AB16" s="29">
         <v>469324.37074414</v>
       </c>
-      <c r="AC16" s="29">
-        <v>111199.05034212999</v>
+      <c r="AC16" s="14">
+        <v>2268.37271078</v>
       </c>
       <c r="AD16" s="29">
         <v>341310.18466480001</v>
@@ -7281,7 +7291,7 @@
         <v>379657.777</v>
       </c>
     </row>
-    <row r="17" spans="1:32" ht="18.75">
+    <row r="17" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
         <v>47</v>
       </c>
@@ -7366,8 +7376,8 @@
       <c r="AB17" s="30">
         <v>449686</v>
       </c>
-      <c r="AC17" s="28">
-        <v>105867</v>
+      <c r="AC17" s="32">
+        <v>2268</v>
       </c>
       <c r="AD17" s="28">
         <v>313067</v>
@@ -7379,7 +7389,7 @@
         <v>427733.43600000005</v>
       </c>
     </row>
-    <row r="18" spans="1:32" ht="18.75">
+    <row r="18" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>48</v>
       </c>
@@ -7464,8 +7474,8 @@
       <c r="AB18" s="30">
         <v>449681</v>
       </c>
-      <c r="AC18" s="28">
-        <v>111656</v>
+      <c r="AC18" s="32">
+        <v>2284</v>
       </c>
       <c r="AD18" s="28">
         <v>344589</v>
@@ -7477,7 +7487,7 @@
         <v>365800.94500000001</v>
       </c>
     </row>
-    <row r="19" spans="1:32" ht="18.75">
+    <row r="19" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
         <v>49</v>
       </c>
@@ -7562,8 +7572,8 @@
       <c r="AB19" s="30">
         <v>492314</v>
       </c>
-      <c r="AC19" s="28">
-        <v>112165</v>
+      <c r="AC19" s="32">
+        <v>2261</v>
       </c>
       <c r="AD19" s="28">
         <v>345037</v>
@@ -7575,7 +7585,7 @@
         <v>378620.53700000001</v>
       </c>
     </row>
-    <row r="20" spans="1:32" ht="18.75">
+    <row r="20" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
         <v>50</v>
       </c>
@@ -7660,8 +7670,8 @@
       <c r="AB20" s="30">
         <v>491212</v>
       </c>
-      <c r="AC20" s="28">
-        <v>112054</v>
+      <c r="AC20" s="32">
+        <v>2261.3418506463099</v>
       </c>
       <c r="AD20" s="28">
         <v>345116</v>
@@ -7673,7 +7683,7 @@
         <v>461789.49600000004</v>
       </c>
     </row>
-    <row r="21" spans="1:32" ht="18.75">
+    <row r="21" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
         <v>51</v>
       </c>
@@ -7758,8 +7768,8 @@
       <c r="AB21" s="30">
         <v>491553</v>
       </c>
-      <c r="AC21" s="28">
-        <v>111942</v>
+      <c r="AC21" s="32">
+        <v>2241</v>
       </c>
       <c r="AD21" s="28">
         <v>345313</v>
@@ -7771,7 +7781,7 @@
         <v>417614.34099999996</v>
       </c>
     </row>
-    <row r="22" spans="1:32" ht="18.75">
+    <row r="22" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
         <v>52</v>
       </c>
@@ -7856,8 +7866,8 @@
       <c r="AB22" s="30">
         <v>491350</v>
       </c>
-      <c r="AC22" s="28">
-        <v>111778</v>
+      <c r="AC22" s="32">
+        <v>2353</v>
       </c>
       <c r="AD22" s="28">
         <v>345205</v>
@@ -7869,7 +7879,7 @@
         <v>468325.83400000003</v>
       </c>
     </row>
-    <row r="23" spans="1:32" ht="18.75">
+    <row r="23" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="18">
         <v>2016</v>
       </c>
@@ -7954,8 +7964,8 @@
       <c r="AB23" s="30">
         <v>491322</v>
       </c>
-      <c r="AC23" s="28">
-        <v>111677</v>
+      <c r="AC23" s="32">
+        <v>2348</v>
       </c>
       <c r="AD23" s="28">
         <v>345244</v>
@@ -7967,7 +7977,7 @@
         <v>444803.565</v>
       </c>
     </row>
-    <row r="24" spans="1:32" ht="18.75">
+    <row r="24" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="18">
         <v>2017</v>
       </c>
@@ -8052,8 +8062,8 @@
       <c r="AB24" s="30">
         <v>491855</v>
       </c>
-      <c r="AC24" s="28">
-        <v>112365</v>
+      <c r="AC24" s="32">
+        <v>2346</v>
       </c>
       <c r="AD24" s="28">
         <v>345124</v>
@@ -8065,7 +8075,7 @@
         <v>449602.96699999995</v>
       </c>
     </row>
-    <row r="25" spans="1:32" ht="18.75">
+    <row r="25" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="18">
         <v>2018</v>
       </c>
@@ -8150,8 +8160,8 @@
       <c r="AB25" s="30">
         <v>492113</v>
       </c>
-      <c r="AC25" s="28">
-        <v>112314</v>
+      <c r="AC25" s="32">
+        <v>2344</v>
       </c>
       <c r="AD25" s="28">
         <v>345409</v>
@@ -8160,6 +8170,414 @@
         <v>5</v>
       </c>
       <c r="AF25" s="23">
+        <v>454952.54100000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CF82F58-BF82-754E-AFDD-7AE5D19A8863}">
+  <dimension ref="A1:AF4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:32" ht="180" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF1" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B2" s="7">
+        <v>9196</v>
+      </c>
+      <c r="C2" s="7">
+        <v>2261</v>
+      </c>
+      <c r="D2" s="7">
+        <v>272229</v>
+      </c>
+      <c r="E2" s="7">
+        <v>6750</v>
+      </c>
+      <c r="F2" s="7">
+        <v>716</v>
+      </c>
+      <c r="G2" s="7">
+        <v>4024</v>
+      </c>
+      <c r="H2" s="7">
+        <v>44196</v>
+      </c>
+      <c r="I2" s="7">
+        <v>12904</v>
+      </c>
+      <c r="J2" s="7">
+        <v>2648</v>
+      </c>
+      <c r="K2" s="7">
+        <v>1460</v>
+      </c>
+      <c r="L2" s="7">
+        <v>8019</v>
+      </c>
+      <c r="M2" s="7">
+        <v>4155</v>
+      </c>
+      <c r="N2" s="7">
+        <v>10566</v>
+      </c>
+      <c r="O2" s="7">
+        <v>2610</v>
+      </c>
+      <c r="P2" s="7">
+        <v>6348</v>
+      </c>
+      <c r="Q2" s="7">
+        <v>5591</v>
+      </c>
+      <c r="R2" s="7">
+        <v>3725</v>
+      </c>
+      <c r="S2" s="7">
+        <v>239</v>
+      </c>
+      <c r="T2" s="7">
+        <v>1671</v>
+      </c>
+      <c r="U2" s="8">
+        <v>99.085520028769693</v>
+      </c>
+      <c r="V2" s="8">
+        <v>8.4780769628556207</v>
+      </c>
+      <c r="W2" s="8">
+        <v>53.504343319828699</v>
+      </c>
+      <c r="X2" s="8">
+        <v>35.586765405076001</v>
+      </c>
+      <c r="Y2" s="8">
+        <v>68971313</v>
+      </c>
+      <c r="Z2" s="8">
+        <v>0.77817000000000003</v>
+      </c>
+      <c r="AA2" s="13">
+        <v>23095.32</v>
+      </c>
+      <c r="AB2" s="12">
+        <v>1178345</v>
+      </c>
+      <c r="AC2" s="17">
+        <v>1237790</v>
+      </c>
+      <c r="AD2" s="17">
+        <v>345115</v>
+      </c>
+      <c r="AE2" s="5">
+        <v>121</v>
+      </c>
+      <c r="AF2" s="9">
+        <v>444803.565</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B3" s="7">
+        <v>10334</v>
+      </c>
+      <c r="C3" s="7">
+        <v>2190</v>
+      </c>
+      <c r="D3" s="7">
+        <v>268841</v>
+      </c>
+      <c r="E3" s="7">
+        <v>9169</v>
+      </c>
+      <c r="F3" s="7">
+        <v>801</v>
+      </c>
+      <c r="G3" s="7">
+        <v>4736</v>
+      </c>
+      <c r="H3" s="7">
+        <v>46668</v>
+      </c>
+      <c r="I3" s="7">
+        <v>14165</v>
+      </c>
+      <c r="J3" s="7">
+        <v>2987</v>
+      </c>
+      <c r="K3" s="7">
+        <v>1576</v>
+      </c>
+      <c r="L3" s="7">
+        <v>8037</v>
+      </c>
+      <c r="M3" s="7">
+        <v>5199</v>
+      </c>
+      <c r="N3" s="7">
+        <v>9964</v>
+      </c>
+      <c r="O3" s="7">
+        <v>2986</v>
+      </c>
+      <c r="P3" s="7">
+        <v>6368</v>
+      </c>
+      <c r="Q3" s="7">
+        <v>5771</v>
+      </c>
+      <c r="R3" s="7">
+        <v>3955</v>
+      </c>
+      <c r="S3" s="7">
+        <v>286</v>
+      </c>
+      <c r="T3" s="7">
+        <v>1696</v>
+      </c>
+      <c r="U3" s="8">
+        <v>100.39377914841501</v>
+      </c>
+      <c r="V3" s="8">
+        <v>8.40641258665047</v>
+      </c>
+      <c r="W3" s="8">
+        <v>54.218594967261197</v>
+      </c>
+      <c r="X3" s="8">
+        <v>35.018759526322</v>
+      </c>
+      <c r="Y3" s="8">
+        <v>69209817</v>
+      </c>
+      <c r="Z3" s="8">
+        <v>1.00179</v>
+      </c>
+      <c r="AA3" s="13">
+        <v>23780.19</v>
+      </c>
+      <c r="AB3" s="12">
+        <v>1178698</v>
+      </c>
+      <c r="AC3" s="17">
+        <v>1281574</v>
+      </c>
+      <c r="AD3" s="17">
+        <v>355607</v>
+      </c>
+      <c r="AE3" s="5">
+        <v>117</v>
+      </c>
+      <c r="AF3" s="9">
+        <v>449602.96699999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" ht="19" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B4" s="7">
+        <v>11377</v>
+      </c>
+      <c r="C4" s="7">
+        <v>2464</v>
+      </c>
+      <c r="D4" s="7">
+        <v>265997</v>
+      </c>
+      <c r="E4" s="7">
+        <v>9679</v>
+      </c>
+      <c r="F4" s="7">
+        <v>921</v>
+      </c>
+      <c r="G4" s="7">
+        <v>5058</v>
+      </c>
+      <c r="H4" s="7">
+        <v>48725</v>
+      </c>
+      <c r="I4" s="7">
+        <v>16430</v>
+      </c>
+      <c r="J4" s="7">
+        <v>3360</v>
+      </c>
+      <c r="K4" s="7">
+        <v>1769</v>
+      </c>
+      <c r="L4" s="7">
+        <v>8467</v>
+      </c>
+      <c r="M4" s="7">
+        <v>4806</v>
+      </c>
+      <c r="N4" s="7">
+        <v>9299</v>
+      </c>
+      <c r="O4" s="7">
+        <v>3270</v>
+      </c>
+      <c r="P4" s="7">
+        <v>6906</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>7585</v>
+      </c>
+      <c r="R4" s="7">
+        <v>4467</v>
+      </c>
+      <c r="S4" s="7">
+        <v>331</v>
+      </c>
+      <c r="T4" s="7">
+        <v>1790</v>
+      </c>
+      <c r="U4" s="8">
+        <v>98.923618035757897</v>
+      </c>
+      <c r="V4" s="8">
+        <v>8.1837017650449404</v>
+      </c>
+      <c r="W4" s="8">
+        <v>56.019636251004599</v>
+      </c>
+      <c r="X4" s="8">
+        <v>34.7511730463711</v>
+      </c>
+      <c r="Y4" s="8">
+        <v>69428454</v>
+      </c>
+      <c r="Z4" s="15">
+        <v>1.00179</v>
+      </c>
+      <c r="AA4" s="13">
+        <v>22790.080000000002</v>
+      </c>
+      <c r="AB4" s="12">
+        <v>1178475</v>
+      </c>
+      <c r="AC4" s="17">
+        <v>1354163</v>
+      </c>
+      <c r="AD4" s="17">
+        <v>369547</v>
+      </c>
+      <c r="AE4" s="5">
+        <v>96</v>
+      </c>
+      <c r="AF4" s="9">
         <v>454952.54100000003</v>
       </c>
     </row>

--- a/process_data/GPP_6210501001_real.xlsx
+++ b/process_data/GPP_6210501001_real.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pantchanit/Documents/final_stat_pant/process_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C997BE-A95A-A24A-856C-29A2DF6D9C13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04527A00-0AC9-4947-8526-7EBA68CCC577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5300" yWindow="1060" windowWidth="29040" windowHeight="17920" activeTab="3" xr2:uid="{F412434C-C783-6D4A-8278-77BCBC527C82}"/>
+    <workbookView xWindow="-35580" yWindow="5620" windowWidth="29040" windowHeight="17920" activeTab="2" xr2:uid="{F412434C-C783-6D4A-8278-77BCBC527C82}"/>
   </bookViews>
   <sheets>
     <sheet name="Ayutthaya" sheetId="1" r:id="rId1"/>
@@ -369,7 +369,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -416,12 +416,6 @@
     <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -463,6 +457,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -798,100 +801,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="180" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="I1" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="J1" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="K1" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="28" t="s">
+      <c r="L1" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="28" t="s">
+      <c r="M1" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="28" t="s">
+      <c r="N1" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="28" t="s">
+      <c r="O1" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="28" t="s">
+      <c r="P1" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="28" t="s">
+      <c r="Q1" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="28" t="s">
+      <c r="R1" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="28" t="s">
+      <c r="S1" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="28" t="s">
+      <c r="T1" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="29" t="s">
+      <c r="U1" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="30" t="s">
+      <c r="V1" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="30" t="s">
+      <c r="W1" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="30" t="s">
+      <c r="X1" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="30" t="s">
+      <c r="Y1" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="30" t="s">
+      <c r="Z1" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="AA1" s="30" t="s">
+      <c r="AA1" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="31" t="s">
+      <c r="AB1" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="30" t="s">
+      <c r="AC1" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="AD1" s="30" t="s">
+      <c r="AD1" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="AE1" s="30" t="s">
+      <c r="AE1" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="AF1" s="32" t="s">
+      <c r="AF1" s="30" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2450,10 +2453,10 @@
       <c r="AB17" s="8">
         <v>1155861</v>
       </c>
-      <c r="AC17" s="26">
+      <c r="AC17" s="24">
         <v>9042</v>
       </c>
-      <c r="AD17" s="26">
+      <c r="AD17" s="24">
         <v>1046128</v>
       </c>
       <c r="AE17" s="10">
@@ -2548,10 +2551,10 @@
       <c r="AB18" s="8">
         <v>1158113</v>
       </c>
-      <c r="AC18" s="26">
+      <c r="AC18" s="24">
         <v>9461</v>
       </c>
-      <c r="AD18" s="26">
+      <c r="AD18" s="24">
         <v>1065030</v>
       </c>
       <c r="AE18" s="2">
@@ -2646,10 +2649,10 @@
       <c r="AB19" s="8">
         <v>1180726</v>
       </c>
-      <c r="AC19" s="26">
+      <c r="AC19" s="24">
         <v>9598</v>
       </c>
-      <c r="AD19" s="26">
+      <c r="AD19" s="24">
         <v>1065565</v>
       </c>
       <c r="AE19" s="2">
@@ -2744,10 +2747,10 @@
       <c r="AB20" s="8">
         <v>1177369</v>
       </c>
-      <c r="AC20" s="26">
+      <c r="AC20" s="24">
         <v>9573.8304647791701</v>
       </c>
-      <c r="AD20" s="26">
+      <c r="AD20" s="24">
         <v>1065335.81531144</v>
       </c>
       <c r="AE20" s="2">
@@ -2842,10 +2845,10 @@
       <c r="AB21" s="8">
         <v>1178443</v>
       </c>
-      <c r="AC21" s="26">
+      <c r="AC21" s="24">
         <v>9510</v>
       </c>
-      <c r="AD21" s="26">
+      <c r="AD21" s="24">
         <v>1065583</v>
       </c>
       <c r="AE21" s="2">
@@ -2940,10 +2943,10 @@
       <c r="AB22" s="8">
         <v>1177896</v>
       </c>
-      <c r="AC22" s="26">
+      <c r="AC22" s="24">
         <v>9500</v>
       </c>
-      <c r="AD22" s="26">
+      <c r="AD22" s="24">
         <v>1065016</v>
       </c>
       <c r="AE22" s="2">
@@ -3038,10 +3041,10 @@
       <c r="AB23" s="8">
         <v>1178345</v>
       </c>
-      <c r="AC23" s="26">
+      <c r="AC23" s="24">
         <v>9711</v>
       </c>
-      <c r="AD23" s="26">
+      <c r="AD23" s="24">
         <v>1065315</v>
       </c>
       <c r="AE23" s="2">
@@ -3136,10 +3139,10 @@
       <c r="AB24" s="8">
         <v>1178698</v>
       </c>
-      <c r="AC24" s="26">
+      <c r="AC24" s="24">
         <v>9720</v>
       </c>
-      <c r="AD24" s="26">
+      <c r="AD24" s="24">
         <v>1065376</v>
       </c>
       <c r="AE24" s="2">
@@ -3234,10 +3237,10 @@
       <c r="AB25" s="8">
         <v>1178475</v>
       </c>
-      <c r="AC25" s="26">
+      <c r="AC25" s="24">
         <v>9713</v>
       </c>
-      <c r="AD25" s="26">
+      <c r="AD25" s="24">
         <v>1065197</v>
       </c>
       <c r="AE25" s="2">
@@ -3260,8 +3263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8095EF19-8E19-0747-84C0-9C329A469980}">
   <dimension ref="A1:AF25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AD16" sqref="AD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3275,100 +3278,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="180" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="H1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="32" t="s">
+      <c r="I1" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="32" t="s">
+      <c r="J1" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="32" t="s">
+      <c r="K1" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="32" t="s">
+      <c r="L1" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="32" t="s">
+      <c r="M1" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="32" t="s">
+      <c r="N1" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="32" t="s">
+      <c r="O1" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="32" t="s">
+      <c r="P1" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="32" t="s">
+      <c r="Q1" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="32" t="s">
+      <c r="R1" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="32" t="s">
+      <c r="S1" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="32" t="s">
+      <c r="T1" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="29" t="s">
+      <c r="U1" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="30" t="s">
+      <c r="V1" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="30" t="s">
+      <c r="W1" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="30" t="s">
+      <c r="X1" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="30" t="s">
+      <c r="Y1" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="30" t="s">
+      <c r="Z1" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="AA1" s="30" t="s">
+      <c r="AA1" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="AB1" s="31" t="s">
+      <c r="AB1" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="30" t="s">
+      <c r="AC1" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="AD1" s="30" t="s">
+      <c r="AD1" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="AE1" s="30" t="s">
+      <c r="AE1" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="AF1" s="32" t="s">
+      <c r="AF1" s="30" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3452,22 +3455,22 @@
         <v>0.11917999999999999</v>
       </c>
       <c r="AA2" s="10">
-        <v>14642.05707269</v>
+        <v>14756.760214399999</v>
       </c>
       <c r="AB2" s="10">
-        <v>2918084.49750019</v>
+        <v>2844151.8071263498</v>
       </c>
       <c r="AC2" s="10">
-        <v>20481.606762759999</v>
+        <v>20276.514614079999</v>
       </c>
       <c r="AD2" s="10">
-        <v>813441.82643234998</v>
+        <v>825697.50851188996</v>
       </c>
       <c r="AE2" s="10">
-        <v>17</v>
-      </c>
-      <c r="AF2" s="5">
-        <v>143862.554</v>
+        <v>44</v>
+      </c>
+      <c r="AF2" s="32">
+        <v>42592.536</v>
       </c>
     </row>
     <row r="3" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -3550,22 +3553,22 @@
         <v>0.11917999999999999</v>
       </c>
       <c r="AA3" s="10">
-        <v>14781.33134225</v>
+        <v>14908.672764679999</v>
       </c>
       <c r="AB3" s="10">
-        <v>2855554.7635296802</v>
+        <v>2785921.2205312699</v>
       </c>
       <c r="AC3" s="10">
-        <v>20481.86001665</v>
+        <v>20298.019979780001</v>
       </c>
       <c r="AD3" s="10">
-        <v>813529.79148508003</v>
-      </c>
-      <c r="AE3" s="21">
-        <v>18</v>
-      </c>
-      <c r="AF3" s="5">
-        <v>171503.91700000002</v>
+        <v>824521.04714330996</v>
+      </c>
+      <c r="AE3" s="19">
+        <v>43</v>
+      </c>
+      <c r="AF3" s="32">
+        <v>50643.659000000007</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -3648,22 +3651,22 @@
         <v>0.10213999999999999</v>
       </c>
       <c r="AA4" s="10">
-        <v>14820.22712533</v>
+        <v>14895.46006539</v>
       </c>
       <c r="AB4" s="10">
-        <v>2838091.7893848699</v>
+        <v>2790985.8661371502</v>
       </c>
       <c r="AC4" s="10">
-        <v>20481.930744059999</v>
+        <v>20296.149535709999</v>
       </c>
       <c r="AD4" s="10">
-        <v>813554.35790082999</v>
+        <v>824623.37068577996</v>
       </c>
       <c r="AE4" s="10">
-        <v>19</v>
-      </c>
-      <c r="AF4" s="5">
-        <v>179223.451</v>
+        <v>43</v>
+      </c>
+      <c r="AF4" s="32">
+        <v>49943.407000000007</v>
       </c>
     </row>
     <row r="5" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -3746,22 +3749,22 @@
         <v>0.17524999999999999</v>
       </c>
       <c r="AA5" s="10">
-        <v>14827.22251585</v>
+        <v>14862.70289146</v>
       </c>
       <c r="AB5" s="10">
-        <v>2834951.0807010601</v>
+        <v>2803542.23129451</v>
       </c>
       <c r="AC5" s="10">
-        <v>20481.943464349999</v>
+        <v>20291.512295379998</v>
       </c>
       <c r="AD5" s="10">
-        <v>813558.77616054995</v>
+        <v>824877.05314720003</v>
       </c>
       <c r="AE5" s="10">
-        <v>19</v>
-      </c>
-      <c r="AF5" s="5">
-        <v>180611.80600000001</v>
+        <v>43</v>
+      </c>
+      <c r="AF5" s="32">
+        <v>48207.328999999998</v>
       </c>
     </row>
     <row r="6" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -3844,22 +3847,22 @@
         <v>0.24836</v>
       </c>
       <c r="AA6" s="10">
-        <v>14873.80403553</v>
+        <v>14800.5604752</v>
       </c>
       <c r="AB6" s="10">
-        <v>2814037.4543511602</v>
+        <v>2827362.44459779</v>
       </c>
       <c r="AC6" s="10">
-        <v>20482.028167370001</v>
+        <v>20282.71515923</v>
       </c>
       <c r="AD6" s="10">
-        <v>813588.19685575995</v>
+        <v>825358.30470899004</v>
       </c>
       <c r="AE6" s="10">
-        <v>20</v>
-      </c>
-      <c r="AF6" s="5">
-        <v>189856.70600000001</v>
+        <v>44</v>
+      </c>
+      <c r="AF6" s="32">
+        <v>44913.88</v>
       </c>
     </row>
     <row r="7" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -3942,22 +3945,22 @@
         <v>0.24471000000000001</v>
       </c>
       <c r="AA7" s="10">
-        <v>15021.360674539999</v>
+        <v>14856.36505932</v>
       </c>
       <c r="AB7" s="10">
-        <v>2747789.19893703</v>
+        <v>2805971.6269060802</v>
       </c>
       <c r="AC7" s="10">
-        <v>20482.296481779998</v>
+        <v>20290.615085779998</v>
       </c>
       <c r="AD7" s="10">
-        <v>813681.39301879006</v>
+        <v>824926.13542943995</v>
       </c>
       <c r="AE7" s="10">
-        <v>22</v>
-      </c>
-      <c r="AF7" s="5">
-        <v>219141.84700000001</v>
+        <v>43</v>
+      </c>
+      <c r="AF7" s="32">
+        <v>47871.434000000001</v>
       </c>
     </row>
     <row r="8" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -4040,22 +4043,22 @@
         <v>0.25230999999999998</v>
       </c>
       <c r="AA8" s="10">
-        <v>15020.95126163</v>
+        <v>14951.43863588</v>
       </c>
       <c r="AB8" s="10">
-        <v>2747973.0123594599</v>
+        <v>2769528.3566014501</v>
       </c>
       <c r="AC8" s="10">
-        <v>20482.29573731</v>
+        <v>20304.074092480001</v>
       </c>
       <c r="AD8" s="10">
-        <v>813681.13443529001</v>
+        <v>824189.85399789002</v>
       </c>
       <c r="AE8" s="10">
-        <v>22</v>
-      </c>
-      <c r="AF8" s="5">
-        <v>219060.592</v>
+        <v>43</v>
+      </c>
+      <c r="AF8" s="32">
+        <v>52910.182000000001</v>
       </c>
     </row>
     <row r="9" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -4138,22 +4141,22 @@
         <v>0.23055</v>
       </c>
       <c r="AA9" s="10">
-        <v>15081.726568259999</v>
+        <v>15104.6616784</v>
       </c>
       <c r="AB9" s="10">
-        <v>2720686.8254164099</v>
+        <v>2710795.43670935</v>
       </c>
       <c r="AC9" s="10">
-        <v>20482.406250060001</v>
+        <v>20325.764976850001</v>
       </c>
       <c r="AD9" s="10">
-        <v>813719.51986763999</v>
+        <v>823003.24374101998</v>
       </c>
       <c r="AE9" s="10">
-        <v>22</v>
-      </c>
-      <c r="AF9" s="6">
-        <v>231122.49200000003</v>
+        <v>42</v>
+      </c>
+      <c r="AF9" s="32">
+        <v>61030.759000000005</v>
       </c>
     </row>
     <row r="10" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -4236,22 +4239,22 @@
         <v>0.24534</v>
       </c>
       <c r="AA10" s="10">
-        <v>15210.819030320001</v>
+        <v>15160.490357590001</v>
       </c>
       <c r="AB10" s="10">
-        <v>2662728.40039474</v>
+        <v>2689395.3829819802</v>
       </c>
       <c r="AC10" s="10">
-        <v>20482.640989520001</v>
+        <v>20333.668314400002</v>
       </c>
       <c r="AD10" s="10">
-        <v>813801.05413285003</v>
+        <v>822570.88786126999</v>
       </c>
       <c r="AE10" s="10">
-        <v>24</v>
-      </c>
-      <c r="AF10" s="6">
-        <v>256743.10100000002</v>
+        <v>42</v>
+      </c>
+      <c r="AF10" s="32">
+        <v>63989.59</v>
       </c>
     </row>
     <row r="11" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -4334,22 +4337,22 @@
         <v>0.23827999999999999</v>
       </c>
       <c r="AA11" s="10">
-        <v>15286.50923075</v>
+        <v>15195.383463689999</v>
       </c>
       <c r="AB11" s="10">
-        <v>2628745.89872937</v>
+        <v>2676020.27978855</v>
       </c>
       <c r="AC11" s="10">
-        <v>20482.778623260001</v>
+        <v>20338.60792608</v>
       </c>
       <c r="AD11" s="10">
-        <v>813848.85975046002</v>
+        <v>822300.66402998997</v>
       </c>
       <c r="AE11" s="10">
-        <v>25</v>
-      </c>
-      <c r="AF11" s="6">
-        <v>271765.11700000003</v>
+        <v>42</v>
+      </c>
+      <c r="AF11" s="33">
+        <v>65838.868999999992</v>
       </c>
     </row>
     <row r="12" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -4432,22 +4435,22 @@
         <v>0.21889</v>
       </c>
       <c r="AA12" s="10">
-        <v>15296.459458339999</v>
+        <v>15332.27731696</v>
       </c>
       <c r="AB12" s="10">
-        <v>2624278.5618278999</v>
+        <v>2623546.6075171502</v>
       </c>
       <c r="AC12" s="10">
-        <v>20482.79671658</v>
+        <v>20357.987183230001</v>
       </c>
       <c r="AD12" s="10">
-        <v>813855.14427305001</v>
+        <v>821240.51245150005</v>
       </c>
       <c r="AE12" s="10">
-        <v>25</v>
-      </c>
-      <c r="AF12" s="6">
-        <v>273739.91000000003</v>
+        <v>41</v>
+      </c>
+      <c r="AF12" s="33">
+        <v>73094.024999999994</v>
       </c>
     </row>
     <row r="13" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -4533,19 +4536,19 @@
         <v>15870</v>
       </c>
       <c r="AB13" s="10">
-        <v>2567239.1835587798</v>
+        <v>2623437.3662622399</v>
       </c>
       <c r="AC13" s="10">
-        <v>20483.02773378</v>
+        <v>20358.027527540002</v>
       </c>
       <c r="AD13" s="10">
-        <v>813935.38564941997</v>
+        <v>821238.30539634998</v>
       </c>
       <c r="AE13" s="10">
-        <v>27</v>
-      </c>
-      <c r="AF13" s="6">
-        <v>298954.25300000003</v>
+        <v>41</v>
+      </c>
+      <c r="AF13" s="33">
+        <v>73109.129000000001</v>
       </c>
     </row>
     <row r="14" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -4631,19 +4634,19 @@
         <v>14462</v>
       </c>
       <c r="AB14" s="10">
-        <v>2474401.2618482099</v>
+        <v>2623028.1165821799</v>
       </c>
       <c r="AC14" s="10">
-        <v>20483.40373993</v>
+        <v>20358.178669140001</v>
       </c>
       <c r="AD14" s="10">
-        <v>814065.98739934003</v>
+        <v>821230.03712245997</v>
       </c>
       <c r="AE14" s="10">
-        <v>29</v>
-      </c>
-      <c r="AF14" s="6">
-        <v>339993.39600000001</v>
+        <v>41</v>
+      </c>
+      <c r="AF14" s="33">
+        <v>73165.712999999989</v>
       </c>
     </row>
     <row r="15" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -4729,19 +4732,19 @@
         <v>15386</v>
       </c>
       <c r="AB15" s="10">
-        <v>2251436.1821754798</v>
+        <v>2577442.1907774</v>
       </c>
       <c r="AC15" s="10">
-        <v>20484.306778689999</v>
+        <v>20375.014185709999</v>
       </c>
       <c r="AD15" s="10">
-        <v>814379.64833702997</v>
+        <v>820309.04209568002</v>
       </c>
       <c r="AE15" s="10">
-        <v>36</v>
-      </c>
-      <c r="AF15" s="6">
-        <v>438555.44500000001</v>
+        <v>40</v>
+      </c>
+      <c r="AF15" s="33">
+        <v>79468.55</v>
       </c>
     </row>
     <row r="16" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -4827,19 +4830,19 @@
         <v>16764</v>
       </c>
       <c r="AB16" s="10">
-        <v>2384673.2990109599</v>
+        <v>2532144.1515530199</v>
       </c>
       <c r="AC16" s="10">
-        <v>20483.767150330001</v>
+        <v>20391.743381749999</v>
       </c>
       <c r="AD16" s="10">
-        <v>814192.2141475</v>
+        <v>819393.86338401004</v>
       </c>
       <c r="AE16" s="10">
-        <v>32</v>
-      </c>
-      <c r="AF16" s="6">
-        <v>379657.777</v>
+        <v>39</v>
+      </c>
+      <c r="AF16" s="33">
+        <v>85731.582999999999</v>
       </c>
     </row>
     <row r="17" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -4927,17 +4930,17 @@
       <c r="AB17" s="8">
         <v>2541350</v>
       </c>
-      <c r="AC17" s="26">
+      <c r="AC17" s="24">
         <v>20343</v>
       </c>
-      <c r="AD17" s="22">
+      <c r="AD17" s="20">
         <v>825214</v>
       </c>
-      <c r="AE17" s="20">
-        <v>35</v>
-      </c>
-      <c r="AF17" s="6">
-        <v>427733.43600000005</v>
+      <c r="AE17" s="18">
+        <v>39</v>
+      </c>
+      <c r="AF17" s="33">
+        <v>87969.748999999996</v>
       </c>
     </row>
     <row r="18" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -5025,17 +5028,17 @@
       <c r="AB18" s="8">
         <v>2541569</v>
       </c>
-      <c r="AC18" s="26">
+      <c r="AC18" s="24">
         <v>20535</v>
       </c>
-      <c r="AD18" s="22">
+      <c r="AD18" s="20">
         <v>812779</v>
       </c>
       <c r="AE18" s="2">
         <v>26</v>
       </c>
-      <c r="AF18" s="5">
-        <v>365800.94500000001</v>
+      <c r="AF18" s="33">
+        <v>96247.73</v>
       </c>
     </row>
     <row r="19" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -5123,17 +5126,17 @@
       <c r="AB19" s="8">
         <v>2196101</v>
       </c>
-      <c r="AC19" s="26">
+      <c r="AC19" s="24">
         <v>20364</v>
       </c>
-      <c r="AD19" s="22">
+      <c r="AD19" s="20">
         <v>812975</v>
       </c>
       <c r="AE19" s="2">
         <v>40</v>
       </c>
-      <c r="AF19" s="5">
-        <v>378620.53700000001</v>
+      <c r="AF19" s="33">
+        <v>116911.57400000001</v>
       </c>
     </row>
     <row r="20" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -5221,17 +5224,17 @@
       <c r="AB20" s="8">
         <v>2189464</v>
       </c>
-      <c r="AC20" s="26">
+      <c r="AC20" s="24">
         <v>20318.469064254801</v>
       </c>
-      <c r="AD20" s="22">
+      <c r="AD20" s="20">
         <v>812719</v>
       </c>
       <c r="AE20" s="2">
         <v>32</v>
       </c>
-      <c r="AF20" s="5">
-        <v>461789.49600000004</v>
+      <c r="AF20" s="33">
+        <v>122285.53799999999</v>
       </c>
     </row>
     <row r="21" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -5319,17 +5322,17 @@
       <c r="AB21" s="8">
         <v>2211616</v>
       </c>
-      <c r="AC21" s="26">
+      <c r="AC21" s="24">
         <v>20634</v>
       </c>
-      <c r="AD21" s="22">
+      <c r="AD21" s="20">
         <v>812522</v>
       </c>
       <c r="AE21" s="2">
         <v>37</v>
       </c>
-      <c r="AF21" s="5">
-        <v>417614.34099999996</v>
+      <c r="AF21" s="33">
+        <v>125135.992</v>
       </c>
     </row>
     <row r="22" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -5417,17 +5420,17 @@
       <c r="AB22" s="8">
         <v>2191974</v>
       </c>
-      <c r="AC22" s="26">
+      <c r="AC22" s="24">
         <v>20630</v>
       </c>
-      <c r="AD22" s="22">
+      <c r="AD22" s="20">
         <v>813100</v>
       </c>
       <c r="AE22" s="2">
         <v>59</v>
       </c>
-      <c r="AF22" s="5">
-        <v>468325.83400000003</v>
+      <c r="AF22" s="33">
+        <v>123891.96199999998</v>
       </c>
     </row>
     <row r="23" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -5515,17 +5518,17 @@
       <c r="AB23" s="8">
         <v>2191454</v>
       </c>
-      <c r="AC23" s="26">
+      <c r="AC23" s="24">
         <v>20629</v>
       </c>
-      <c r="AD23" s="22">
+      <c r="AD23" s="20">
         <v>812485</v>
       </c>
       <c r="AE23" s="2">
         <v>31</v>
       </c>
-      <c r="AF23" s="5">
-        <v>444803.565</v>
+      <c r="AF23" s="33">
+        <v>129404.072</v>
       </c>
     </row>
     <row r="24" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -5613,17 +5616,17 @@
       <c r="AB24" s="8">
         <v>2191311</v>
       </c>
-      <c r="AC24" s="26">
+      <c r="AC24" s="24">
         <v>20523</v>
       </c>
-      <c r="AD24" s="22">
+      <c r="AD24" s="20">
         <v>813167</v>
       </c>
       <c r="AE24" s="2">
         <v>19</v>
       </c>
-      <c r="AF24" s="5">
-        <v>449602.96699999995</v>
+      <c r="AF24" s="33">
+        <v>142017.18</v>
       </c>
     </row>
     <row r="25" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -5711,17 +5714,17 @@
       <c r="AB25" s="8">
         <v>2191867</v>
       </c>
-      <c r="AC25" s="26">
+      <c r="AC25" s="24">
         <v>20527</v>
       </c>
-      <c r="AD25" s="22">
+      <c r="AD25" s="20">
         <v>812834</v>
       </c>
       <c r="AE25" s="2">
         <v>30</v>
       </c>
-      <c r="AF25" s="5">
-        <v>454952.54100000003</v>
+      <c r="AF25" s="33">
+        <v>142741.16</v>
       </c>
     </row>
   </sheetData>
@@ -5734,8 +5737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFDC5115-B989-7240-9B3D-AF4C2FACAEF3}">
   <dimension ref="A1:AF25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:AF1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AB16" sqref="AB16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5748,100 +5751,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="180" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="H1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="32" t="s">
+      <c r="I1" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="32" t="s">
+      <c r="J1" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="32" t="s">
+      <c r="K1" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="32" t="s">
+      <c r="L1" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="32" t="s">
+      <c r="M1" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="32" t="s">
+      <c r="N1" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="32" t="s">
+      <c r="O1" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="32" t="s">
+      <c r="P1" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="32" t="s">
+      <c r="Q1" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="32" t="s">
+      <c r="R1" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="32" t="s">
+      <c r="S1" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="32" t="s">
+      <c r="T1" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="29" t="s">
+      <c r="U1" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="30" t="s">
+      <c r="V1" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="30" t="s">
+      <c r="W1" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="30" t="s">
+      <c r="X1" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="30" t="s">
+      <c r="Y1" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="30" t="s">
+      <c r="Z1" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="AA1" s="30" t="s">
+      <c r="AA1" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="AB1" s="31" t="s">
+      <c r="AB1" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="30" t="s">
+      <c r="AC1" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="AD1" s="30" t="s">
+      <c r="AD1" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="AE1" s="30" t="s">
+      <c r="AE1" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="AF1" s="32" t="s">
+      <c r="AF1" s="30" t="s">
         <v>28</v>
       </c>
     </row>
@@ -5924,23 +5927,23 @@
       <c r="Z2" s="11">
         <v>0.11917999999999999</v>
       </c>
-      <c r="AA2" s="23">
+      <c r="AA2" s="21">
         <v>12384.87013329</v>
       </c>
-      <c r="AB2" s="23">
+      <c r="AB2" s="21">
         <v>407634.68248070998</v>
       </c>
       <c r="AC2" s="10">
         <v>2134.56825574</v>
       </c>
-      <c r="AD2" s="23">
+      <c r="AD2" s="21">
         <v>342336.26697966998</v>
       </c>
-      <c r="AE2" s="23">
+      <c r="AE2" s="21">
         <v>10</v>
       </c>
-      <c r="AF2" s="17">
-        <v>143862.554</v>
+      <c r="AF2" s="34">
+        <v>41809.733</v>
       </c>
     </row>
     <row r="3" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -6022,23 +6025,23 @@
       <c r="Z3" s="4">
         <v>0.11917999999999999</v>
       </c>
-      <c r="AA3" s="23">
+      <c r="AA3" s="21">
         <v>13039.34837251</v>
       </c>
-      <c r="AB3" s="23">
+      <c r="AB3" s="21">
         <v>414866.32629838999</v>
       </c>
       <c r="AC3" s="10">
         <v>2150.25363505</v>
       </c>
-      <c r="AD3" s="23">
+      <c r="AD3" s="21">
         <v>342215.98331415001</v>
       </c>
-      <c r="AE3" s="23">
+      <c r="AE3" s="21">
         <v>10</v>
       </c>
-      <c r="AF3" s="17">
-        <v>171503.91700000002</v>
+      <c r="AF3" s="34">
+        <v>46750.23</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -6120,23 +6123,23 @@
       <c r="Z4" s="4">
         <v>0.10213999999999999</v>
       </c>
-      <c r="AA4" s="23">
+      <c r="AA4" s="21">
         <v>13222.127601599999</v>
       </c>
-      <c r="AB4" s="23">
+      <c r="AB4" s="21">
         <v>416885.94162366999</v>
       </c>
       <c r="AC4" s="10">
         <v>2154.6341650099998</v>
       </c>
-      <c r="AD4" s="23">
+      <c r="AD4" s="21">
         <v>342182.39112675999</v>
       </c>
-      <c r="AE4" s="23">
+      <c r="AE4" s="21">
         <v>10</v>
       </c>
-      <c r="AF4" s="17">
-        <v>179223.451</v>
+      <c r="AF4" s="34">
+        <v>48889.421999999999</v>
       </c>
     </row>
     <row r="5" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -6218,23 +6221,23 @@
       <c r="Z5" s="11">
         <v>0.17524999999999999</v>
       </c>
-      <c r="AA5" s="23">
+      <c r="AA5" s="21">
         <v>13255.000370420001</v>
       </c>
-      <c r="AB5" s="23">
+      <c r="AB5" s="21">
         <v>417249.16860536003</v>
       </c>
       <c r="AC5" s="10">
         <v>2155.4220015199999</v>
       </c>
-      <c r="AD5" s="23">
+      <c r="AD5" s="21">
         <v>342176.34958574001</v>
       </c>
-      <c r="AE5" s="23">
+      <c r="AE5" s="21">
         <v>10</v>
       </c>
-      <c r="AF5" s="17">
-        <v>180611.80600000001</v>
+      <c r="AF5" s="34">
+        <v>51417.032999999996</v>
       </c>
     </row>
     <row r="6" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -6316,23 +6319,23 @@
       <c r="Z6" s="4">
         <v>0.24836</v>
       </c>
-      <c r="AA6" s="23">
+      <c r="AA6" s="21">
         <v>13473.896445619999</v>
       </c>
-      <c r="AB6" s="23">
+      <c r="AB6" s="21">
         <v>419667.85627753002</v>
       </c>
       <c r="AC6" s="10">
         <v>2160.6681163100002</v>
       </c>
-      <c r="AD6" s="23">
+      <c r="AD6" s="21">
         <v>342136.11964269</v>
       </c>
-      <c r="AE6" s="23">
+      <c r="AE6" s="21">
         <v>10</v>
       </c>
-      <c r="AF6" s="17">
-        <v>189856.70600000001</v>
+      <c r="AF6" s="34">
+        <v>46599.724000000002</v>
       </c>
     </row>
     <row r="7" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -6414,23 +6417,23 @@
       <c r="Z7" s="4">
         <v>0.24471000000000001</v>
       </c>
-      <c r="AA7" s="23">
+      <c r="AA7" s="21">
         <v>14167.29523052</v>
       </c>
-      <c r="AB7" s="23">
+      <c r="AB7" s="21">
         <v>427329.55186260998</v>
       </c>
       <c r="AC7" s="10">
         <v>2177.28627456</v>
       </c>
-      <c r="AD7" s="23">
+      <c r="AD7" s="21">
         <v>342008.68294194998</v>
       </c>
-      <c r="AE7" s="23">
+      <c r="AE7" s="21">
         <v>9</v>
       </c>
-      <c r="AF7" s="17">
-        <v>219141.84700000001</v>
+      <c r="AF7" s="34">
+        <v>51081.508999999998</v>
       </c>
     </row>
     <row r="8" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -6512,23 +6515,23 @@
       <c r="Z8" s="4">
         <v>0.25230999999999998</v>
       </c>
-      <c r="AA8" s="23">
+      <c r="AA8" s="21">
         <v>14165.371315640001</v>
       </c>
-      <c r="AB8" s="23">
+      <c r="AB8" s="21">
         <v>427308.29360489</v>
       </c>
       <c r="AC8" s="10">
         <v>2177.24016557</v>
       </c>
-      <c r="AD8" s="23">
+      <c r="AD8" s="21">
         <v>342009.03652977</v>
       </c>
-      <c r="AE8" s="23">
+      <c r="AE8" s="21">
         <v>9</v>
       </c>
-      <c r="AF8" s="17">
-        <v>219060.592</v>
+      <c r="AF8" s="34">
+        <v>51786.061999999998</v>
       </c>
     </row>
     <row r="9" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -6610,23 +6613,23 @@
       <c r="Z9" s="4">
         <v>0.23055</v>
       </c>
-      <c r="AA9" s="23">
+      <c r="AA9" s="21">
         <v>14450.966894769999</v>
       </c>
-      <c r="AB9" s="23">
+      <c r="AB9" s="21">
         <v>430463.97607122001</v>
       </c>
       <c r="AC9" s="10">
         <v>2184.08481635</v>
       </c>
-      <c r="AD9" s="23">
+      <c r="AD9" s="21">
         <v>341956.54817943001</v>
       </c>
-      <c r="AE9" s="23">
+      <c r="AE9" s="21">
         <v>9</v>
       </c>
-      <c r="AF9" s="18">
-        <v>231122.49200000003</v>
+      <c r="AF9" s="4">
+        <v>55363.335000000006</v>
       </c>
     </row>
     <row r="10" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -6708,23 +6711,23 @@
       <c r="Z10" s="4">
         <v>0.24534</v>
       </c>
-      <c r="AA10" s="23">
+      <c r="AA10" s="21">
         <v>15057.59874089</v>
       </c>
-      <c r="AB10" s="23">
+      <c r="AB10" s="21">
         <v>437166.94215433003</v>
       </c>
       <c r="AC10" s="10">
         <v>2198.6234977600002</v>
       </c>
-      <c r="AD10" s="23">
+      <c r="AD10" s="21">
         <v>341845.05799121998</v>
       </c>
-      <c r="AE10" s="23">
+      <c r="AE10" s="21">
         <v>9</v>
       </c>
-      <c r="AF10" s="19">
-        <v>256743.10100000002</v>
+      <c r="AF10" s="4">
+        <v>63806.767000000007</v>
       </c>
     </row>
     <row r="11" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -6806,23 +6809,23 @@
       <c r="Z11" s="4">
         <v>0.23827999999999999</v>
       </c>
-      <c r="AA11" s="23">
+      <c r="AA11" s="21">
         <v>15413.28245234</v>
       </c>
-      <c r="AB11" s="23">
+      <c r="AB11" s="21">
         <v>441097.06199448998</v>
       </c>
       <c r="AC11" s="10">
         <v>2207.1478971900001</v>
       </c>
-      <c r="AD11" s="23">
+      <c r="AD11" s="21">
         <v>341779.68845254002</v>
       </c>
-      <c r="AE11" s="23">
+      <c r="AE11" s="21">
         <v>9</v>
       </c>
-      <c r="AF11" s="19">
-        <v>271765.11700000003</v>
+      <c r="AF11" s="4">
+        <v>71269.599000000002</v>
       </c>
     </row>
     <row r="12" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -6904,23 +6907,23 @@
       <c r="Z12" s="4">
         <v>0.21889</v>
       </c>
-      <c r="AA12" s="23">
+      <c r="AA12" s="21">
         <v>15460.040604080001</v>
       </c>
-      <c r="AB12" s="23">
+      <c r="AB12" s="21">
         <v>441613.71522861999</v>
       </c>
       <c r="AC12" s="10">
         <v>2208.2685140399999</v>
       </c>
-      <c r="AD12" s="23">
+      <c r="AD12" s="21">
         <v>341771.09497830999</v>
       </c>
-      <c r="AE12" s="23">
+      <c r="AE12" s="21">
         <v>9</v>
       </c>
-      <c r="AF12" s="19">
-        <v>273739.91000000003</v>
+      <c r="AF12" s="4">
+        <v>78052.441999999995</v>
       </c>
     </row>
     <row r="13" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -7005,20 +7008,20 @@
       <c r="AA13" s="7">
         <v>16209</v>
       </c>
-      <c r="AB13" s="23">
+      <c r="AB13" s="21">
         <v>448210.39237775002</v>
       </c>
       <c r="AC13" s="10">
         <v>2222.5766555800001</v>
       </c>
-      <c r="AD13" s="23">
+      <c r="AD13" s="21">
         <v>341661.37269003002</v>
       </c>
-      <c r="AE13" s="23">
+      <c r="AE13" s="21">
         <v>8</v>
       </c>
-      <c r="AF13" s="19">
-        <v>298954.25300000003</v>
+      <c r="AF13" s="4">
+        <v>86535.3</v>
       </c>
     </row>
     <row r="14" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -7103,20 +7106,20 @@
       <c r="AA14" s="7">
         <v>14988</v>
       </c>
-      <c r="AB14" s="23">
+      <c r="AB14" s="21">
         <v>458947.21692431002</v>
       </c>
       <c r="AC14" s="10">
         <v>2245.86474469</v>
       </c>
-      <c r="AD14" s="23">
+      <c r="AD14" s="21">
         <v>341482.78748242999</v>
       </c>
-      <c r="AE14" s="23">
+      <c r="AE14" s="21">
         <v>8</v>
       </c>
-      <c r="AF14" s="19">
-        <v>339993.39600000001</v>
+      <c r="AF14" s="4">
+        <v>94913.26</v>
       </c>
     </row>
     <row r="15" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -7201,20 +7204,20 @@
       <c r="AA15" s="7">
         <v>13792</v>
       </c>
-      <c r="AB15" s="23">
+      <c r="AB15" s="21">
         <v>484733.41394755</v>
       </c>
       <c r="AC15" s="10">
         <v>2301.7948058900001</v>
       </c>
-      <c r="AD15" s="23">
+      <c r="AD15" s="21">
         <v>341053.88661620999</v>
       </c>
-      <c r="AE15" s="23">
+      <c r="AE15" s="21">
         <v>7</v>
       </c>
-      <c r="AF15" s="19">
-        <v>438555.44500000001</v>
+      <c r="AF15" s="4">
+        <v>108148.371</v>
       </c>
     </row>
     <row r="16" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -7299,20 +7302,20 @@
       <c r="AA16" s="7">
         <v>17787</v>
       </c>
-      <c r="AB16" s="23">
+      <c r="AB16" s="21">
         <v>469324.37074414</v>
       </c>
       <c r="AC16" s="10">
         <v>2268.37271078</v>
       </c>
-      <c r="AD16" s="23">
+      <c r="AD16" s="21">
         <v>341310.18466480001</v>
       </c>
-      <c r="AE16" s="23">
+      <c r="AE16" s="21">
         <v>7</v>
       </c>
-      <c r="AF16" s="19">
-        <v>379657.777</v>
+      <c r="AF16" s="4">
+        <v>114904.315</v>
       </c>
     </row>
     <row r="17" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -7397,20 +7400,20 @@
       <c r="AA17" s="7">
         <v>15643</v>
       </c>
-      <c r="AB17" s="24">
+      <c r="AB17" s="22">
         <v>449686</v>
       </c>
-      <c r="AC17" s="26">
+      <c r="AC17" s="24">
         <v>2268</v>
       </c>
-      <c r="AD17" s="22">
+      <c r="AD17" s="20">
         <v>313067</v>
       </c>
-      <c r="AE17" s="23">
+      <c r="AE17" s="21">
         <v>7</v>
       </c>
-      <c r="AF17" s="19">
-        <v>427733.43600000005</v>
+      <c r="AF17" s="4">
+        <v>116858.27800000001</v>
       </c>
     </row>
     <row r="18" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -7495,20 +7498,20 @@
       <c r="AA18" s="9">
         <v>19207.099999999999</v>
       </c>
-      <c r="AB18" s="24">
+      <c r="AB18" s="22">
         <v>449681</v>
       </c>
-      <c r="AC18" s="26">
+      <c r="AC18" s="24">
         <v>2284</v>
       </c>
-      <c r="AD18" s="22">
+      <c r="AD18" s="20">
         <v>344589</v>
       </c>
-      <c r="AE18" s="25">
+      <c r="AE18" s="23">
         <v>9</v>
       </c>
-      <c r="AF18" s="17">
-        <v>365800.94500000001</v>
+      <c r="AF18" s="4">
+        <v>126695.70599999999</v>
       </c>
     </row>
     <row r="19" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -7593,20 +7596,20 @@
       <c r="AA19" s="9">
         <v>23474.62</v>
       </c>
-      <c r="AB19" s="24">
+      <c r="AB19" s="22">
         <v>492314</v>
       </c>
-      <c r="AC19" s="26">
+      <c r="AC19" s="24">
         <v>2261</v>
       </c>
-      <c r="AD19" s="22">
+      <c r="AD19" s="20">
         <v>345037</v>
       </c>
-      <c r="AE19" s="25">
+      <c r="AE19" s="23">
         <v>6</v>
       </c>
-      <c r="AF19" s="17">
-        <v>378620.53700000001</v>
+      <c r="AF19" s="4">
+        <v>144860.65599999999</v>
       </c>
     </row>
     <row r="20" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -7691,20 +7694,20 @@
       <c r="AA20" s="9">
         <v>22118.2</v>
       </c>
-      <c r="AB20" s="24">
+      <c r="AB20" s="22">
         <v>491212</v>
       </c>
-      <c r="AC20" s="26">
+      <c r="AC20" s="24">
         <v>2261.3418506463099</v>
       </c>
-      <c r="AD20" s="22">
+      <c r="AD20" s="20">
         <v>345116</v>
       </c>
-      <c r="AE20" s="25">
+      <c r="AE20" s="23">
         <v>8</v>
       </c>
-      <c r="AF20" s="17">
-        <v>461789.49600000004</v>
+      <c r="AF20" s="4">
+        <v>140600.58799999999</v>
       </c>
     </row>
     <row r="21" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -7789,20 +7792,20 @@
       <c r="AA21" s="9">
         <v>19631.55</v>
       </c>
-      <c r="AB21" s="24">
+      <c r="AB21" s="22">
         <v>491553</v>
       </c>
-      <c r="AC21" s="26">
+      <c r="AC21" s="24">
         <v>2241</v>
       </c>
-      <c r="AD21" s="22">
+      <c r="AD21" s="20">
         <v>345313</v>
       </c>
-      <c r="AE21" s="25">
+      <c r="AE21" s="23">
         <v>4</v>
       </c>
-      <c r="AF21" s="17">
-        <v>417614.34099999996</v>
+      <c r="AF21" s="4">
+        <v>130481.87000000001</v>
       </c>
     </row>
     <row r="22" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -7887,20 +7890,20 @@
       <c r="AA22" s="9">
         <v>22136.799999999999</v>
       </c>
-      <c r="AB22" s="24">
+      <c r="AB22" s="22">
         <v>491350</v>
       </c>
-      <c r="AC22" s="26">
+      <c r="AC22" s="24">
         <v>2353</v>
       </c>
-      <c r="AD22" s="22">
+      <c r="AD22" s="20">
         <v>345205</v>
       </c>
-      <c r="AE22" s="25">
+      <c r="AE22" s="23">
         <v>6</v>
       </c>
-      <c r="AF22" s="17">
-        <v>468325.83400000003</v>
+      <c r="AF22" s="4">
+        <v>124484.76700000001</v>
       </c>
     </row>
     <row r="23" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -7985,20 +7988,20 @@
       <c r="AA23" s="9">
         <v>19381.46</v>
       </c>
-      <c r="AB23" s="24">
+      <c r="AB23" s="22">
         <v>491322</v>
       </c>
-      <c r="AC23" s="26">
+      <c r="AC23" s="24">
         <v>2348</v>
       </c>
-      <c r="AD23" s="22">
+      <c r="AD23" s="20">
         <v>345244</v>
       </c>
-      <c r="AE23" s="25">
+      <c r="AE23" s="23">
         <v>11</v>
       </c>
-      <c r="AF23" s="17">
-        <v>444803.565</v>
+      <c r="AF23" s="4">
+        <v>130145.02</v>
       </c>
     </row>
     <row r="24" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -8083,20 +8086,20 @@
       <c r="AA24" s="9">
         <v>20262.78</v>
       </c>
-      <c r="AB24" s="24">
+      <c r="AB24" s="22">
         <v>491855</v>
       </c>
-      <c r="AC24" s="26">
+      <c r="AC24" s="24">
         <v>2346</v>
       </c>
-      <c r="AD24" s="22">
+      <c r="AD24" s="20">
         <v>345124</v>
       </c>
-      <c r="AE24" s="25">
+      <c r="AE24" s="23">
         <v>6</v>
       </c>
-      <c r="AF24" s="17">
-        <v>449602.96699999995</v>
+      <c r="AF24" s="4">
+        <v>138558.04399999999</v>
       </c>
     </row>
     <row r="25" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -8181,20 +8184,20 @@
       <c r="AA25" s="9">
         <v>19773.04</v>
       </c>
-      <c r="AB25" s="24">
+      <c r="AB25" s="22">
         <v>492113</v>
       </c>
-      <c r="AC25" s="26">
+      <c r="AC25" s="24">
         <v>2344</v>
       </c>
-      <c r="AD25" s="22">
+      <c r="AD25" s="20">
         <v>345409</v>
       </c>
-      <c r="AE25" s="25">
+      <c r="AE25" s="23">
         <v>5</v>
       </c>
-      <c r="AF25" s="17">
-        <v>454952.54100000003</v>
+      <c r="AF25" s="4">
+        <v>145898.647</v>
       </c>
     </row>
   </sheetData>
@@ -8207,7 +8210,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CF82F58-BF82-754E-AFDD-7AE5D19A8863}">
   <dimension ref="A1:AG10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
@@ -8247,107 +8250,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="100" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="I1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="J1" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="K1" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="28" t="s">
+      <c r="L1" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="28" t="s">
+      <c r="M1" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="28" t="s">
+      <c r="N1" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="28" t="s">
+      <c r="O1" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="28" t="s">
+      <c r="P1" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="28" t="s">
+      <c r="Q1" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="28" t="s">
+      <c r="R1" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="28" t="s">
+      <c r="S1" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="28" t="s">
+      <c r="T1" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="28" t="s">
+      <c r="U1" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="29" t="s">
+      <c r="V1" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="30" t="s">
+      <c r="W1" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="30" t="s">
+      <c r="X1" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="30" t="s">
+      <c r="Y1" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="30" t="s">
+      <c r="Z1" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="30" t="s">
+      <c r="AA1" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="AB1" s="30" t="s">
+      <c r="AB1" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="AC1" s="31" t="s">
+      <c r="AC1" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="AD1" s="30" t="s">
+      <c r="AD1" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="AE1" s="30" t="s">
+      <c r="AE1" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="AF1" s="30" t="s">
+      <c r="AF1" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="AG1" s="32" t="s">
+      <c r="AG1" s="30" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:33" ht="40" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" ht="20" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2016</v>
       </c>
@@ -8435,10 +8438,10 @@
       <c r="AC2" s="8">
         <v>1178345</v>
       </c>
-      <c r="AD2" s="26">
+      <c r="AD2" s="24">
         <v>9711</v>
       </c>
-      <c r="AE2" s="26">
+      <c r="AE2" s="24">
         <v>1065315</v>
       </c>
       <c r="AF2" s="2">
@@ -8536,10 +8539,10 @@
       <c r="AC3" s="8">
         <v>1178698</v>
       </c>
-      <c r="AD3" s="26">
+      <c r="AD3" s="24">
         <v>9720</v>
       </c>
-      <c r="AE3" s="26">
+      <c r="AE3" s="24">
         <v>1065376</v>
       </c>
       <c r="AF3" s="2">
@@ -8637,10 +8640,10 @@
       <c r="AC4" s="8">
         <v>1178475</v>
       </c>
-      <c r="AD4" s="26">
+      <c r="AD4" s="24">
         <v>9713</v>
       </c>
-      <c r="AE4" s="26">
+      <c r="AE4" s="24">
         <v>1065197</v>
       </c>
       <c r="AF4" s="2">
@@ -8738,10 +8741,10 @@
       <c r="AC5" s="8">
         <v>2191454</v>
       </c>
-      <c r="AD5" s="26">
+      <c r="AD5" s="24">
         <v>20629</v>
       </c>
-      <c r="AE5" s="22">
+      <c r="AE5" s="20">
         <v>812485</v>
       </c>
       <c r="AF5" s="2">
@@ -8839,10 +8842,10 @@
       <c r="AC6" s="8">
         <v>2191311</v>
       </c>
-      <c r="AD6" s="26">
+      <c r="AD6" s="24">
         <v>20523</v>
       </c>
-      <c r="AE6" s="22">
+      <c r="AE6" s="20">
         <v>813167</v>
       </c>
       <c r="AF6" s="2">
@@ -8940,10 +8943,10 @@
       <c r="AC7" s="8">
         <v>2191867</v>
       </c>
-      <c r="AD7" s="26">
+      <c r="AD7" s="24">
         <v>20527</v>
       </c>
-      <c r="AE7" s="22">
+      <c r="AE7" s="20">
         <v>812834</v>
       </c>
       <c r="AF7" s="2">
@@ -9038,16 +9041,16 @@
       <c r="AB8" s="9">
         <v>19381.46</v>
       </c>
-      <c r="AC8" s="24">
+      <c r="AC8" s="22">
         <v>491322</v>
       </c>
-      <c r="AD8" s="26">
+      <c r="AD8" s="24">
         <v>2348</v>
       </c>
-      <c r="AE8" s="22">
+      <c r="AE8" s="20">
         <v>345244</v>
       </c>
-      <c r="AF8" s="25">
+      <c r="AF8" s="23">
         <v>11</v>
       </c>
       <c r="AG8" s="17">
@@ -9139,16 +9142,16 @@
       <c r="AB9" s="9">
         <v>20262.78</v>
       </c>
-      <c r="AC9" s="24">
+      <c r="AC9" s="22">
         <v>491855</v>
       </c>
-      <c r="AD9" s="26">
+      <c r="AD9" s="24">
         <v>2346</v>
       </c>
-      <c r="AE9" s="22">
+      <c r="AE9" s="20">
         <v>345124</v>
       </c>
-      <c r="AF9" s="25">
+      <c r="AF9" s="23">
         <v>6</v>
       </c>
       <c r="AG9" s="17">
@@ -9240,16 +9243,16 @@
       <c r="AB10" s="9">
         <v>19773.04</v>
       </c>
-      <c r="AC10" s="24">
+      <c r="AC10" s="22">
         <v>492113</v>
       </c>
-      <c r="AD10" s="26">
+      <c r="AD10" s="24">
         <v>2344</v>
       </c>
-      <c r="AE10" s="22">
+      <c r="AE10" s="20">
         <v>345409</v>
       </c>
-      <c r="AF10" s="25">
+      <c r="AF10" s="23">
         <v>5</v>
       </c>
       <c r="AG10" s="17">

--- a/process_data/GPP_6210501001_real.xlsx
+++ b/process_data/GPP_6210501001_real.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pantchanit/Documents/final_stat_pant/process_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04527A00-0AC9-4947-8526-7EBA68CCC577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE5C898F-BFCE-BE4A-8A90-91CAC4D7A466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-35580" yWindow="5620" windowWidth="29040" windowHeight="17920" activeTab="2" xr2:uid="{F412434C-C783-6D4A-8278-77BCBC527C82}"/>
+    <workbookView xWindow="4580" yWindow="1060" windowWidth="29040" windowHeight="17920" xr2:uid="{F412434C-C783-6D4A-8278-77BCBC527C82}"/>
   </bookViews>
   <sheets>
     <sheet name="Ayutthaya" sheetId="1" r:id="rId1"/>
@@ -784,8 +784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{559AE083-E2E3-E54E-9D32-3D8C6F89AA68}">
   <dimension ref="A1:AF26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="V1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA13" sqref="AA13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3263,7 +3263,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8095EF19-8E19-0747-84C0-9C329A469980}">
   <dimension ref="A1:AF25"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" workbookViewId="0">
+    <sheetView topLeftCell="AA1" workbookViewId="0">
       <selection activeCell="AD16" sqref="AD16"/>
     </sheetView>
   </sheetViews>
@@ -5737,8 +5737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFDC5115-B989-7240-9B3D-AF4C2FACAEF3}">
   <dimension ref="A1:AF25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB16" sqref="AB16"/>
+    <sheetView topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="AA18" sqref="AA18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
